--- a/rk_model/Data/Data_Yakou/Yakou_met_data_ITP_rk/input_data_env_variables.xlsx
+++ b/rk_model/Data/Data_Yakou/Yakou_met_data_ITP_rk/input_data_env_variables.xlsx
@@ -435,16 +435,16 @@
         <v>261.5066805555555</v>
       </c>
       <c r="C2">
-        <v>5.703645833333332</v>
+        <v>5.703645833333334</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.41729166666665</v>
+        <v>26.41729166666667</v>
       </c>
       <c r="F2">
-        <v>140.5729166666666</v>
+        <v>140.5729166666667</v>
       </c>
       <c r="G2">
         <v>4.340277777777777E-09</v>
@@ -458,13 +458,13 @@
         <v>260.6023611111111</v>
       </c>
       <c r="C3">
-        <v>4.522027777777776</v>
+        <v>4.522027777777778</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.6032638888889</v>
+        <v>25.60326388888889</v>
       </c>
       <c r="F3">
         <v>136.9096527777778</v>
@@ -481,13 +481,13 @@
         <v>260.7752777777778</v>
       </c>
       <c r="C4">
-        <v>5.572090277777779</v>
+        <v>5.572090277777778</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>43.42826388888892</v>
+        <v>43.42826388888889</v>
       </c>
       <c r="F4">
         <v>108.1423402777778</v>
@@ -504,13 +504,13 @@
         <v>262.3301180555555</v>
       </c>
       <c r="C5">
-        <v>6.037000000000003</v>
+        <v>6.037</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.43611111111112</v>
+        <v>30.43611111111111</v>
       </c>
       <c r="F5">
         <v>147.9335902777778</v>
@@ -527,7 +527,7 @@
         <v>262.9979166666666</v>
       </c>
       <c r="C6">
-        <v>5.978368055555557</v>
+        <v>5.978368055555555</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>22.18</v>
       </c>
       <c r="F6">
-        <v>147.1864583333334</v>
+        <v>147.1864583333333</v>
       </c>
       <c r="G6">
         <v>2.893518518518518E-09</v>
@@ -596,7 +596,7 @@
         <v>258.9961805555556</v>
       </c>
       <c r="C9">
-        <v>4.684680555555555</v>
+        <v>4.684680555555556</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>70.17263888888888</v>
+        <v>70.1726388888889</v>
       </c>
       <c r="F10">
         <v>138.1092569444444</v>
@@ -642,13 +642,13 @@
         <v>254.6953472222222</v>
       </c>
       <c r="C11">
-        <v>2.555972222222224</v>
+        <v>2.555972222222222</v>
       </c>
       <c r="D11">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E11">
-        <v>81.31458333333335</v>
+        <v>81.31458333333333</v>
       </c>
       <c r="F11">
         <v>81.65446527777777</v>
@@ -665,13 +665,13 @@
         <v>252.7243055555555</v>
       </c>
       <c r="C12">
-        <v>2.247437499999999</v>
+        <v>2.2474375</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>77.29499999999996</v>
+        <v>77.295</v>
       </c>
       <c r="F12">
         <v>114.1826736111111</v>
@@ -688,13 +688,13 @@
         <v>254.2881944444444</v>
       </c>
       <c r="C13">
-        <v>3.086256944444444</v>
+        <v>3.086256944444445</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>49.42687500000001</v>
+        <v>49.426875</v>
       </c>
       <c r="F13">
         <v>157.6925902777778</v>
@@ -711,13 +711,13 @@
         <v>256.0109027777777</v>
       </c>
       <c r="C14">
-        <v>3.955409722222224</v>
+        <v>3.955409722222222</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>54.82020833333331</v>
+        <v>54.82020833333333</v>
       </c>
       <c r="F14">
         <v>143.6880138888889</v>
@@ -734,16 +734,16 @@
         <v>257.2842361111111</v>
       </c>
       <c r="C15">
-        <v>5.009840277777776</v>
+        <v>5.009840277777778</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.51472222222221</v>
+        <v>40.51472222222222</v>
       </c>
       <c r="F15">
-        <v>134.8426388888888</v>
+        <v>134.8426388888889</v>
       </c>
       <c r="G15">
         <v>2.023148148148148E-07</v>
@@ -757,7 +757,7 @@
         <v>257.5207638888888</v>
       </c>
       <c r="C16">
-        <v>6.48302777777778</v>
+        <v>6.483027777777778</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>34.88423611111111</v>
       </c>
       <c r="F16">
-        <v>128.6959027777777</v>
+        <v>128.6959027777778</v>
       </c>
       <c r="G16">
         <v>1.244212962962963E-07</v>
@@ -780,7 +780,7 @@
         <v>256.6609722222222</v>
       </c>
       <c r="C17">
-        <v>7.610097222222224</v>
+        <v>7.610097222222223</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.27569444444445</v>
+        <v>26.27569444444444</v>
       </c>
       <c r="F18">
         <v>132.1524791666667</v>
@@ -826,7 +826,7 @@
         <v>256.8513194444444</v>
       </c>
       <c r="C19">
-        <v>9.519374999999997</v>
+        <v>9.519375</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.06333333333334</v>
+        <v>15.06333333333333</v>
       </c>
       <c r="F20">
         <v>121.0957847222222</v>
@@ -895,13 +895,13 @@
         <v>257.8890277777778</v>
       </c>
       <c r="C22">
-        <v>7.482583333333334</v>
+        <v>7.482583333333333</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.76534722222223</v>
+        <v>20.76534722222222</v>
       </c>
       <c r="F22">
         <v>141.5951875</v>
@@ -918,13 +918,13 @@
         <v>259.4583333333333</v>
       </c>
       <c r="C23">
-        <v>4.638618055555557</v>
+        <v>4.638618055555556</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.26527777777777</v>
+        <v>12.26527777777778</v>
       </c>
       <c r="F23">
         <v>176.0315972222222</v>
@@ -938,7 +938,7 @@
         <v>42758</v>
       </c>
       <c r="B24">
-        <v>261.7183263888889</v>
+        <v>261.7183263888888</v>
       </c>
       <c r="C24">
         <v>2.718972222222222</v>
@@ -964,7 +964,7 @@
         <v>262.8697638888889</v>
       </c>
       <c r="C25">
-        <v>3.740687500000001</v>
+        <v>3.7406875</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>18.69062500000001</v>
+        <v>18.690625</v>
       </c>
       <c r="F26">
-        <v>151.3601458333334</v>
+        <v>151.3601458333333</v>
       </c>
       <c r="G26">
         <v>8.680555555555555E-09</v>
@@ -1007,7 +1007,7 @@
         <v>42761</v>
       </c>
       <c r="B27">
-        <v>263.2788680555556</v>
+        <v>263.2788680555555</v>
       </c>
       <c r="C27">
         <v>3.924236111111111</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>34.43833333333335</v>
+        <v>34.43833333333333</v>
       </c>
       <c r="F27">
         <v>136.9272569444445</v>
@@ -1033,7 +1033,7 @@
         <v>266.1608819444444</v>
       </c>
       <c r="C28">
-        <v>7.29291666666667</v>
+        <v>7.292916666666667</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>32.59638888888889</v>
       </c>
       <c r="F28">
-        <v>162.1003125000001</v>
+        <v>162.1003125</v>
       </c>
       <c r="G28">
         <v>8.198298611111111E-09</v>
@@ -1056,13 +1056,13 @@
         <v>261.5157916666666</v>
       </c>
       <c r="C29">
-        <v>6.017534722222218</v>
+        <v>6.017534722222222</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>49.65520833333335</v>
+        <v>49.65520833333333</v>
       </c>
       <c r="F29">
         <v>126.4320347222222</v>
@@ -1079,13 +1079,13 @@
         <v>260.2023611111111</v>
       </c>
       <c r="C30">
-        <v>5.604326388888891</v>
+        <v>5.604326388888889</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>45.23118055555557</v>
+        <v>45.23118055555555</v>
       </c>
       <c r="F30">
         <v>186.1809930555556</v>
@@ -1102,16 +1102,16 @@
         <v>261.8713888888889</v>
       </c>
       <c r="C31">
-        <v>5.933618055555558</v>
+        <v>5.933618055555556</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>41.8292361111111</v>
+        <v>41.82923611111111</v>
       </c>
       <c r="F31">
-        <v>144.1896527777777</v>
+        <v>144.1896527777778</v>
       </c>
       <c r="G31">
         <v>1.613425925925926E-07</v>
@@ -1125,7 +1125,7 @@
         <v>261.6358680555555</v>
       </c>
       <c r="C32">
-        <v>6.987826388888891</v>
+        <v>6.987826388888888</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>35.93076388888889</v>
       </c>
       <c r="F32">
-        <v>174.4549999999999</v>
+        <v>174.455</v>
       </c>
       <c r="G32">
         <v>5.810185185185185E-08</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>30.33958333333332</v>
+        <v>30.33958333333333</v>
       </c>
       <c r="F33">
         <v>184.6550277777778</v>
@@ -1171,13 +1171,13 @@
         <v>263.2511527777777</v>
       </c>
       <c r="C34">
-        <v>5.617881944444441</v>
+        <v>5.617881944444445</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>25.20395833333332</v>
+        <v>25.20395833333333</v>
       </c>
       <c r="F34">
         <v>149.2596527777778</v>
@@ -1194,7 +1194,7 @@
         <v>263.7065486111111</v>
       </c>
       <c r="C35">
-        <v>5.907652777777781</v>
+        <v>5.907652777777778</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>18.30423611111111</v>
       </c>
       <c r="F35">
-        <v>176.5700694444445</v>
+        <v>176.5700694444444</v>
       </c>
       <c r="G35">
         <v>2.55787037037037E-08</v>
@@ -1214,10 +1214,10 @@
         <v>42770</v>
       </c>
       <c r="B36">
-        <v>267.6016805555555</v>
+        <v>267.6016805555556</v>
       </c>
       <c r="C36">
-        <v>5.959395833333332</v>
+        <v>5.959395833333334</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>269.8787222222222</v>
       </c>
       <c r="C37">
-        <v>4.838708333333332</v>
+        <v>4.838708333333333</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>16.46090277777778</v>
       </c>
       <c r="F37">
-        <v>90.06763888888888</v>
+        <v>90.06763888888889</v>
       </c>
       <c r="G37">
         <v>4.363425925925926E-08</v>
@@ -1263,13 +1263,13 @@
         <v>266.7202986111111</v>
       </c>
       <c r="C38">
-        <v>4.218270833333334</v>
+        <v>4.218270833333333</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>32.31479166666667</v>
+        <v>32.31479166666666</v>
       </c>
       <c r="F38">
         <v>66.33634027777777</v>
@@ -1286,13 +1286,13 @@
         <v>255.4556944444444</v>
       </c>
       <c r="C39">
-        <v>5.695833333333331</v>
+        <v>5.695833333333334</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>82.06666666666668</v>
+        <v>82.06666666666666</v>
       </c>
       <c r="F39">
         <v>86.2188888888889</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>83.23333333333328</v>
+        <v>83.23333333333333</v>
       </c>
       <c r="F40">
-        <v>113.1006805555555</v>
+        <v>113.1006805555556</v>
       </c>
       <c r="G40">
         <v>4.988425925925925E-08</v>
@@ -1332,16 +1332,16 @@
         <v>258.0039583333333</v>
       </c>
       <c r="C41">
-        <v>3.059701388888887</v>
+        <v>3.059701388888889</v>
       </c>
       <c r="D41">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E41">
-        <v>62.91166666666665</v>
+        <v>62.91166666666667</v>
       </c>
       <c r="F41">
-        <v>178.1926874999999</v>
+        <v>178.1926875</v>
       </c>
       <c r="G41">
         <v>1.030092592592593E-07</v>
@@ -1355,7 +1355,7 @@
         <v>257.0895138888889</v>
       </c>
       <c r="C42">
-        <v>2.458486111111112</v>
+        <v>2.458486111111111</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>262.1729027777778</v>
       </c>
       <c r="C44">
-        <v>3.929243055555554</v>
+        <v>3.929243055555556</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>29.44673611111112</v>
+        <v>29.44673611111111</v>
       </c>
       <c r="F44">
         <v>208.7588888888889</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>28.32138888888891</v>
+        <v>28.32138888888889</v>
       </c>
       <c r="F45">
-        <v>148.864298611111</v>
+        <v>148.8642986111111</v>
       </c>
       <c r="G45">
         <v>6.215277777777777E-08</v>
@@ -1470,7 +1470,7 @@
         <v>264.8403333333333</v>
       </c>
       <c r="C47">
-        <v>8.166048611111108</v>
+        <v>8.166048611111112</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>264.3869236111111</v>
       </c>
       <c r="C48">
-        <v>6.585965277777779</v>
+        <v>6.585965277777778</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>35.35284722222221</v>
+        <v>35.35284722222222</v>
       </c>
       <c r="F48">
-        <v>115.3140138888888</v>
+        <v>115.3140138888889</v>
       </c>
       <c r="G48">
         <v>2.118055555555556E-08</v>
@@ -1516,16 +1516,16 @@
         <v>264.9050763888889</v>
       </c>
       <c r="C49">
-        <v>5.790000000000003</v>
+        <v>5.79</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>34.32687500000003</v>
+        <v>34.326875</v>
       </c>
       <c r="F49">
-        <v>200.4473194444445</v>
+        <v>200.4473194444444</v>
       </c>
       <c r="G49">
         <v>1.423611111111111E-08</v>
@@ -1539,13 +1539,13 @@
         <v>267.9043125</v>
       </c>
       <c r="C50">
-        <v>7.255694444444446</v>
+        <v>7.255694444444444</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>19.65581944444444</v>
+        <v>19.65581944444445</v>
       </c>
       <c r="F50">
         <v>227.8323263888889</v>
@@ -1562,13 +1562,13 @@
         <v>269.4499027777778</v>
       </c>
       <c r="C51">
-        <v>4.650090277777775</v>
+        <v>4.650090277777778</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>18.73680555555555</v>
+        <v>18.73680555555556</v>
       </c>
       <c r="F51">
         <v>173.7388888888889</v>
@@ -1594,7 +1594,7 @@
         <v>37.6975</v>
       </c>
       <c r="F52">
-        <v>125.1627222222223</v>
+        <v>125.1627222222222</v>
       </c>
       <c r="G52">
         <v>1.620370370370371E-08</v>
@@ -1608,13 +1608,13 @@
         <v>256.8679166666666</v>
       </c>
       <c r="C53">
-        <v>5.074874999999999</v>
+        <v>5.074875</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>83.24652777777771</v>
+        <v>83.24652777777777</v>
       </c>
       <c r="F53">
         <v>160.9182152777778</v>
@@ -1637,10 +1637,10 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E54">
-        <v>82.81388888888893</v>
+        <v>82.8138888888889</v>
       </c>
       <c r="F54">
-        <v>173.0915208333334</v>
+        <v>173.0915208333333</v>
       </c>
       <c r="G54">
         <v>9.745370370370371E-08</v>
@@ -1654,13 +1654,13 @@
         <v>257.3595138888888</v>
       </c>
       <c r="C55">
-        <v>3.113472222222223</v>
+        <v>3.113472222222222</v>
       </c>
       <c r="D55">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E55">
-        <v>83.42777777777781</v>
+        <v>83.42777777777778</v>
       </c>
       <c r="F55">
         <v>160.4456388888889</v>
@@ -1677,13 +1677,13 @@
         <v>257.6612430555555</v>
       </c>
       <c r="C56">
-        <v>2.962624999999999</v>
+        <v>2.962625</v>
       </c>
       <c r="D56">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E56">
-        <v>81.19513888888888</v>
+        <v>81.19513888888889</v>
       </c>
       <c r="F56">
         <v>124.5465486111111</v>
@@ -1700,16 +1700,16 @@
         <v>256.1932638888889</v>
       </c>
       <c r="C57">
-        <v>4.932902777777779</v>
+        <v>4.932902777777778</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>56.13777777777776</v>
+        <v>56.13777777777778</v>
       </c>
       <c r="F57">
-        <v>231.9450486111112</v>
+        <v>231.9450486111111</v>
       </c>
       <c r="G57">
         <v>3.69675925925926E-07</v>
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>37.12687500000003</v>
+        <v>37.12687500000001</v>
       </c>
       <c r="F58">
-        <v>249.3954999999999</v>
+        <v>249.3955</v>
       </c>
       <c r="G58">
         <v>3.462962962962963E-07</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>42.46493055555554</v>
+        <v>42.46493055555555</v>
       </c>
       <c r="F59">
         <v>210.4009722222222</v>
@@ -1769,13 +1769,13 @@
         <v>256.3420833333333</v>
       </c>
       <c r="C60">
-        <v>5.522625</v>
+        <v>5.522625000000001</v>
       </c>
       <c r="D60">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E60">
-        <v>82.51180555555554</v>
+        <v>82.51180555555555</v>
       </c>
       <c r="F60">
         <v>189.9182638888889</v>
@@ -1792,16 +1792,16 @@
         <v>257.775</v>
       </c>
       <c r="C61">
-        <v>4.316097222222221</v>
+        <v>4.316097222222222</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>39.54270833333334</v>
+        <v>39.54270833333333</v>
       </c>
       <c r="F61">
-        <v>254.640826388889</v>
+        <v>254.6408263888889</v>
       </c>
       <c r="G61">
         <v>2.922453703703704E-07</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>34.40506944444445</v>
+        <v>34.40506944444444</v>
       </c>
       <c r="F62">
         <v>256.1820138888889</v>
@@ -1838,13 +1838,13 @@
         <v>261.3011805555556</v>
       </c>
       <c r="C63">
-        <v>3.693312500000001</v>
+        <v>3.6933125</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>34.83861111111108</v>
+        <v>34.83861111111111</v>
       </c>
       <c r="F63">
         <v>243.8665277777778</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>56.07479166666666</v>
+        <v>56.07479166666667</v>
       </c>
       <c r="F64">
-        <v>194.4423263888888</v>
+        <v>194.4423263888889</v>
       </c>
       <c r="G64">
         <v>1.991898148148148E-07</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>82.94583333333331</v>
+        <v>82.94583333333334</v>
       </c>
       <c r="F65">
-        <v>220.3281249999999</v>
+        <v>220.328125</v>
       </c>
       <c r="G65">
         <v>2.141203703703704E-07</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>83.91805555555557</v>
+        <v>83.91805555555555</v>
       </c>
       <c r="F66">
-        <v>208.4963333333333</v>
+        <v>208.4963333333334</v>
       </c>
       <c r="G66">
         <v>4.496527777777778E-07</v>
@@ -1930,16 +1930,16 @@
         <v>256.9888194444444</v>
       </c>
       <c r="C67">
-        <v>3.348305555555554</v>
+        <v>3.348305555555556</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>80.84194444444442</v>
+        <v>80.84194444444444</v>
       </c>
       <c r="F67">
-        <v>207.4468055555555</v>
+        <v>207.4468055555556</v>
       </c>
       <c r="G67">
         <v>6.380787037037037E-07</v>
@@ -1953,13 +1953,13 @@
         <v>258.5066666666667</v>
       </c>
       <c r="C68">
-        <v>3.951791666666666</v>
+        <v>3.951791666666667</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>56.23131944444446</v>
+        <v>56.23131944444444</v>
       </c>
       <c r="F68">
         <v>201.8474513888889</v>
@@ -1976,7 +1976,7 @@
         <v>261.1150208333333</v>
       </c>
       <c r="C69">
-        <v>3.520006944444443</v>
+        <v>3.520006944444444</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>258.8483888888888</v>
       </c>
       <c r="C71">
-        <v>3.002243055555557</v>
+        <v>3.002243055555555</v>
       </c>
       <c r="D71">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E71">
-        <v>84.70416666666668</v>
+        <v>84.70416666666667</v>
       </c>
       <c r="F71">
         <v>196.8970902777778</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>85.01250000000003</v>
+        <v>85.01249999999999</v>
       </c>
       <c r="F73">
-        <v>200.3291180555555</v>
+        <v>200.3291180555556</v>
       </c>
       <c r="G73">
         <v>1.428240740740741E-06</v>
@@ -2088,16 +2088,16 @@
         <v>42808</v>
       </c>
       <c r="B74">
-        <v>261.0397430555556</v>
+        <v>261.0397430555555</v>
       </c>
       <c r="C74">
-        <v>2.809534722222223</v>
+        <v>2.809534722222222</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>87.32916666666665</v>
+        <v>87.32916666666667</v>
       </c>
       <c r="F74">
         <v>197.9099166666666</v>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>75.16465277777773</v>
+        <v>75.16465277777777</v>
       </c>
       <c r="F75">
-        <v>206.8308194444445</v>
+        <v>206.8308194444444</v>
       </c>
       <c r="G75">
         <v>1.530208333333333E-06</v>
@@ -2137,7 +2137,7 @@
         <v>261.0239513888889</v>
       </c>
       <c r="C76">
-        <v>5.012750000000003</v>
+        <v>5.01275</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>59.53840277777778</v>
       </c>
       <c r="F76">
-        <v>233.886923611111</v>
+        <v>233.8869236111111</v>
       </c>
       <c r="G76">
         <v>1.434259259259259E-06</v>
@@ -2160,7 +2160,7 @@
         <v>262.3893611111111</v>
       </c>
       <c r="C77">
-        <v>5.495444444444442</v>
+        <v>5.495444444444445</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>263.2057083333333</v>
       </c>
       <c r="C78">
-        <v>4.342409722222225</v>
+        <v>4.342409722222222</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>68.61534722222221</v>
+        <v>68.61534722222223</v>
       </c>
       <c r="F78">
         <v>226.640625</v>
@@ -2206,13 +2206,13 @@
         <v>263.4457430555555</v>
       </c>
       <c r="C79">
-        <v>4.43386111111111</v>
+        <v>4.433861111111111</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>53.41965277777776</v>
+        <v>53.41965277777778</v>
       </c>
       <c r="F79">
         <v>291.6929097222222</v>
@@ -2229,16 +2229,16 @@
         <v>263.0850972222222</v>
       </c>
       <c r="C80">
-        <v>2.826208333333334</v>
+        <v>2.826208333333333</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>66.63104166666666</v>
+        <v>66.63104166666668</v>
       </c>
       <c r="F80">
-        <v>189.8697916666666</v>
+        <v>189.8697916666667</v>
       </c>
       <c r="G80">
         <v>1.344097222222222E-06</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>60.62243055555552</v>
+        <v>60.62243055555555</v>
       </c>
       <c r="F82">
         <v>225.5749166666667</v>
@@ -2298,13 +2298,13 @@
         <v>262.7074305555556</v>
       </c>
       <c r="C83">
-        <v>6.319847222222223</v>
+        <v>6.319847222222222</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>53.48847222222223</v>
+        <v>53.48847222222222</v>
       </c>
       <c r="F83">
         <v>292.8958611111111</v>
@@ -2321,16 +2321,16 @@
         <v>258.4447222222222</v>
       </c>
       <c r="C84">
-        <v>4.971423611111112</v>
+        <v>4.971423611111111</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>54.48437500000001</v>
+        <v>54.484375</v>
       </c>
       <c r="F84">
-        <v>304.2133611111112</v>
+        <v>304.2133611111111</v>
       </c>
       <c r="G84">
         <v>1.597222222222222E-06</v>
@@ -2344,7 +2344,7 @@
         <v>258.9366666666667</v>
       </c>
       <c r="C85">
-        <v>4.983659722222222</v>
+        <v>4.983659722222223</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>268.3537708333333</v>
       </c>
       <c r="C87">
-        <v>6.497208333333332</v>
+        <v>6.497208333333333</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>31.87951388888889</v>
       </c>
       <c r="F87">
-        <v>320.0290555555556</v>
+        <v>320.0290555555555</v>
       </c>
       <c r="G87">
         <v>1.444097222222222E-06</v>
@@ -2419,10 +2419,10 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E88">
-        <v>40.58868055555553</v>
+        <v>40.58868055555556</v>
       </c>
       <c r="F88">
-        <v>263.7464583333332</v>
+        <v>263.7464583333333</v>
       </c>
       <c r="G88">
         <v>1.367939814814815E-06</v>
@@ -2436,13 +2436,13 @@
         <v>262.7384027777778</v>
       </c>
       <c r="C89">
-        <v>6.57540972222222</v>
+        <v>6.575409722222222</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>78.96208333333331</v>
+        <v>78.96208333333334</v>
       </c>
       <c r="F89">
         <v>155.8584652777778</v>
@@ -2459,13 +2459,13 @@
         <v>262.0143402777778</v>
       </c>
       <c r="C90">
-        <v>4.124055555555554</v>
+        <v>4.124055555555556</v>
       </c>
       <c r="D90">
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E90">
-        <v>67.27736111111109</v>
+        <v>67.27736111111112</v>
       </c>
       <c r="F90">
         <v>329.1127569444445</v>
@@ -2482,7 +2482,7 @@
         <v>264.6175694444444</v>
       </c>
       <c r="C91">
-        <v>5.331520833333332</v>
+        <v>5.331520833333333</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>35.66451388888888</v>
       </c>
       <c r="F91">
-        <v>331.5905694444445</v>
+        <v>331.5905694444444</v>
       </c>
       <c r="G91">
         <v>1.35462962962963E-06</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>25.31437499999999</v>
+        <v>25.314375</v>
       </c>
       <c r="F92">
-        <v>313.4929166666666</v>
+        <v>313.4929166666667</v>
       </c>
       <c r="G92">
         <v>1.30474537037037E-06</v>
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>38.06895833333334</v>
+        <v>38.06895833333333</v>
       </c>
       <c r="F93">
-        <v>226.386076388889</v>
+        <v>226.3860763888889</v>
       </c>
       <c r="G93">
         <v>1.122222222222222E-06</v>
@@ -2557,7 +2557,7 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E94">
-        <v>86.54215277777783</v>
+        <v>86.54215277777777</v>
       </c>
       <c r="F94">
         <v>176.4659861111111</v>
@@ -2574,16 +2574,16 @@
         <v>268.5599861111111</v>
       </c>
       <c r="C95">
-        <v>4.011145833333332</v>
+        <v>4.011145833333334</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>64.81680555555549</v>
+        <v>64.81680555555556</v>
       </c>
       <c r="F95">
-        <v>284.7234722222221</v>
+        <v>284.7234722222222</v>
       </c>
       <c r="G95">
         <v>1.498611111111111E-06</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>47.73319444444446</v>
+        <v>47.73319444444444</v>
       </c>
       <c r="F96">
         <v>293.2007986111111</v>
@@ -2620,16 +2620,16 @@
         <v>273.55325</v>
       </c>
       <c r="C97">
-        <v>4.719361111111109</v>
+        <v>4.719361111111111</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>34.91506944444444</v>
+        <v>34.91506944444445</v>
       </c>
       <c r="F97">
-        <v>256.638736111111</v>
+        <v>256.6387361111111</v>
       </c>
       <c r="G97">
         <v>1.163657407407408E-06</v>
@@ -2643,13 +2643,13 @@
         <v>267.7679166666666</v>
       </c>
       <c r="C98">
-        <v>4.878708333333336</v>
+        <v>4.878708333333333</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>79.84298611111112</v>
+        <v>79.8429861111111</v>
       </c>
       <c r="F98">
         <v>135.8738888888889</v>
@@ -2672,7 +2672,7 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E99">
-        <v>91.97013888888887</v>
+        <v>91.9701388888889</v>
       </c>
       <c r="F99">
         <v>129.9277013888889</v>
@@ -2695,7 +2695,7 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E100">
-        <v>92.62083333333337</v>
+        <v>92.62083333333334</v>
       </c>
       <c r="F100">
         <v>131.3635763888889</v>
@@ -2712,13 +2712,13 @@
         <v>263.2784375</v>
       </c>
       <c r="C101">
-        <v>5.641749999999998</v>
+        <v>5.64175</v>
       </c>
       <c r="D101">
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E101">
-        <v>88.39583333333336</v>
+        <v>88.39583333333333</v>
       </c>
       <c r="F101">
         <v>295.4393402777778</v>
@@ -2735,16 +2735,16 @@
         <v>263.0672222222222</v>
       </c>
       <c r="C102">
-        <v>2.935125000000001</v>
+        <v>2.935125</v>
       </c>
       <c r="D102">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E102">
-        <v>81.84041666666673</v>
+        <v>81.84041666666667</v>
       </c>
       <c r="F102">
-        <v>201.8408958333334</v>
+        <v>201.8408958333333</v>
       </c>
       <c r="G102">
         <v>1.401388888888889E-06</v>
@@ -2758,13 +2758,13 @@
         <v>263.1557638888889</v>
       </c>
       <c r="C103">
-        <v>4.165020833333332</v>
+        <v>4.165020833333333</v>
       </c>
       <c r="D103">
         <v>1.273148148148148E-07</v>
       </c>
       <c r="E103">
-        <v>65.70576388888887</v>
+        <v>65.70576388888888</v>
       </c>
       <c r="F103">
         <v>220.9747986111111</v>
@@ -2781,16 +2781,16 @@
         <v>266.2375555555556</v>
       </c>
       <c r="C104">
-        <v>8.791569444444448</v>
+        <v>8.791569444444445</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>52.1953472222222</v>
+        <v>52.19534722222222</v>
       </c>
       <c r="F104">
-        <v>195.8035416666666</v>
+        <v>195.8035416666667</v>
       </c>
       <c r="G104">
         <v>1.455671296296296E-06</v>
@@ -2810,7 +2810,7 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E105">
-        <v>59.18361111111109</v>
+        <v>59.18361111111111</v>
       </c>
       <c r="F105">
         <v>215.2865972222222</v>
@@ -2830,10 +2830,10 @@
         <v>3.794145833333333</v>
       </c>
       <c r="D106">
-        <v>1.620370370370371E-08</v>
+        <v>1.62037037037037E-08</v>
       </c>
       <c r="E106">
-        <v>91.20347222222226</v>
+        <v>91.20347222222222</v>
       </c>
       <c r="F106">
         <v>275.9673472222223</v>
@@ -2850,13 +2850,13 @@
         <v>264.5762708333333</v>
       </c>
       <c r="C107">
-        <v>4.762833333333335</v>
+        <v>4.762833333333333</v>
       </c>
       <c r="D107">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E107">
-        <v>60.77263888888891</v>
+        <v>60.77263888888889</v>
       </c>
       <c r="F107">
         <v>373.5025555555555</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>43.30250000000002</v>
+        <v>43.3025</v>
       </c>
       <c r="F108">
         <v>331.4672222222222</v>
@@ -2896,16 +2896,16 @@
         <v>273.2309513888889</v>
       </c>
       <c r="C109">
-        <v>6.495340277777779</v>
+        <v>6.495340277777777</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>55.23708333333335</v>
+        <v>55.23708333333334</v>
       </c>
       <c r="F109">
-        <v>236.9574444444444</v>
+        <v>236.9574444444445</v>
       </c>
       <c r="G109">
         <v>1.536226851851852E-06</v>
@@ -2919,13 +2919,13 @@
         <v>264.2510347222222</v>
       </c>
       <c r="C110">
-        <v>5.964027777777774</v>
+        <v>5.964027777777778</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>86.58881944444444</v>
+        <v>86.58881944444445</v>
       </c>
       <c r="F110">
         <v>308.2244444444444</v>
@@ -2942,13 +2942,13 @@
         <v>264.6274513888889</v>
       </c>
       <c r="C111">
-        <v>4.520118055555553</v>
+        <v>4.520118055555556</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>44.98291666666666</v>
+        <v>44.98291666666667</v>
       </c>
       <c r="F111">
         <v>352.3844791666667</v>
@@ -2965,16 +2965,16 @@
         <v>265.6284166666666</v>
       </c>
       <c r="C112">
-        <v>3.024291666666665</v>
+        <v>3.024291666666667</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>67.94861111111111</v>
+        <v>67.94861111111112</v>
       </c>
       <c r="F112">
-        <v>250.033611111111</v>
+        <v>250.0336111111111</v>
       </c>
       <c r="G112">
         <v>1.470833333333333E-06</v>
@@ -2988,13 +2988,13 @@
         <v>267.60875</v>
       </c>
       <c r="C113">
-        <v>4.802791666666668</v>
+        <v>4.802791666666667</v>
       </c>
       <c r="D113">
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E113">
-        <v>55.85013888888887</v>
+        <v>55.85013888888889</v>
       </c>
       <c r="F113">
         <v>362.1805208333333</v>
@@ -3011,16 +3011,16 @@
         <v>269.5861944444444</v>
       </c>
       <c r="C114">
-        <v>4.752895833333332</v>
+        <v>4.752895833333334</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>48.05680555555553</v>
+        <v>48.05680555555556</v>
       </c>
       <c r="F114">
-        <v>323.0396249999998</v>
+        <v>323.039625</v>
       </c>
       <c r="G114">
         <v>1.361689814814815E-06</v>
@@ -3034,16 +3034,16 @@
         <v>268.4227430555555</v>
       </c>
       <c r="C115">
-        <v>4.692361111111114</v>
+        <v>4.692361111111111</v>
       </c>
       <c r="D115">
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E115">
-        <v>70.89916666666663</v>
+        <v>70.89916666666666</v>
       </c>
       <c r="F115">
-        <v>207.0739722222223</v>
+        <v>207.0739722222222</v>
       </c>
       <c r="G115">
         <v>1.388888888888889E-06</v>
@@ -3063,7 +3063,7 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E116">
-        <v>92.72499999999997</v>
+        <v>92.72499999999999</v>
       </c>
       <c r="F116">
         <v>233.4965555555556</v>
@@ -3080,16 +3080,16 @@
         <v>267.0831597222222</v>
       </c>
       <c r="C117">
-        <v>2.756874999999998</v>
+        <v>2.756875</v>
       </c>
       <c r="D117">
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E117">
-        <v>88.42833333333336</v>
+        <v>88.42833333333334</v>
       </c>
       <c r="F117">
-        <v>234.3052777777777</v>
+        <v>234.3052777777778</v>
       </c>
       <c r="G117">
         <v>1.790393518518518E-06</v>
@@ -3103,16 +3103,16 @@
         <v>267.3447013888889</v>
       </c>
       <c r="C118">
-        <v>3.312993055555555</v>
+        <v>3.312993055555556</v>
       </c>
       <c r="D118">
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E118">
-        <v>90.08374999999995</v>
+        <v>90.08374999999999</v>
       </c>
       <c r="F118">
-        <v>263.2263194444443</v>
+        <v>263.2263194444444</v>
       </c>
       <c r="G118">
         <v>2.238888888888889E-06</v>
@@ -3132,10 +3132,10 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E119">
-        <v>81.8694444444444</v>
+        <v>81.86944444444445</v>
       </c>
       <c r="F119">
-        <v>308.5804166666665</v>
+        <v>308.5804166666667</v>
       </c>
       <c r="G119">
         <v>2.189699074074074E-06</v>
@@ -3149,7 +3149,7 @@
         <v>268.6425277777777</v>
       </c>
       <c r="C120">
-        <v>4.193229166666669</v>
+        <v>4.193229166666667</v>
       </c>
       <c r="D120">
         <v>2.777777777777778E-08</v>
@@ -3158,7 +3158,7 @@
         <v>87.68875</v>
       </c>
       <c r="F120">
-        <v>235.4447916666666</v>
+        <v>235.4447916666667</v>
       </c>
       <c r="G120">
         <v>2.329513888888889E-06</v>
@@ -3178,7 +3178,7 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E121">
-        <v>89.76611111111116</v>
+        <v>89.76611111111112</v>
       </c>
       <c r="F121">
         <v>268.0682777777778</v>
@@ -3201,10 +3201,10 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E122">
-        <v>77.02548611111109</v>
+        <v>77.02548611111111</v>
       </c>
       <c r="F122">
-        <v>321.5786249999999</v>
+        <v>321.578625</v>
       </c>
       <c r="G122">
         <v>2.105787037037037E-06</v>
@@ -3224,7 +3224,7 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E123">
-        <v>92.69166666666663</v>
+        <v>92.69166666666666</v>
       </c>
       <c r="F123">
         <v>181.4484722222222</v>
@@ -3241,13 +3241,13 @@
         <v>266.0009305555556</v>
       </c>
       <c r="C124">
-        <v>6.245909722222221</v>
+        <v>6.245909722222223</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>64.37027777777779</v>
+        <v>64.37027777777777</v>
       </c>
       <c r="F124">
         <v>368.6195</v>
@@ -3264,13 +3264,13 @@
         <v>266.3935486111111</v>
       </c>
       <c r="C125">
-        <v>9.027645833333334</v>
+        <v>9.027645833333333</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>48.59444444444443</v>
+        <v>48.59444444444445</v>
       </c>
       <c r="F125">
         <v>257.5602569444445</v>
@@ -3287,7 +3287,7 @@
         <v>265.9429166666666</v>
       </c>
       <c r="C126">
-        <v>3.741381944444445</v>
+        <v>3.741381944444444</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>53.17131944444444</v>
       </c>
       <c r="F126">
-        <v>371.2181458333332</v>
+        <v>371.2181458333333</v>
       </c>
       <c r="G126">
         <v>2.207060185185185E-06</v>
@@ -3310,16 +3310,16 @@
         <v>267.5385694444444</v>
       </c>
       <c r="C127">
-        <v>4.757562500000002</v>
+        <v>4.7575625</v>
       </c>
       <c r="D127">
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E127">
-        <v>79.91048611111113</v>
+        <v>79.91048611111111</v>
       </c>
       <c r="F127">
-        <v>287.2508472222221</v>
+        <v>287.2508472222223</v>
       </c>
       <c r="G127">
         <v>2.268518518518518E-06</v>
@@ -3333,7 +3333,7 @@
         <v>266.8526111111111</v>
       </c>
       <c r="C128">
-        <v>4.792347222222223</v>
+        <v>4.792347222222222</v>
       </c>
       <c r="D128">
         <v>1.157407407407407E-09</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>59.2920833333333</v>
+        <v>59.29208333333333</v>
       </c>
       <c r="F129">
-        <v>319.0195138888887</v>
+        <v>319.0195138888889</v>
       </c>
       <c r="G129">
         <v>3.184375E-06</v>
@@ -3379,13 +3379,13 @@
         <v>269.422</v>
       </c>
       <c r="C130">
-        <v>4.360180555555554</v>
+        <v>4.360180555555555</v>
       </c>
       <c r="D130">
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E130">
-        <v>77.62534722222225</v>
+        <v>77.62534722222222</v>
       </c>
       <c r="F130">
         <v>321.3820833333333</v>
@@ -3402,13 +3402,13 @@
         <v>269.6628472222222</v>
       </c>
       <c r="C131">
-        <v>4.301208333333332</v>
+        <v>4.301208333333333</v>
       </c>
       <c r="D131">
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E131">
-        <v>84.07993055555549</v>
+        <v>84.07993055555556</v>
       </c>
       <c r="F131">
         <v>200.5245416666667</v>
@@ -3425,13 +3425,13 @@
         <v>270.3249097222222</v>
       </c>
       <c r="C132">
-        <v>5.15482638888889</v>
+        <v>5.154826388888889</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>63.54625000000002</v>
+        <v>63.54625</v>
       </c>
       <c r="F132">
         <v>371.6969444444445</v>
@@ -3448,7 +3448,7 @@
         <v>274.6147777777778</v>
       </c>
       <c r="C133">
-        <v>2.877590277777777</v>
+        <v>2.877590277777778</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E134">
-        <v>82.3995833333334</v>
+        <v>82.39958333333334</v>
       </c>
       <c r="F134">
         <v>137.9861875</v>
@@ -3494,16 +3494,16 @@
         <v>267.2415555555555</v>
       </c>
       <c r="C135">
-        <v>5.568576388888888</v>
+        <v>5.568576388888889</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>81.43312499999996</v>
+        <v>81.433125</v>
       </c>
       <c r="F135">
-        <v>331.5432916666667</v>
+        <v>331.5432916666666</v>
       </c>
       <c r="G135">
         <v>2.414351851851852E-06</v>
@@ -3517,16 +3517,16 @@
         <v>269.0598402777778</v>
       </c>
       <c r="C136">
-        <v>4.423368055555557</v>
+        <v>4.423368055555556</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>80.14409722222221</v>
+        <v>80.14409722222223</v>
       </c>
       <c r="F136">
-        <v>332.6815138888887</v>
+        <v>332.6815138888889</v>
       </c>
       <c r="G136">
         <v>2.244212962962963E-06</v>
@@ -3540,16 +3540,16 @@
         <v>270.7161041666666</v>
       </c>
       <c r="C137">
-        <v>4.340430555555554</v>
+        <v>4.340430555555556</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>71.43166666666663</v>
+        <v>71.43166666666667</v>
       </c>
       <c r="F137">
-        <v>249.4980416666666</v>
+        <v>249.4980416666667</v>
       </c>
       <c r="G137">
         <v>2.052199074074074E-06</v>
@@ -3586,13 +3586,13 @@
         <v>275.5550208333333</v>
       </c>
       <c r="C139">
-        <v>3.350930555555554</v>
+        <v>3.350930555555555</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>34.62951388888891</v>
+        <v>34.62951388888889</v>
       </c>
       <c r="F139">
         <v>403.8548125</v>
@@ -3609,16 +3609,16 @@
         <v>278.0416388888889</v>
       </c>
       <c r="C140">
-        <v>4.912833333333335</v>
+        <v>4.912833333333333</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>33.51069444444444</v>
+        <v>33.51069444444445</v>
       </c>
       <c r="F140">
-        <v>369.4063819444443</v>
+        <v>369.4063819444444</v>
       </c>
       <c r="G140">
         <v>6.795138888888889E-07</v>
@@ -3632,16 +3632,16 @@
         <v>275.4112361111111</v>
       </c>
       <c r="C141">
-        <v>3.943743055555553</v>
+        <v>3.943743055555556</v>
       </c>
       <c r="D141">
-        <v>3.587962962962964E-08</v>
+        <v>3.587962962962963E-08</v>
       </c>
       <c r="E141">
-        <v>57.30034722222225</v>
+        <v>57.30034722222222</v>
       </c>
       <c r="F141">
-        <v>239.9394444444446</v>
+        <v>239.9394444444444</v>
       </c>
       <c r="G141">
         <v>2.572916666666667E-07</v>
@@ -3661,7 +3661,7 @@
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E142">
-        <v>93.44791666666661</v>
+        <v>93.44791666666667</v>
       </c>
       <c r="F142">
         <v>255.0827361111111</v>
@@ -3684,10 +3684,10 @@
         <v>8.101851851851853E-09</v>
       </c>
       <c r="E143">
-        <v>92.96826388888887</v>
+        <v>92.96826388888888</v>
       </c>
       <c r="F143">
-        <v>294.7614930555556</v>
+        <v>294.7614930555555</v>
       </c>
       <c r="G143">
         <v>1.638425925925926E-06</v>
@@ -3707,10 +3707,10 @@
         <v>1.157407407407407E-08</v>
       </c>
       <c r="E144">
-        <v>89.09097222222215</v>
+        <v>89.09097222222222</v>
       </c>
       <c r="F144">
-        <v>285.6416527777781</v>
+        <v>285.6416527777778</v>
       </c>
       <c r="G144">
         <v>1.246875E-06</v>
@@ -3721,16 +3721,16 @@
         <v>42879</v>
       </c>
       <c r="B145">
-        <v>269.3423749999999</v>
+        <v>269.342375</v>
       </c>
       <c r="C145">
-        <v>3.919319444444445</v>
+        <v>3.919319444444444</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>93.03437499999997</v>
+        <v>93.03437500000001</v>
       </c>
       <c r="F145">
         <v>269.4023611111111</v>
@@ -3747,13 +3747,13 @@
         <v>270.9363125</v>
       </c>
       <c r="C146">
-        <v>1.975006944444445</v>
+        <v>1.975006944444444</v>
       </c>
       <c r="D146">
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E146">
-        <v>68.74736111111103</v>
+        <v>68.74736111111112</v>
       </c>
       <c r="F146">
         <v>401.8444722222222</v>
@@ -3770,16 +3770,16 @@
         <v>274.3040416666666</v>
       </c>
       <c r="C147">
-        <v>2.576423611111112</v>
+        <v>2.576423611111111</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>47.32944444444445</v>
+        <v>47.32944444444444</v>
       </c>
       <c r="F147">
-        <v>408.8081319444446</v>
+        <v>408.8081319444444</v>
       </c>
       <c r="G147">
         <v>8.692129629629629E-07</v>
@@ -3793,16 +3793,16 @@
         <v>276.5631736111111</v>
       </c>
       <c r="C148">
-        <v>3.489562499999998</v>
+        <v>3.4895625</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>42.11874999999999</v>
+        <v>42.11875000000001</v>
       </c>
       <c r="F148">
-        <v>379.3609374999999</v>
+        <v>379.3609375</v>
       </c>
       <c r="G148">
         <v>4.398148148148148E-07</v>
@@ -3816,16 +3816,16 @@
         <v>276.8387986111111</v>
       </c>
       <c r="C149">
-        <v>4.267611111111109</v>
+        <v>4.267611111111112</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>38.27972222222221</v>
+        <v>38.27972222222222</v>
       </c>
       <c r="F149">
-        <v>273.3565902777776</v>
+        <v>273.3565902777778</v>
       </c>
       <c r="G149">
         <v>7.812499999999999E-08</v>
@@ -3839,13 +3839,13 @@
         <v>274.4927847222222</v>
       </c>
       <c r="C150">
-        <v>3.958499999999997</v>
+        <v>3.9585</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>58.76062499999999</v>
+        <v>58.760625</v>
       </c>
       <c r="F150">
         <v>256.9715763888889</v>
@@ -3868,7 +3868,7 @@
         <v>1.122685185185185E-07</v>
       </c>
       <c r="E151">
-        <v>78.11972222222226</v>
+        <v>78.11972222222222</v>
       </c>
       <c r="F151">
         <v>339.3747083333333</v>
@@ -3891,10 +3891,10 @@
         <v>2.314814814814815E-08</v>
       </c>
       <c r="E152">
-        <v>85.26118055555551</v>
+        <v>85.26118055555555</v>
       </c>
       <c r="F152">
-        <v>158.1908541666668</v>
+        <v>158.1908541666667</v>
       </c>
       <c r="G152">
         <v>1.135416666666667E-07</v>
@@ -3908,13 +3908,13 @@
         <v>275.4935694444444</v>
       </c>
       <c r="C153">
-        <v>2.810881944444443</v>
+        <v>2.810881944444445</v>
       </c>
       <c r="D153">
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E153">
-        <v>65.85416666666669</v>
+        <v>65.85416666666667</v>
       </c>
       <c r="F153">
         <v>254.9290069444445</v>
@@ -3931,16 +3931,16 @@
         <v>273.4233888888889</v>
       </c>
       <c r="C154">
-        <v>6.045388888888888</v>
+        <v>6.04538888888889</v>
       </c>
       <c r="D154">
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E154">
-        <v>81.21743055555565</v>
+        <v>81.21743055555555</v>
       </c>
       <c r="F154">
-        <v>87.97195138888884</v>
+        <v>87.97195138888888</v>
       </c>
       <c r="G154">
         <v>5.138888888888889E-08</v>
@@ -3954,10 +3954,10 @@
         <v>271.9540486111111</v>
       </c>
       <c r="C155">
-        <v>2.709006944444445</v>
+        <v>2.709006944444444</v>
       </c>
       <c r="D155">
-        <v>8.449074074074071E-08</v>
+        <v>8.449074074074074E-08</v>
       </c>
       <c r="E155">
         <v>95.03472222222223</v>
@@ -3977,16 +3977,16 @@
         <v>271.5318333333333</v>
       </c>
       <c r="C156">
-        <v>6.779645833333335</v>
+        <v>6.779645833333333</v>
       </c>
       <c r="D156">
         <v>1.273148148148148E-08</v>
       </c>
       <c r="E156">
-        <v>91.45819444444447</v>
+        <v>91.45819444444444</v>
       </c>
       <c r="F156">
-        <v>268.4005138888888</v>
+        <v>268.4005138888889</v>
       </c>
       <c r="G156">
         <v>1.074884259259259E-06</v>
@@ -4000,16 +4000,16 @@
         <v>270.7849722222222</v>
       </c>
       <c r="C157">
-        <v>7.187541666666665</v>
+        <v>7.187541666666667</v>
       </c>
       <c r="D157">
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E157">
-        <v>86.56930555555553</v>
+        <v>86.56930555555556</v>
       </c>
       <c r="F157">
-        <v>282.5539722222223</v>
+        <v>282.5539722222222</v>
       </c>
       <c r="G157">
         <v>1.452314814814815E-06</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>74.4728472222222</v>
+        <v>74.47284722222223</v>
       </c>
       <c r="F158">
         <v>324.2178958333333</v>
@@ -4046,16 +4046,16 @@
         <v>272.4599305555556</v>
       </c>
       <c r="C159">
-        <v>3.369729166666666</v>
+        <v>3.369729166666667</v>
       </c>
       <c r="D159">
         <v>1.284722222222222E-07</v>
       </c>
       <c r="E159">
-        <v>84.50430555555552</v>
+        <v>84.50430555555556</v>
       </c>
       <c r="F159">
-        <v>226.1863055555555</v>
+        <v>226.1863055555556</v>
       </c>
       <c r="G159">
         <v>1.574537037037037E-06</v>
@@ -4075,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>64.93861111111113</v>
+        <v>64.93861111111111</v>
       </c>
       <c r="F160">
-        <v>322.6802222222221</v>
+        <v>322.6802222222222</v>
       </c>
       <c r="G160">
         <v>1.435648148148148E-06</v>
@@ -4092,13 +4092,13 @@
         <v>272.1756597222222</v>
       </c>
       <c r="C161">
-        <v>4.584701388888888</v>
+        <v>4.584701388888889</v>
       </c>
       <c r="D161">
         <v>5.671296296296297E-08</v>
       </c>
       <c r="E161">
-        <v>73.1309722222222</v>
+        <v>73.13097222222223</v>
       </c>
       <c r="F161">
         <v>320.4568125</v>
@@ -4115,13 +4115,13 @@
         <v>274.8280972222222</v>
       </c>
       <c r="C162">
-        <v>3.930340277777776</v>
+        <v>3.930340277777778</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>49.40041666666664</v>
+        <v>49.40041666666666</v>
       </c>
       <c r="F162">
         <v>373.2445555555556</v>
@@ -4138,13 +4138,13 @@
         <v>274.2573888888888</v>
       </c>
       <c r="C163">
-        <v>2.715104166666668</v>
+        <v>2.715104166666667</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>76.73701388888887</v>
+        <v>76.73701388888888</v>
       </c>
       <c r="F163">
         <v>195.2772083333333</v>
@@ -4161,13 +4161,13 @@
         <v>276.5823194444444</v>
       </c>
       <c r="C164">
-        <v>3.274777777777779</v>
+        <v>3.274777777777778</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>63.49229166666672</v>
+        <v>63.49229166666666</v>
       </c>
       <c r="F164">
         <v>315.0118819444444</v>
@@ -4190,10 +4190,10 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E165">
-        <v>79.43708333333332</v>
+        <v>79.43708333333333</v>
       </c>
       <c r="F165">
-        <v>119.8817916666666</v>
+        <v>119.8817916666667</v>
       </c>
       <c r="G165">
         <v>4.574074074074074E-07</v>
@@ -4210,10 +4210,10 @@
         <v>4.765444444444444</v>
       </c>
       <c r="D166">
-        <v>2.199074074074075E-08</v>
+        <v>2.199074074074074E-08</v>
       </c>
       <c r="E166">
-        <v>81.69548611111108</v>
+        <v>81.69548611111111</v>
       </c>
       <c r="F166">
         <v>198.2942916666667</v>
@@ -4230,13 +4230,13 @@
         <v>276.0348819444444</v>
       </c>
       <c r="C167">
-        <v>3.69763888888889</v>
+        <v>3.697638888888889</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>74.70777777777774</v>
+        <v>74.70777777777778</v>
       </c>
       <c r="F167">
         <v>326.8103472222222</v>
@@ -4253,7 +4253,7 @@
         <v>277.6743402777777</v>
       </c>
       <c r="C168">
-        <v>3.764173611111112</v>
+        <v>3.764173611111111</v>
       </c>
       <c r="D168">
         <v>5.787037037037037E-09</v>
@@ -4262,7 +4262,7 @@
         <v>68.51694444444445</v>
       </c>
       <c r="F168">
-        <v>391.0692291666666</v>
+        <v>391.0692291666667</v>
       </c>
       <c r="G168">
         <v>8.946759259259259E-08</v>
@@ -4279,13 +4279,13 @@
         <v>4.178368055555556</v>
       </c>
       <c r="D169">
-        <v>6.944444444444444E-09</v>
+        <v>6.944444444444445E-09</v>
       </c>
       <c r="E169">
         <v>66.8417361111111</v>
       </c>
       <c r="F169">
-        <v>193.5889930555556</v>
+        <v>193.5889930555555</v>
       </c>
       <c r="G169">
         <v>2.199074074074074E-08</v>
@@ -4328,7 +4328,7 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E171">
-        <v>72.21583333333332</v>
+        <v>72.21583333333334</v>
       </c>
       <c r="F171">
         <v>299.3692916666666</v>
@@ -4345,16 +4345,16 @@
         <v>274.8677708333333</v>
       </c>
       <c r="C172">
-        <v>3.781527777777778</v>
+        <v>3.781527777777777</v>
       </c>
       <c r="D172">
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E172">
-        <v>83.77777777777781</v>
+        <v>83.77777777777777</v>
       </c>
       <c r="F172">
-        <v>193.9070486111112</v>
+        <v>193.9070486111111</v>
       </c>
       <c r="G172">
         <v>5.545914351851852E-09</v>
@@ -4368,13 +4368,13 @@
         <v>274.5967083333333</v>
       </c>
       <c r="C173">
-        <v>5.316444444444447</v>
+        <v>5.316444444444445</v>
       </c>
       <c r="D173">
         <v>2.083333333333333E-08</v>
       </c>
       <c r="E173">
-        <v>78.9702083333333</v>
+        <v>78.97020833333333</v>
       </c>
       <c r="F173">
         <v>372.0174583333334</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>63.86375000000003</v>
+        <v>63.86375</v>
       </c>
       <c r="F174">
         <v>397.8751319444444</v>
@@ -4414,16 +4414,16 @@
         <v>275.9303819444444</v>
       </c>
       <c r="C175">
-        <v>5.381347222222221</v>
+        <v>5.381347222222222</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>71.49256944444446</v>
+        <v>71.49256944444444</v>
       </c>
       <c r="F175">
-        <v>387.0345277777777</v>
+        <v>387.0345277777778</v>
       </c>
       <c r="G175">
         <v>2.893518518518518E-09</v>
@@ -4437,13 +4437,13 @@
         <v>275.7897361111111</v>
       </c>
       <c r="C176">
-        <v>3.78626388888889</v>
+        <v>3.786263888888889</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>62.25618055555557</v>
+        <v>62.25618055555555</v>
       </c>
       <c r="F176">
         <v>295.4209097222222</v>
@@ -4460,7 +4460,7 @@
         <v>276.4034861111111</v>
       </c>
       <c r="C177">
-        <v>4.192194444444446</v>
+        <v>4.192194444444445</v>
       </c>
       <c r="D177">
         <v>3.125000000000001E-08</v>
@@ -4486,10 +4486,10 @@
         <v>4.449409722222223</v>
       </c>
       <c r="D178">
-        <v>1.157407407407408E-08</v>
+        <v>1.157407407407407E-08</v>
       </c>
       <c r="E178">
-        <v>81.30659722222219</v>
+        <v>81.30659722222222</v>
       </c>
       <c r="F178">
         <v>239.5143819444444</v>
@@ -4506,16 +4506,16 @@
         <v>277.3726527777778</v>
       </c>
       <c r="C179">
-        <v>3.926513888888892</v>
+        <v>3.926513888888889</v>
       </c>
       <c r="D179">
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E179">
-        <v>77.54291666666668</v>
+        <v>77.54291666666667</v>
       </c>
       <c r="F179">
-        <v>286.6746458333334</v>
+        <v>286.6746458333333</v>
       </c>
       <c r="G179">
         <v>3.134641203703704E-09</v>
@@ -4529,16 +4529,16 @@
         <v>276.0263472222222</v>
       </c>
       <c r="C180">
-        <v>3.435465277777777</v>
+        <v>3.435465277777778</v>
       </c>
       <c r="D180">
-        <v>6.597222222222218E-08</v>
+        <v>6.597222222222222E-08</v>
       </c>
       <c r="E180">
-        <v>81.11229166666665</v>
+        <v>81.11229166666666</v>
       </c>
       <c r="F180">
-        <v>157.2535972222221</v>
+        <v>157.2535972222222</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>277.8288472222222</v>
       </c>
       <c r="C181">
-        <v>3.352159722222221</v>
+        <v>3.352159722222222</v>
       </c>
       <c r="D181">
         <v>4.62962962962963E-09</v>
@@ -4561,7 +4561,7 @@
         <v>72.81534722222221</v>
       </c>
       <c r="F181">
-        <v>269.7680694444445</v>
+        <v>269.7680694444444</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>52.39694444444444</v>
       </c>
       <c r="F182">
-        <v>417.0033750000001</v>
+        <v>417.003375</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -4604,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>63.9428472222222</v>
+        <v>63.94284722222223</v>
       </c>
       <c r="F183">
-        <v>228.132597222222</v>
+        <v>228.1325972222222</v>
       </c>
       <c r="G183">
         <v>3.761574074074074E-08</v>
@@ -4621,16 +4621,16 @@
         <v>276.0681041666667</v>
       </c>
       <c r="C184">
-        <v>3.705298611111113</v>
+        <v>3.705298611111111</v>
       </c>
       <c r="D184">
-        <v>1.817129629629629E-07</v>
+        <v>1.81712962962963E-07</v>
       </c>
       <c r="E184">
-        <v>88.69305555555559</v>
+        <v>88.69305555555555</v>
       </c>
       <c r="F184">
-        <v>87.53749305555559</v>
+        <v>87.53749305555556</v>
       </c>
       <c r="G184">
         <v>1.420138888888889E-07</v>
@@ -4647,10 +4647,10 @@
         <v>3.679256944444445</v>
       </c>
       <c r="D185">
-        <v>9.837962962962961E-08</v>
+        <v>9.837962962962964E-08</v>
       </c>
       <c r="E185">
-        <v>80.02333333333335</v>
+        <v>80.02333333333334</v>
       </c>
       <c r="F185">
         <v>236.8558125</v>
@@ -4667,16 +4667,16 @@
         <v>276.4533263888889</v>
       </c>
       <c r="C186">
-        <v>3.151680555555553</v>
+        <v>3.151680555555556</v>
       </c>
       <c r="D186">
         <v>1.840277777777778E-07</v>
       </c>
       <c r="E186">
-        <v>83.49500000000005</v>
+        <v>83.495</v>
       </c>
       <c r="F186">
-        <v>196.753111111111</v>
+        <v>196.7531111111111</v>
       </c>
       <c r="G186">
         <v>1.487268518518518E-07</v>
@@ -4693,13 +4693,13 @@
         <v>4.007888888888889</v>
       </c>
       <c r="D187">
-        <v>6.481481481481483E-08</v>
+        <v>6.481481481481482E-08</v>
       </c>
       <c r="E187">
-        <v>77.12770833333335</v>
+        <v>77.12770833333333</v>
       </c>
       <c r="F187">
-        <v>330.5544513888887</v>
+        <v>330.5544513888889</v>
       </c>
       <c r="G187">
         <v>1.106481481481482E-07</v>
@@ -4736,16 +4736,16 @@
         <v>279.2414305555556</v>
       </c>
       <c r="C189">
-        <v>6.227312499999996</v>
+        <v>6.2273125</v>
       </c>
       <c r="D189">
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E189">
-        <v>51.85937499999999</v>
+        <v>51.859375</v>
       </c>
       <c r="F189">
-        <v>254.8437777777775</v>
+        <v>254.8437777777778</v>
       </c>
       <c r="G189">
         <v>3.472222222222222E-08</v>
@@ -4759,16 +4759,16 @@
         <v>275.9252013888889</v>
       </c>
       <c r="C190">
-        <v>5.267604166666668</v>
+        <v>5.267604166666667</v>
       </c>
       <c r="D190">
-        <v>6.944444444444445E-08</v>
+        <v>6.944444444444444E-08</v>
       </c>
       <c r="E190">
-        <v>77.78999999999998</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="F190">
-        <v>230.5097777777777</v>
+        <v>230.5097777777778</v>
       </c>
       <c r="G190">
         <v>2.090277777777778E-07</v>
@@ -4782,13 +4782,13 @@
         <v>278.8938125</v>
       </c>
       <c r="C191">
-        <v>4.565034722222224</v>
+        <v>4.565034722222222</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>53.67520833333334</v>
+        <v>53.67520833333333</v>
       </c>
       <c r="F191">
         <v>341.7663472222222</v>
@@ -4811,10 +4811,10 @@
         <v>1.620370370370371E-08</v>
       </c>
       <c r="E192">
-        <v>62.20256944444446</v>
+        <v>62.20256944444444</v>
       </c>
       <c r="F192">
-        <v>341.205701388889</v>
+        <v>341.2057013888889</v>
       </c>
       <c r="G192">
         <v>6.053240740740741E-08</v>
@@ -4834,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>51.56902777777779</v>
+        <v>51.56902777777778</v>
       </c>
       <c r="F193">
-        <v>363.7337083333332</v>
+        <v>363.7337083333334</v>
       </c>
       <c r="G193">
         <v>6.030092592592592E-08</v>
@@ -4851,16 +4851,16 @@
         <v>282.9051597222222</v>
       </c>
       <c r="C194">
-        <v>4.038354166666666</v>
+        <v>4.038354166666667</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>44.55284722222223</v>
+        <v>44.55284722222222</v>
       </c>
       <c r="F194">
-        <v>378.1096319444443</v>
+        <v>378.1096319444444</v>
       </c>
       <c r="G194">
         <v>3.784722222222222E-08</v>
@@ -4874,16 +4874,16 @@
         <v>282.3680347222222</v>
       </c>
       <c r="C195">
-        <v>2.847687499999999</v>
+        <v>2.8476875</v>
       </c>
       <c r="D195">
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E195">
-        <v>50.32250000000001</v>
+        <v>50.3225</v>
       </c>
       <c r="F195">
-        <v>242.7412430555557</v>
+        <v>242.7412430555556</v>
       </c>
       <c r="G195">
         <v>5.208333333333333E-08</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>53.54493055555557</v>
+        <v>53.54493055555556</v>
       </c>
       <c r="F196">
         <v>340.8744097222223</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>58.62173611111109</v>
+        <v>58.62173611111112</v>
       </c>
       <c r="F197">
         <v>296.0598611111111</v>
@@ -4943,16 +4943,16 @@
         <v>283.9348472222222</v>
       </c>
       <c r="C198">
-        <v>3.41086111111111</v>
+        <v>3.410861111111111</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>50.19437500000001</v>
+        <v>50.194375</v>
       </c>
       <c r="F198">
-        <v>390.975965277778</v>
+        <v>390.9759652777777</v>
       </c>
       <c r="G198">
         <v>5.092592592592593E-08</v>
@@ -4972,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>53.68513888888888</v>
+        <v>53.68513888888889</v>
       </c>
       <c r="F199">
-        <v>391.2947083333332</v>
+        <v>391.2947083333333</v>
       </c>
       <c r="G199">
         <v>7.256944444444445E-08</v>
@@ -4989,7 +4989,7 @@
         <v>283.0626736111111</v>
       </c>
       <c r="C200">
-        <v>3.59979861111111</v>
+        <v>3.599798611111111</v>
       </c>
       <c r="D200">
         <v>3.587962962962963E-08</v>
@@ -4998,7 +4998,7 @@
         <v>66.04173611111111</v>
       </c>
       <c r="F200">
-        <v>252.3340208333331</v>
+        <v>252.3340208333333</v>
       </c>
       <c r="G200">
         <v>2.893518518518519E-08</v>
@@ -5012,16 +5012,16 @@
         <v>282.6539375</v>
       </c>
       <c r="C201">
-        <v>5.411173611111111</v>
+        <v>5.411173611111112</v>
       </c>
       <c r="D201">
-        <v>1.006944444444445E-07</v>
+        <v>1.006944444444444E-07</v>
       </c>
       <c r="E201">
-        <v>79.1534027777778</v>
+        <v>79.15340277777779</v>
       </c>
       <c r="F201">
-        <v>287.8865208333332</v>
+        <v>287.8865208333333</v>
       </c>
       <c r="G201">
         <v>1.643518518518519E-08</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>86.54048611111109</v>
+        <v>86.54048611111111</v>
       </c>
       <c r="F202">
         <v>187.0458333333333</v>
@@ -5058,16 +5058,16 @@
         <v>283.1146527777777</v>
       </c>
       <c r="C203">
-        <v>6.173944444444439</v>
+        <v>6.173944444444444</v>
       </c>
       <c r="D203">
         <v>2.546296296296296E-08</v>
       </c>
       <c r="E203">
-        <v>81.81222222222223</v>
+        <v>81.81222222222222</v>
       </c>
       <c r="F203">
-        <v>186.0626944444445</v>
+        <v>186.0626944444444</v>
       </c>
       <c r="G203">
         <v>9.886192129629629E-09</v>
@@ -5081,16 +5081,16 @@
         <v>280.9923055555555</v>
       </c>
       <c r="C204">
-        <v>4.157312500000002</v>
+        <v>4.1573125</v>
       </c>
       <c r="D204">
         <v>2.372685185185185E-07</v>
       </c>
       <c r="E204">
-        <v>92.33368055555549</v>
+        <v>92.33368055555555</v>
       </c>
       <c r="F204">
-        <v>175.5944444444443</v>
+        <v>175.5944444444444</v>
       </c>
       <c r="G204">
         <v>2.465277777777778E-08</v>
@@ -5104,16 +5104,16 @@
         <v>277.9502083333333</v>
       </c>
       <c r="C205">
-        <v>4.527368055555557</v>
+        <v>4.527368055555556</v>
       </c>
       <c r="D205">
         <v>1.956018518518518E-07</v>
       </c>
       <c r="E205">
-        <v>95.71319444444453</v>
+        <v>95.71319444444444</v>
       </c>
       <c r="F205">
-        <v>92.67640277777781</v>
+        <v>92.67640277777778</v>
       </c>
       <c r="G205">
         <v>4.826388888888889E-08</v>
@@ -5130,10 +5130,10 @@
         <v>4.005604166666667</v>
       </c>
       <c r="D206">
-        <v>4.166666666666668E-08</v>
+        <v>4.166666666666667E-08</v>
       </c>
       <c r="E206">
-        <v>91.35000000000002</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="F206">
         <v>111.0117777777778</v>
@@ -5153,13 +5153,13 @@
         <v>4.337395833333334</v>
       </c>
       <c r="D207">
-        <v>5.787037037037034E-08</v>
+        <v>5.787037037037037E-08</v>
       </c>
       <c r="E207">
         <v>88.19534722222221</v>
       </c>
       <c r="F207">
-        <v>281.3617916666665</v>
+        <v>281.3617916666666</v>
       </c>
       <c r="G207">
         <v>8.298611111111111E-08</v>
@@ -5173,16 +5173,16 @@
         <v>275.3074166666667</v>
       </c>
       <c r="C208">
-        <v>6.825</v>
+        <v>6.824999999999999</v>
       </c>
       <c r="D208">
-        <v>9.953703703703693E-08</v>
+        <v>9.953703703703703E-08</v>
       </c>
       <c r="E208">
-        <v>84.8639583333334</v>
+        <v>84.86395833333333</v>
       </c>
       <c r="F208">
-        <v>60.46809027777782</v>
+        <v>60.46809027777778</v>
       </c>
       <c r="G208">
         <v>8.819444444444445E-08</v>
@@ -5196,16 +5196,16 @@
         <v>276.5129791666666</v>
       </c>
       <c r="C209">
-        <v>7.482305555555557</v>
+        <v>7.482305555555556</v>
       </c>
       <c r="D209">
         <v>1.851851851851852E-08</v>
       </c>
       <c r="E209">
-        <v>88.20569444444449</v>
+        <v>88.20569444444443</v>
       </c>
       <c r="F209">
-        <v>201.7132500000001</v>
+        <v>201.71325</v>
       </c>
       <c r="G209">
         <v>5.162037037037038E-08</v>
@@ -5219,13 +5219,13 @@
         <v>279.6418958333333</v>
       </c>
       <c r="C210">
-        <v>5.973506944444443</v>
+        <v>5.973506944444444</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>64.66145833333336</v>
+        <v>64.66145833333333</v>
       </c>
       <c r="F210">
         <v>350.8061319444444</v>
@@ -5242,13 +5242,13 @@
         <v>280.4998958333333</v>
       </c>
       <c r="C211">
-        <v>5.004937500000001</v>
+        <v>5.0049375</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>60.89506944444448</v>
+        <v>60.89506944444444</v>
       </c>
       <c r="F211">
         <v>332.6808194444445</v>
@@ -5265,16 +5265,16 @@
         <v>281.5382430555555</v>
       </c>
       <c r="C212">
-        <v>3.124930555555554</v>
+        <v>3.124930555555556</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>56.26319444444441</v>
+        <v>56.26319444444444</v>
       </c>
       <c r="F212">
-        <v>297.4360972222219</v>
+        <v>297.4360972222223</v>
       </c>
       <c r="G212">
         <v>1.620370370370371E-08</v>
@@ -5288,16 +5288,16 @@
         <v>279.0742083333333</v>
       </c>
       <c r="C213">
-        <v>3.503625000000001</v>
+        <v>3.503625</v>
       </c>
       <c r="D213">
-        <v>2.07175925925926E-07</v>
+        <v>2.071759259259259E-07</v>
       </c>
       <c r="E213">
-        <v>79.85423611111112</v>
+        <v>79.85423611111111</v>
       </c>
       <c r="F213">
-        <v>135.5167222222223</v>
+        <v>135.5167222222222</v>
       </c>
       <c r="G213">
         <v>2.291666666666667E-08</v>
@@ -5311,7 +5311,7 @@
         <v>275.6682569444444</v>
       </c>
       <c r="C214">
-        <v>5.44372222222222</v>
+        <v>5.443722222222222</v>
       </c>
       <c r="D214">
         <v>3.819444444444445E-08</v>
@@ -5340,10 +5340,10 @@
         <v>4.166666666666667E-08</v>
       </c>
       <c r="E215">
-        <v>75.684375</v>
+        <v>75.68437499999999</v>
       </c>
       <c r="F215">
-        <v>353.5216666666668</v>
+        <v>353.5216666666667</v>
       </c>
       <c r="G215">
         <v>7.349537037037037E-08</v>
@@ -5357,16 +5357,16 @@
         <v>278.2528541666666</v>
       </c>
       <c r="C216">
-        <v>5.443138888888886</v>
+        <v>5.443138888888889</v>
       </c>
       <c r="D216">
         <v>2.083333333333333E-08</v>
       </c>
       <c r="E216">
-        <v>81.37263888888891</v>
+        <v>81.37263888888889</v>
       </c>
       <c r="F216">
-        <v>239.2561874999999</v>
+        <v>239.2561875</v>
       </c>
       <c r="G216">
         <v>6.701388888888889E-08</v>
@@ -5380,16 +5380,16 @@
         <v>278.8252361111111</v>
       </c>
       <c r="C217">
-        <v>4.016875000000001</v>
+        <v>4.016875</v>
       </c>
       <c r="D217">
-        <v>6.944444444444444E-09</v>
+        <v>6.944444444444445E-09</v>
       </c>
       <c r="E217">
-        <v>77.17590277777775</v>
+        <v>77.17590277777778</v>
       </c>
       <c r="F217">
-        <v>361.3176944444443</v>
+        <v>361.3176944444444</v>
       </c>
       <c r="G217">
         <v>7.013888888888889E-08</v>
@@ -5403,16 +5403,16 @@
         <v>281.0806458333333</v>
       </c>
       <c r="C218">
-        <v>3.355659722222223</v>
+        <v>3.355659722222222</v>
       </c>
       <c r="D218">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E218">
-        <v>74.38569444444444</v>
+        <v>74.38569444444445</v>
       </c>
       <c r="F218">
-        <v>313.7481666666667</v>
+        <v>313.7481666666666</v>
       </c>
       <c r="G218">
         <v>2.604166666666666E-08</v>
@@ -5426,16 +5426,16 @@
         <v>277.5143055555556</v>
       </c>
       <c r="C219">
-        <v>3.903659722222223</v>
+        <v>3.903659722222222</v>
       </c>
       <c r="D219">
-        <v>1.67824074074074E-07</v>
+        <v>1.678240740740741E-07</v>
       </c>
       <c r="E219">
-        <v>91.01076388888892</v>
+        <v>91.01076388888889</v>
       </c>
       <c r="F219">
-        <v>52.55024305555557</v>
+        <v>52.55024305555555</v>
       </c>
       <c r="G219">
         <v>3.564814814814814E-08</v>
@@ -5449,16 +5449,16 @@
         <v>277.3398472222222</v>
       </c>
       <c r="C220">
-        <v>6.509666666666665</v>
+        <v>6.509666666666667</v>
       </c>
       <c r="D220">
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E220">
-        <v>77.22479166666665</v>
+        <v>77.22479166666668</v>
       </c>
       <c r="F220">
-        <v>326.0853749999999</v>
+        <v>326.085375</v>
       </c>
       <c r="G220">
         <v>1.137731481481482E-07</v>
@@ -5472,16 +5472,16 @@
         <v>276.4497152777777</v>
       </c>
       <c r="C221">
-        <v>6.505548611111109</v>
+        <v>6.505548611111111</v>
       </c>
       <c r="D221">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E221">
-        <v>71.61333333333336</v>
+        <v>71.61333333333333</v>
       </c>
       <c r="F221">
-        <v>282.1954236111113</v>
+        <v>282.1954236111112</v>
       </c>
       <c r="G221">
         <v>1.726851851851852E-07</v>
@@ -5501,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>61.11000000000001</v>
+        <v>61.11</v>
       </c>
       <c r="F222">
-        <v>304.8773749999999</v>
+        <v>304.877375</v>
       </c>
       <c r="G222">
         <v>1.695601851851852E-07</v>
@@ -5541,13 +5541,13 @@
         <v>275.0337361111111</v>
       </c>
       <c r="C224">
-        <v>3.019270833333334</v>
+        <v>3.019270833333333</v>
       </c>
       <c r="D224">
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E224">
-        <v>88.56861111111122</v>
+        <v>88.56861111111111</v>
       </c>
       <c r="F224">
         <v>157.1549513888889</v>
@@ -5564,7 +5564,7 @@
         <v>276.8442847222222</v>
       </c>
       <c r="C225">
-        <v>3.501833333333334</v>
+        <v>3.501833333333333</v>
       </c>
       <c r="D225">
         <v>1.157407407407407E-09</v>
@@ -5587,16 +5587,16 @@
         <v>279.5511736111111</v>
       </c>
       <c r="C226">
-        <v>3.196770833333334</v>
+        <v>3.196770833333333</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>63.27499999999999</v>
+        <v>63.27500000000001</v>
       </c>
       <c r="F226">
-        <v>357.5056041666664</v>
+        <v>357.5056041666667</v>
       </c>
       <c r="G226">
         <v>9.374999999999999E-08</v>
@@ -5610,7 +5610,7 @@
         <v>278.8791041666667</v>
       </c>
       <c r="C227">
-        <v>4.337805555555552</v>
+        <v>4.337805555555556</v>
       </c>
       <c r="D227">
         <v>6.134259259259259E-08</v>
@@ -5619,7 +5619,7 @@
         <v>74.19833333333332</v>
       </c>
       <c r="F227">
-        <v>208.4954097222221</v>
+        <v>208.4954097222222</v>
       </c>
       <c r="G227">
         <v>1.346064814814815E-07</v>
@@ -5639,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>63.14437500000003</v>
+        <v>63.144375</v>
       </c>
       <c r="F228">
-        <v>366.8322430555555</v>
+        <v>366.8322430555556</v>
       </c>
       <c r="G228">
         <v>1.528935185185185E-07</v>
@@ -5656,13 +5656,13 @@
         <v>281.4925138888889</v>
       </c>
       <c r="C229">
-        <v>4.130229166666666</v>
+        <v>4.130229166666667</v>
       </c>
       <c r="D229">
-        <v>3.819444444444446E-08</v>
+        <v>3.819444444444445E-08</v>
       </c>
       <c r="E229">
-        <v>74.81687500000001</v>
+        <v>74.816875</v>
       </c>
       <c r="F229">
         <v>253.8314097222222</v>
@@ -5679,13 +5679,13 @@
         <v>280.1030833333333</v>
       </c>
       <c r="C230">
-        <v>3.46859722222222</v>
+        <v>3.468597222222222</v>
       </c>
       <c r="D230">
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E230">
-        <v>90.97076388888887</v>
+        <v>90.9707638888889</v>
       </c>
       <c r="F230">
         <v>124.1563958333333</v>
@@ -5705,13 +5705,13 @@
         <v>3.579548611111111</v>
       </c>
       <c r="D231">
-        <v>1.42361111111111E-07</v>
+        <v>1.423611111111111E-07</v>
       </c>
       <c r="E231">
-        <v>86.18326388888886</v>
+        <v>86.18326388888889</v>
       </c>
       <c r="F231">
-        <v>262.4920208333335</v>
+        <v>262.4920208333334</v>
       </c>
       <c r="G231">
         <v>1.346064814814815E-07</v>
@@ -5725,16 +5725,16 @@
         <v>278.3352430555555</v>
       </c>
       <c r="C232">
-        <v>4.172243055555555</v>
+        <v>4.172243055555556</v>
       </c>
       <c r="D232">
         <v>1.608796296296296E-07</v>
       </c>
       <c r="E232">
-        <v>94.68263888888882</v>
+        <v>94.68263888888889</v>
       </c>
       <c r="F232">
-        <v>43.7947638888889</v>
+        <v>43.79476388888889</v>
       </c>
       <c r="G232">
         <v>1.032407407407408E-07</v>
@@ -5748,7 +5748,7 @@
         <v>278.0240833333333</v>
       </c>
       <c r="C233">
-        <v>4.435493055555555</v>
+        <v>4.435493055555556</v>
       </c>
       <c r="D233">
         <v>4.513888888888889E-08</v>
@@ -5757,7 +5757,7 @@
         <v>90.05319444444444</v>
       </c>
       <c r="F233">
-        <v>278.6258333333334</v>
+        <v>278.6258333333333</v>
       </c>
       <c r="G233">
         <v>1.427083333333334E-07</v>
@@ -5780,7 +5780,7 @@
         <v>95.78194444444445</v>
       </c>
       <c r="F234">
-        <v>79.66156250000002</v>
+        <v>79.6615625</v>
       </c>
       <c r="G234">
         <v>1.693287037037037E-07</v>
@@ -5794,13 +5794,13 @@
         <v>275.3220694444444</v>
       </c>
       <c r="C235">
-        <v>4.884652777777778</v>
+        <v>4.884652777777777</v>
       </c>
       <c r="D235">
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E235">
-        <v>95.14305555555551</v>
+        <v>95.14305555555556</v>
       </c>
       <c r="F235">
         <v>194.8437152777778</v>
@@ -5820,10 +5820,10 @@
         <v>3.717881944444445</v>
       </c>
       <c r="D236">
-        <v>6.01851851851852E-08</v>
+        <v>6.018518518518519E-08</v>
       </c>
       <c r="E236">
-        <v>92.02729166666671</v>
+        <v>92.02729166666667</v>
       </c>
       <c r="F236">
         <v>193.4575347222222</v>
@@ -5843,10 +5843,10 @@
         <v>2.845465277777778</v>
       </c>
       <c r="D237">
-        <v>3.472222222222223E-08</v>
+        <v>3.472222222222222E-08</v>
       </c>
       <c r="E237">
-        <v>90.24729166666664</v>
+        <v>90.24729166666667</v>
       </c>
       <c r="F237">
         <v>149.9140416666667</v>
@@ -5866,13 +5866,13 @@
         <v>3.586458333333334</v>
       </c>
       <c r="D238">
-        <v>6.365740740740738E-08</v>
+        <v>6.365740740740741E-08</v>
       </c>
       <c r="E238">
-        <v>94.42777777777782</v>
+        <v>94.42777777777778</v>
       </c>
       <c r="F238">
-        <v>55.05088888888888</v>
+        <v>55.05088888888889</v>
       </c>
       <c r="G238">
         <v>1.34837962962963E-07</v>
@@ -5886,13 +5886,13 @@
         <v>276.6302291666667</v>
       </c>
       <c r="C239">
-        <v>4.03147222222222</v>
+        <v>4.031472222222223</v>
       </c>
       <c r="D239">
-        <v>9.722222222222221E-08</v>
+        <v>9.722222222222222E-08</v>
       </c>
       <c r="E239">
-        <v>94.08569444444453</v>
+        <v>94.08569444444444</v>
       </c>
       <c r="F239">
         <v>136.8995972222222</v>
@@ -5909,16 +5909,16 @@
         <v>274.3594305555555</v>
       </c>
       <c r="C240">
-        <v>6.140944444444446</v>
+        <v>6.140944444444444</v>
       </c>
       <c r="D240">
-        <v>5.439814814814814E-08</v>
+        <v>5.439814814814815E-08</v>
       </c>
       <c r="E240">
-        <v>96.54652777777777</v>
+        <v>96.54652777777778</v>
       </c>
       <c r="F240">
-        <v>99.22613888888888</v>
+        <v>99.2261388888889</v>
       </c>
       <c r="G240">
         <v>1.197916666666667E-07</v>
@@ -5938,10 +5938,10 @@
         <v>8.333333333333334E-08</v>
       </c>
       <c r="E241">
-        <v>95.02180555555563</v>
+        <v>95.02180555555555</v>
       </c>
       <c r="F241">
-        <v>63.93200694444451</v>
+        <v>63.93200694444445</v>
       </c>
       <c r="G241">
         <v>1.324074074074074E-07</v>
@@ -5955,16 +5955,16 @@
         <v>275.7394305555555</v>
       </c>
       <c r="C242">
-        <v>4.980597222222221</v>
+        <v>4.980597222222222</v>
       </c>
       <c r="D242">
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E242">
-        <v>88.82222222222215</v>
+        <v>88.82222222222222</v>
       </c>
       <c r="F242">
-        <v>165.8285902777777</v>
+        <v>165.8285902777778</v>
       </c>
       <c r="G242">
         <v>1.172453703703704E-07</v>
@@ -5978,10 +5978,10 @@
         <v>275.9740694444444</v>
       </c>
       <c r="C243">
-        <v>4.56463888888889</v>
+        <v>4.564638888888889</v>
       </c>
       <c r="D243">
-        <v>4.282407407407408E-08</v>
+        <v>4.282407407407407E-08</v>
       </c>
       <c r="E243">
         <v>76.888125</v>
@@ -6001,13 +6001,13 @@
         <v>275.6994861111111</v>
       </c>
       <c r="C244">
-        <v>3.705152777777777</v>
+        <v>3.705152777777778</v>
       </c>
       <c r="D244">
-        <v>4.97685185185185E-08</v>
+        <v>4.976851851851852E-08</v>
       </c>
       <c r="E244">
-        <v>85.07500000000006</v>
+        <v>85.07499999999999</v>
       </c>
       <c r="F244">
         <v>203.7633333333333</v>
@@ -6027,10 +6027,10 @@
         <v>2.841930555555555</v>
       </c>
       <c r="D245">
-        <v>3.587962962962964E-08</v>
+        <v>3.587962962962963E-08</v>
       </c>
       <c r="E245">
-        <v>80.66576388888888</v>
+        <v>80.66576388888889</v>
       </c>
       <c r="F245">
         <v>264.1477291666667</v>
@@ -6047,16 +6047,16 @@
         <v>274.0745277777777</v>
       </c>
       <c r="C246">
-        <v>2.254631944444446</v>
+        <v>2.254631944444444</v>
       </c>
       <c r="D246">
         <v>3.935185185185185E-08</v>
       </c>
       <c r="E246">
-        <v>92.36402777777784</v>
+        <v>92.36402777777778</v>
       </c>
       <c r="F246">
-        <v>137.5275833333333</v>
+        <v>137.5275833333334</v>
       </c>
       <c r="G246">
         <v>1.277777777777778E-07</v>
@@ -6070,13 +6070,13 @@
         <v>274.0100347222222</v>
       </c>
       <c r="C247">
-        <v>2.550493055555555</v>
+        <v>2.550493055555556</v>
       </c>
       <c r="D247">
         <v>4.861111111111111E-08</v>
       </c>
       <c r="E247">
-        <v>89.27138888888892</v>
+        <v>89.27138888888889</v>
       </c>
       <c r="F247">
         <v>152.711875</v>
@@ -6099,7 +6099,7 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E248">
-        <v>95.85902777777774</v>
+        <v>95.85902777777778</v>
       </c>
       <c r="F248">
         <v>170.7576597222222</v>
@@ -6122,7 +6122,7 @@
         <v>1.388888888888889E-08</v>
       </c>
       <c r="E249">
-        <v>92.62305555555548</v>
+        <v>92.62305555555555</v>
       </c>
       <c r="F249">
         <v>230.9890972222222</v>
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>40.87854166666668</v>
+        <v>40.87854166666667</v>
       </c>
       <c r="F250">
-        <v>333.6332013888888</v>
+        <v>333.6332013888889</v>
       </c>
       <c r="G250">
         <v>4.796296296296296E-07</v>
@@ -6162,16 +6162,16 @@
         <v>276.0153194444444</v>
       </c>
       <c r="C251">
-        <v>3.783250000000001</v>
+        <v>3.78325</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>65.67430555555561</v>
+        <v>65.67430555555556</v>
       </c>
       <c r="F251">
-        <v>187.8126666666666</v>
+        <v>187.8126666666667</v>
       </c>
       <c r="G251">
         <v>1.982638888888889E-07</v>
@@ -6191,7 +6191,7 @@
         <v>1.851851851851852E-08</v>
       </c>
       <c r="E252">
-        <v>89.78923611111114</v>
+        <v>89.78923611111111</v>
       </c>
       <c r="F252">
         <v>126.3801597222222</v>
@@ -6214,10 +6214,10 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E253">
-        <v>92.21777777777777</v>
+        <v>92.21777777777778</v>
       </c>
       <c r="F253">
-        <v>185.7032916666666</v>
+        <v>185.7032916666667</v>
       </c>
       <c r="G253">
         <v>2.418981481481481E-07</v>
@@ -6231,16 +6231,16 @@
         <v>274.3701805555555</v>
       </c>
       <c r="C254">
-        <v>4.407381944444445</v>
+        <v>4.407381944444444</v>
       </c>
       <c r="D254">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E254">
-        <v>69.67770833333337</v>
+        <v>69.67770833333333</v>
       </c>
       <c r="F254">
-        <v>305.9540833333332</v>
+        <v>305.9540833333333</v>
       </c>
       <c r="G254">
         <v>1.292824074074074E-07</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>62.44534722222224</v>
+        <v>62.44534722222222</v>
       </c>
       <c r="F255">
         <v>295.3639166666667</v>
@@ -6283,7 +6283,7 @@
         <v>3.009259259259259E-08</v>
       </c>
       <c r="E256">
-        <v>71.52729166666668</v>
+        <v>71.52729166666667</v>
       </c>
       <c r="F256">
         <v>231.1074166666667</v>
@@ -6297,16 +6297,16 @@
         <v>42991</v>
       </c>
       <c r="B257">
-        <v>274.4317638888889</v>
+        <v>274.4317638888888</v>
       </c>
       <c r="C257">
-        <v>3.72201388888889</v>
+        <v>3.722013888888889</v>
       </c>
       <c r="D257">
         <v>1.620370370370371E-08</v>
       </c>
       <c r="E257">
-        <v>95.09166666666671</v>
+        <v>95.09166666666667</v>
       </c>
       <c r="F257">
         <v>109.2237430555555</v>
@@ -6326,10 +6326,10 @@
         <v>2.033152777777778</v>
       </c>
       <c r="D258">
-        <v>7.986111111111109E-08</v>
+        <v>7.98611111111111E-08</v>
       </c>
       <c r="E258">
-        <v>87.02097222222221</v>
+        <v>87.02097222222223</v>
       </c>
       <c r="F258">
         <v>218.4469652777778</v>
@@ -6349,10 +6349,10 @@
         <v>3.751277777777778</v>
       </c>
       <c r="D259">
-        <v>7.870370370370369E-08</v>
+        <v>7.870370370370371E-08</v>
       </c>
       <c r="E259">
-        <v>92.26826388888902</v>
+        <v>92.2682638888889</v>
       </c>
       <c r="F259">
         <v>146.7487638888889</v>
@@ -6375,7 +6375,7 @@
         <v>4.976851851851852E-08</v>
       </c>
       <c r="E260">
-        <v>93.94229166666665</v>
+        <v>93.94229166666668</v>
       </c>
       <c r="F260">
         <v>168.2754444444444</v>
@@ -6398,10 +6398,10 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E261">
-        <v>96.56041666666671</v>
+        <v>96.56041666666665</v>
       </c>
       <c r="F261">
-        <v>81.77784722222223</v>
+        <v>81.77784722222222</v>
       </c>
       <c r="G261">
         <v>2.020833333333333E-07</v>
@@ -6421,10 +6421,10 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E262">
-        <v>95.79791666666665</v>
+        <v>95.79791666666667</v>
       </c>
       <c r="F262">
-        <v>51.5192013888889</v>
+        <v>51.51920138888889</v>
       </c>
       <c r="G262">
         <v>2.392361111111111E-07</v>
@@ -6444,7 +6444,7 @@
         <v>9.027777777777778E-08</v>
       </c>
       <c r="E263">
-        <v>89.45854166666665</v>
+        <v>89.45854166666668</v>
       </c>
       <c r="F263">
         <v>166.16625</v>
@@ -6467,10 +6467,10 @@
         <v>3.472222222222222E-08</v>
       </c>
       <c r="E264">
-        <v>86.82673611111109</v>
+        <v>86.8267361111111</v>
       </c>
       <c r="F264">
-        <v>227.4929166666666</v>
+        <v>227.4929166666667</v>
       </c>
       <c r="G264">
         <v>6.394675925925926E-07</v>
@@ -6490,10 +6490,10 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E265">
-        <v>70.32472222222219</v>
+        <v>70.32472222222222</v>
       </c>
       <c r="F265">
-        <v>261.9156597222223</v>
+        <v>261.9156597222222</v>
       </c>
       <c r="G265">
         <v>2.106481481481482E-07</v>
@@ -6507,7 +6507,7 @@
         <v>273.9735277777777</v>
       </c>
       <c r="C266">
-        <v>4.062819444444446</v>
+        <v>4.062819444444445</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E267">
-        <v>74.92673611111107</v>
+        <v>74.92673611111111</v>
       </c>
       <c r="F267">
         <v>228.7874027777778</v>
@@ -6553,13 +6553,13 @@
         <v>274.4761458333333</v>
       </c>
       <c r="C268">
-        <v>3.380958333333332</v>
+        <v>3.380958333333334</v>
       </c>
       <c r="D268">
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E268">
-        <v>91.85881944444449</v>
+        <v>91.85881944444445</v>
       </c>
       <c r="F268">
         <v>104.1104097222222</v>
@@ -6579,13 +6579,13 @@
         <v>2.520770833333333</v>
       </c>
       <c r="D269">
-        <v>5.671296296296296E-08</v>
+        <v>5.671296296296297E-08</v>
       </c>
       <c r="E269">
-        <v>96.44166666666671</v>
+        <v>96.44166666666666</v>
       </c>
       <c r="F269">
-        <v>69.65376388888888</v>
+        <v>69.65376388888889</v>
       </c>
       <c r="G269">
         <v>1.324074074074074E-07</v>
@@ -6605,7 +6605,7 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E270">
-        <v>88.49291666666669</v>
+        <v>88.49291666666666</v>
       </c>
       <c r="F270">
         <v>168.7475694444445</v>
@@ -6628,10 +6628,10 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E271">
-        <v>81.61736111111105</v>
+        <v>81.61736111111111</v>
       </c>
       <c r="F271">
-        <v>262.9958194444446</v>
+        <v>262.9958194444445</v>
       </c>
       <c r="G271">
         <v>3.265046296296296E-07</v>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>64.48923611111114</v>
+        <v>64.48923611111111</v>
       </c>
       <c r="F272">
         <v>230.9380138888889</v>
@@ -6668,13 +6668,13 @@
         <v>273.9756111111111</v>
       </c>
       <c r="C273">
-        <v>4.478881944444447</v>
+        <v>4.478881944444444</v>
       </c>
       <c r="D273">
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E273">
-        <v>64.07708333333331</v>
+        <v>64.07708333333333</v>
       </c>
       <c r="F273">
         <v>249.4794513888889</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>65.7704861111111</v>
+        <v>65.77048611111111</v>
       </c>
       <c r="F274">
         <v>240.3234236111111</v>
@@ -6720,7 +6720,7 @@
         <v>2.199074074074074E-08</v>
       </c>
       <c r="E275">
-        <v>68.28847222222228</v>
+        <v>68.28847222222223</v>
       </c>
       <c r="F275">
         <v>243.6178263888889</v>
@@ -6740,13 +6740,13 @@
         <v>4.605527777777778</v>
       </c>
       <c r="D276">
-        <v>3.819444444444445E-08</v>
+        <v>3.819444444444444E-08</v>
       </c>
       <c r="E276">
-        <v>93.95486111111114</v>
+        <v>93.95486111111111</v>
       </c>
       <c r="F276">
-        <v>166.982451388889</v>
+        <v>166.9824513888889</v>
       </c>
       <c r="G276">
         <v>4.424768518518519E-07</v>
@@ -6760,7 +6760,7 @@
         <v>269.8877638888889</v>
       </c>
       <c r="C277">
-        <v>2.571784722222224</v>
+        <v>2.571784722222222</v>
       </c>
       <c r="D277">
         <v>8.101851851851853E-09</v>
@@ -6783,7 +6783,7 @@
         <v>272.7157291666666</v>
       </c>
       <c r="C278">
-        <v>5.262840277777777</v>
+        <v>5.262840277777778</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -6806,16 +6806,16 @@
         <v>275.2679305555556</v>
       </c>
       <c r="C279">
-        <v>4.191548611111113</v>
+        <v>4.191548611111111</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>49.46520833333332</v>
+        <v>49.46520833333333</v>
       </c>
       <c r="F279">
-        <v>257.9303611111112</v>
+        <v>257.9303611111111</v>
       </c>
       <c r="G279">
         <v>1.55787037037037E-07</v>
@@ -6835,10 +6835,10 @@
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E280">
-        <v>53.82263888888888</v>
+        <v>53.82263888888889</v>
       </c>
       <c r="F280">
-        <v>145.7560624999999</v>
+        <v>145.7560625</v>
       </c>
       <c r="G280">
         <v>1.571759259259259E-07</v>
@@ -6852,16 +6852,16 @@
         <v>273.4169444444444</v>
       </c>
       <c r="C281">
-        <v>3.384326388888891</v>
+        <v>3.384326388888889</v>
       </c>
       <c r="D281">
-        <v>8.101851851851851E-09</v>
+        <v>8.101851851851853E-09</v>
       </c>
       <c r="E281">
-        <v>80.86201388888885</v>
+        <v>80.86201388888888</v>
       </c>
       <c r="F281">
-        <v>160.0795416666666</v>
+        <v>160.0795416666667</v>
       </c>
       <c r="G281">
         <v>1.415509259259259E-07</v>
@@ -6875,16 +6875,16 @@
         <v>271.3868611111111</v>
       </c>
       <c r="C282">
-        <v>5.131916666666669</v>
+        <v>5.131916666666666</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <v>92.51284722222225</v>
+        <v>92.51284722222222</v>
       </c>
       <c r="F282">
-        <v>70.73805555555559</v>
+        <v>70.73805555555556</v>
       </c>
       <c r="G282">
         <v>1.682870370370371E-07</v>
@@ -6904,10 +6904,10 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E283">
-        <v>93.02916666666664</v>
+        <v>93.02916666666667</v>
       </c>
       <c r="F283">
-        <v>120.5944305555555</v>
+        <v>120.5944305555556</v>
       </c>
       <c r="G283">
         <v>3.443287037037037E-07</v>
@@ -6930,7 +6930,7 @@
         <v>48.37854166666667</v>
       </c>
       <c r="F284">
-        <v>248.2296041666666</v>
+        <v>248.2296041666667</v>
       </c>
       <c r="G284">
         <v>4.157407407407408E-07</v>
@@ -6944,13 +6944,13 @@
         <v>269.5732083333333</v>
       </c>
       <c r="C285">
-        <v>4.627506944444447</v>
+        <v>4.627506944444445</v>
       </c>
       <c r="D285">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E285">
-        <v>41.30034722222219</v>
+        <v>41.30034722222222</v>
       </c>
       <c r="F285">
         <v>238.1974444444444</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>28.8345138888889</v>
+        <v>28.83451388888889</v>
       </c>
       <c r="F286">
         <v>242.1636041666667</v>
@@ -6990,13 +6990,13 @@
         <v>268.5800833333333</v>
       </c>
       <c r="C287">
-        <v>3.391819444444446</v>
+        <v>3.391819444444445</v>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287">
-        <v>59.63805555555556</v>
+        <v>59.63805555555555</v>
       </c>
       <c r="F287">
         <v>160.6982916666667</v>
@@ -7019,10 +7019,10 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E288">
-        <v>79.54034722222224</v>
+        <v>79.54034722222222</v>
       </c>
       <c r="F288">
-        <v>194.3815486111112</v>
+        <v>194.3815486111111</v>
       </c>
       <c r="G288">
         <v>3.778935185185185E-07</v>
@@ -7045,7 +7045,7 @@
         <v>84.99722222222222</v>
       </c>
       <c r="F289">
-        <v>197.5374444444445</v>
+        <v>197.5374444444444</v>
       </c>
       <c r="G289">
         <v>3.28125E-07</v>
@@ -7059,13 +7059,13 @@
         <v>268.6330694444444</v>
       </c>
       <c r="C290">
-        <v>4.47720138888889</v>
+        <v>4.477201388888889</v>
       </c>
       <c r="D290">
         <v>6.944444444444444E-09</v>
       </c>
       <c r="E290">
-        <v>92.40750000000004</v>
+        <v>92.4075</v>
       </c>
       <c r="F290">
         <v>101.0904861111111</v>
@@ -7082,7 +7082,7 @@
         <v>268.102375</v>
       </c>
       <c r="C291">
-        <v>3.951194444444443</v>
+        <v>3.951194444444444</v>
       </c>
       <c r="D291">
         <v>1.50462962962963E-08</v>
@@ -7105,16 +7105,16 @@
         <v>267.8895347222222</v>
       </c>
       <c r="C292">
-        <v>3.820493055555557</v>
+        <v>3.820493055555555</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>73.93347222222225</v>
+        <v>73.93347222222222</v>
       </c>
       <c r="F292">
-        <v>133.4516250000001</v>
+        <v>133.451625</v>
       </c>
       <c r="G292">
         <v>7.204861111111111E-07</v>
@@ -7128,16 +7128,16 @@
         <v>270.0141875</v>
       </c>
       <c r="C293">
-        <v>3.964847222222224</v>
+        <v>3.964847222222222</v>
       </c>
       <c r="D293">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E293">
-        <v>44.75965277777777</v>
+        <v>44.75965277777778</v>
       </c>
       <c r="F293">
-        <v>226.9416180555555</v>
+        <v>226.9416180555556</v>
       </c>
       <c r="G293">
         <v>6.83912037037037E-07</v>
@@ -7151,13 +7151,13 @@
         <v>270.2380625</v>
       </c>
       <c r="C294">
-        <v>5.31703472222222</v>
+        <v>5.317034722222222</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>47.99743055555557</v>
+        <v>47.99743055555555</v>
       </c>
       <c r="F294">
         <v>205.5635694444444</v>
@@ -7197,13 +7197,13 @@
         <v>267.6958680555555</v>
       </c>
       <c r="C296">
-        <v>2.907444444444446</v>
+        <v>2.907444444444445</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296">
-        <v>81.46673611111108</v>
+        <v>81.4667361111111</v>
       </c>
       <c r="F296">
         <v>140.4155277777778</v>
@@ -7220,16 +7220,16 @@
         <v>269.0745486111111</v>
       </c>
       <c r="C297">
-        <v>4.362493055555557</v>
+        <v>4.362493055555555</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>72.68076388888893</v>
+        <v>72.68076388888889</v>
       </c>
       <c r="F297">
-        <v>196.2199861111112</v>
+        <v>196.2199861111111</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -7243,16 +7243,16 @@
         <v>267.6289791666666</v>
       </c>
       <c r="C298">
-        <v>2.99076388888889</v>
+        <v>2.990763888888889</v>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>76.27034722222221</v>
+        <v>76.27034722222223</v>
       </c>
       <c r="F298">
-        <v>54.39181250000001</v>
+        <v>54.3918125</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>266.5387777777777</v>
       </c>
       <c r="C300">
-        <v>7.738347222222221</v>
+        <v>7.738347222222223</v>
       </c>
       <c r="D300">
         <v>0</v>
       </c>
       <c r="E300">
-        <v>46.26944444444446</v>
+        <v>46.26944444444445</v>
       </c>
       <c r="F300">
         <v>207.5244791666667</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>49.08472222222223</v>
+        <v>49.08472222222222</v>
       </c>
       <c r="F301">
         <v>171.9647638888889</v>
@@ -7335,13 +7335,13 @@
         <v>267.2429375</v>
       </c>
       <c r="C302">
-        <v>5.432541666666666</v>
+        <v>5.432541666666667</v>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302">
-        <v>32.98638888888892</v>
+        <v>32.98638888888889</v>
       </c>
       <c r="F302">
         <v>206.541375</v>
@@ -7358,7 +7358,7 @@
         <v>268.0007986111111</v>
       </c>
       <c r="C303">
-        <v>3.52984722222222</v>
+        <v>3.529847222222222</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -7381,13 +7381,13 @@
         <v>267.4005347222222</v>
       </c>
       <c r="C304">
-        <v>3.22638888888889</v>
+        <v>3.226388888888889</v>
       </c>
       <c r="D304">
         <v>0</v>
       </c>
       <c r="E304">
-        <v>58.87861111111113</v>
+        <v>58.87861111111111</v>
       </c>
       <c r="F304">
         <v>165.3712569444444</v>
@@ -7404,13 +7404,13 @@
         <v>267.6893194444444</v>
       </c>
       <c r="C305">
-        <v>4.74932638888889</v>
+        <v>4.749326388888889</v>
       </c>
       <c r="D305">
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E305">
-        <v>49.52784722222221</v>
+        <v>49.52784722222222</v>
       </c>
       <c r="F305">
         <v>197.1112291666667</v>
@@ -7424,16 +7424,16 @@
         <v>43040</v>
       </c>
       <c r="B306">
-        <v>267.6920763888888</v>
+        <v>267.6920763888889</v>
       </c>
       <c r="C306">
-        <v>6.457673611111108</v>
+        <v>6.457673611111111</v>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>35.18680555555556</v>
+        <v>35.18680555555555</v>
       </c>
       <c r="F306">
         <v>161.883125</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>48.58208333333332</v>
+        <v>48.58208333333333</v>
       </c>
       <c r="F307">
         <v>181.1672361111111</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>50.10500000000002</v>
+        <v>50.105</v>
       </c>
       <c r="F308">
         <v>172.2062430555555</v>
@@ -7496,7 +7496,7 @@
         <v>267.2094166666666</v>
       </c>
       <c r="C309">
-        <v>4.262395833333334</v>
+        <v>4.262395833333333</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -7519,13 +7519,13 @@
         <v>266.9740833333333</v>
       </c>
       <c r="C310">
-        <v>2.806152777777777</v>
+        <v>2.806152777777778</v>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>37.33583333333334</v>
+        <v>37.33583333333333</v>
       </c>
       <c r="F310">
         <v>177.7930486111111</v>
@@ -7542,13 +7542,13 @@
         <v>264.7161805555555</v>
       </c>
       <c r="C311">
-        <v>5.139437500000004</v>
+        <v>5.1394375</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>52.84472222222224</v>
+        <v>52.84472222222222</v>
       </c>
       <c r="F311">
         <v>147.8349722222222</v>
@@ -7562,19 +7562,19 @@
         <v>43046</v>
       </c>
       <c r="B312">
-        <v>265.3290763888888</v>
+        <v>265.3290763888889</v>
       </c>
       <c r="C312">
-        <v>6.718631944444446</v>
+        <v>6.718631944444444</v>
       </c>
       <c r="D312">
         <v>0</v>
       </c>
       <c r="E312">
-        <v>34.07763888888891</v>
+        <v>34.07763888888889</v>
       </c>
       <c r="F312">
-        <v>172.4770833333334</v>
+        <v>172.4770833333333</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -7594,10 +7594,10 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>33.32854166666669</v>
+        <v>33.32854166666667</v>
       </c>
       <c r="F313">
-        <v>151.2336041666666</v>
+        <v>151.2336041666667</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -7617,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>65.27222222222225</v>
+        <v>65.27222222222223</v>
       </c>
       <c r="F314">
-        <v>90.09729166666665</v>
+        <v>90.09729166666666</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -7631,16 +7631,16 @@
         <v>43049</v>
       </c>
       <c r="B315">
-        <v>263.6628819444445</v>
+        <v>263.6628819444444</v>
       </c>
       <c r="C315">
-        <v>4.723638888888891</v>
+        <v>4.723638888888889</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>68.5029861111111</v>
+        <v>68.50298611111111</v>
       </c>
       <c r="F315">
         <v>158.6881111111111</v>
@@ -7657,7 +7657,7 @@
         <v>265.0623611111111</v>
       </c>
       <c r="C316">
-        <v>7.690618055555555</v>
+        <v>7.690618055555556</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -7666,7 +7666,7 @@
         <v>34.94298611111111</v>
       </c>
       <c r="F316">
-        <v>126.9170694444444</v>
+        <v>126.9170694444445</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -7680,16 +7680,16 @@
         <v>262.9746458333333</v>
       </c>
       <c r="C317">
-        <v>11.31478472222223</v>
+        <v>11.31478472222222</v>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>26.85611111111109</v>
+        <v>26.85611111111111</v>
       </c>
       <c r="F317">
-        <v>174.6240833333334</v>
+        <v>174.6240833333333</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>24.09680555555557</v>
+        <v>24.09680555555556</v>
       </c>
       <c r="F318">
         <v>176.3288194444445</v>
@@ -7726,13 +7726,13 @@
         <v>264.5865208333333</v>
       </c>
       <c r="C319">
-        <v>7.38727083333333</v>
+        <v>7.387270833333334</v>
       </c>
       <c r="D319">
         <v>0</v>
       </c>
       <c r="E319">
-        <v>19.91041666666666</v>
+        <v>19.91041666666667</v>
       </c>
       <c r="F319">
         <v>172.6039583333333</v>
@@ -7749,7 +7749,7 @@
         <v>265.9047986111111</v>
       </c>
       <c r="C320">
-        <v>5.425131944444444</v>
+        <v>5.425131944444445</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -7772,16 +7772,16 @@
         <v>267.1694652777778</v>
       </c>
       <c r="C321">
-        <v>3.310493055555555</v>
+        <v>3.310493055555556</v>
       </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321">
-        <v>31.2492361111111</v>
+        <v>31.24923611111111</v>
       </c>
       <c r="F321">
-        <v>152.0319861111112</v>
+        <v>152.0319861111111</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -7801,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>45.37499999999999</v>
+        <v>45.375</v>
       </c>
       <c r="F322">
-        <v>127.8964583333334</v>
+        <v>127.8964583333333</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>67.38326388888888</v>
+        <v>67.38326388888889</v>
       </c>
       <c r="F323">
         <v>125.3239861111111</v>
@@ -7841,16 +7841,16 @@
         <v>257.6522222222222</v>
       </c>
       <c r="C324">
-        <v>3.822284722222225</v>
+        <v>3.822284722222222</v>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>74.04006944444447</v>
+        <v>74.04006944444444</v>
       </c>
       <c r="F324">
-        <v>163.9344444444444</v>
+        <v>163.9344444444445</v>
       </c>
       <c r="G324">
         <v>0</v>
@@ -7887,13 +7887,13 @@
         <v>258.7670833333333</v>
       </c>
       <c r="C326">
-        <v>7.028555555555553</v>
+        <v>7.028555555555555</v>
       </c>
       <c r="D326">
         <v>0</v>
       </c>
       <c r="E326">
-        <v>39.75270833333333</v>
+        <v>39.75270833333334</v>
       </c>
       <c r="F326">
         <v>154.0522569444444</v>
@@ -7910,13 +7910,13 @@
         <v>256.2846527777778</v>
       </c>
       <c r="C327">
-        <v>4.782895833333331</v>
+        <v>4.782895833333333</v>
       </c>
       <c r="D327">
         <v>0</v>
       </c>
       <c r="E327">
-        <v>34.42236111111112</v>
+        <v>34.42236111111111</v>
       </c>
       <c r="F327">
         <v>148.7761041666666</v>
@@ -7933,13 +7933,13 @@
         <v>256.6970833333333</v>
       </c>
       <c r="C328">
-        <v>3.169618055555557</v>
+        <v>3.169618055555556</v>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>21.72208333333332</v>
+        <v>21.72208333333333</v>
       </c>
       <c r="F328">
         <v>159.7311111111111</v>
@@ -7956,13 +7956,13 @@
         <v>258.1088888888889</v>
       </c>
       <c r="C329">
-        <v>3.649895833333333</v>
+        <v>3.649895833333334</v>
       </c>
       <c r="D329">
         <v>0</v>
       </c>
       <c r="E329">
-        <v>19.94000000000001</v>
+        <v>19.94</v>
       </c>
       <c r="F329">
         <v>155.6748125</v>
@@ -7979,7 +7979,7 @@
         <v>259.2956944444444</v>
       </c>
       <c r="C330">
-        <v>4.094687499999998</v>
+        <v>4.0946875</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -7988,7 +7988,7 @@
         <v>21.80840277777778</v>
       </c>
       <c r="F330">
-        <v>155.4041666666668</v>
+        <v>155.4041666666667</v>
       </c>
       <c r="G330">
         <v>5.085648148148148E-07</v>
@@ -8002,13 +8002,13 @@
         <v>260.7930347222222</v>
       </c>
       <c r="C331">
-        <v>4.901986111111114</v>
+        <v>4.90198611111111</v>
       </c>
       <c r="D331">
         <v>0</v>
       </c>
       <c r="E331">
-        <v>19.8104861111111</v>
+        <v>19.81048611111111</v>
       </c>
       <c r="F331">
         <v>152.0547916666667</v>
@@ -8025,7 +8025,7 @@
         <v>261.6605347222222</v>
       </c>
       <c r="C332">
-        <v>6.005826388888887</v>
+        <v>6.005826388888889</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>26.01652777777778</v>
       </c>
       <c r="F332">
-        <v>155.2102291666666</v>
+        <v>155.2102291666667</v>
       </c>
       <c r="G332">
         <v>5.25925925925926E-07</v>
@@ -8071,16 +8071,16 @@
         <v>259.0477777777778</v>
       </c>
       <c r="C334">
-        <v>3.908666666666666</v>
+        <v>3.908666666666667</v>
       </c>
       <c r="D334">
         <v>0</v>
       </c>
       <c r="E334">
-        <v>54.84645833333332</v>
+        <v>54.84645833333334</v>
       </c>
       <c r="F334">
-        <v>139.5331319444445</v>
+        <v>139.5331319444444</v>
       </c>
       <c r="G334">
         <v>5.297453703703704E-07</v>
@@ -8094,13 +8094,13 @@
         <v>257.7655555555555</v>
       </c>
       <c r="C335">
-        <v>4.192902777777777</v>
+        <v>4.192902777777778</v>
       </c>
       <c r="D335">
         <v>0</v>
       </c>
       <c r="E335">
-        <v>53.32236111111112</v>
+        <v>53.32236111111111</v>
       </c>
       <c r="F335">
         <v>150.9052013888889</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>47.99812500000001</v>
+        <v>47.99812499999999</v>
       </c>
       <c r="F336">
         <v>149.0337777777778</v>
@@ -8140,16 +8140,16 @@
         <v>259.636875</v>
       </c>
       <c r="C337">
-        <v>4.657611111111109</v>
+        <v>4.657611111111112</v>
       </c>
       <c r="D337">
         <v>0</v>
       </c>
       <c r="E337">
-        <v>35.38243055555554</v>
+        <v>35.38243055555555</v>
       </c>
       <c r="F337">
-        <v>112.0643611111112</v>
+        <v>112.0643611111111</v>
       </c>
       <c r="G337">
         <v>5.628472222222222E-07</v>
@@ -8163,7 +8163,7 @@
         <v>260.3190972222222</v>
       </c>
       <c r="C338">
-        <v>5.315541666666668</v>
+        <v>5.315541666666666</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>22.586875</v>
       </c>
       <c r="F338">
-        <v>143.3145069444445</v>
+        <v>143.3145069444444</v>
       </c>
       <c r="G338">
         <v>5.738425925925925E-07</v>
@@ -8186,13 +8186,13 @@
         <v>259.4661805555555</v>
       </c>
       <c r="C339">
-        <v>4.408722222222223</v>
+        <v>4.408722222222222</v>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>23.7140277777778</v>
+        <v>23.71402777777778</v>
       </c>
       <c r="F339">
         <v>146.2344375</v>
@@ -8209,7 +8209,7 @@
         <v>261.2567083333333</v>
       </c>
       <c r="C340">
-        <v>4.017569444444445</v>
+        <v>4.017569444444444</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -8232,13 +8232,13 @@
         <v>263.4295625</v>
       </c>
       <c r="C341">
-        <v>4.282972222222221</v>
+        <v>4.282972222222223</v>
       </c>
       <c r="D341">
         <v>0</v>
       </c>
       <c r="E341">
-        <v>22.8029861111111</v>
+        <v>22.80298611111111</v>
       </c>
       <c r="F341">
         <v>141.5546666666667</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>16.12576388888888</v>
+        <v>16.12576388888889</v>
       </c>
       <c r="F342">
         <v>119.0701944444444</v>
@@ -8278,7 +8278,7 @@
         <v>262.2453819444444</v>
       </c>
       <c r="C343">
-        <v>7.645166666666665</v>
+        <v>7.645166666666666</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>264.2372847222222</v>
       </c>
       <c r="C344">
-        <v>6.69679861111111</v>
+        <v>6.696798611111111</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -8324,13 +8324,13 @@
         <v>267.1362083333333</v>
       </c>
       <c r="C345">
-        <v>2.790430555555555</v>
+        <v>2.790430555555556</v>
       </c>
       <c r="D345">
         <v>0</v>
       </c>
       <c r="E345">
-        <v>24.01777777777777</v>
+        <v>24.01777777777778</v>
       </c>
       <c r="F345">
         <v>138.2289652777778</v>
@@ -8353,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>24.85215277777776</v>
+        <v>24.85215277777778</v>
       </c>
       <c r="F346">
-        <v>136.8347708333334</v>
+        <v>136.8347708333333</v>
       </c>
       <c r="G346">
         <v>5.680555555555555E-07</v>
@@ -8370,7 +8370,7 @@
         <v>265.4038263888889</v>
       </c>
       <c r="C347">
-        <v>2.904243055555555</v>
+        <v>2.904243055555556</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>264.4144444444444</v>
       </c>
       <c r="C348">
-        <v>7.565444444444442</v>
+        <v>7.565444444444444</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>37.99194444444444</v>
       </c>
       <c r="F348">
-        <v>117.6424444444445</v>
+        <v>117.6424444444444</v>
       </c>
       <c r="G348">
         <v>5.717592592592592E-07</v>
@@ -8416,16 +8416,16 @@
         <v>261.3940555555556</v>
       </c>
       <c r="C349">
-        <v>6.114652777777775</v>
+        <v>6.114652777777778</v>
       </c>
       <c r="D349">
         <v>0</v>
       </c>
       <c r="E349">
-        <v>51.63624999999999</v>
+        <v>51.63625</v>
       </c>
       <c r="F349">
-        <v>98.46441666666671</v>
+        <v>98.46441666666666</v>
       </c>
       <c r="G349">
         <v>5.652777777777778E-07</v>
@@ -8462,7 +8462,7 @@
         <v>256.60375</v>
       </c>
       <c r="C351">
-        <v>3.343986111111112</v>
+        <v>3.343986111111111</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>258.8642361111111</v>
       </c>
       <c r="C352">
-        <v>3.201708333333334</v>
+        <v>3.201708333333333</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>35.72180555555556</v>
       </c>
       <c r="F352">
-        <v>121.3543055555555</v>
+        <v>121.3543055555556</v>
       </c>
       <c r="G352">
         <v>5.435185185185185E-07</v>
@@ -8508,13 +8508,13 @@
         <v>257.4971527777777</v>
       </c>
       <c r="C353">
-        <v>4.518250000000003</v>
+        <v>4.51825</v>
       </c>
       <c r="D353">
         <v>0</v>
       </c>
       <c r="E353">
-        <v>57.99055555555557</v>
+        <v>57.99055555555555</v>
       </c>
       <c r="F353">
         <v>114.2962847222222</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>28.50881944444444</v>
+        <v>28.50881944444445</v>
       </c>
       <c r="F354">
         <v>140.1250902777778</v>
@@ -8554,7 +8554,7 @@
         <v>260.7507638888889</v>
       </c>
       <c r="C355">
-        <v>5.594326388888891</v>
+        <v>5.594326388888889</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>264.4143194444444</v>
       </c>
       <c r="C356">
-        <v>5.206854166666664</v>
+        <v>5.206854166666667</v>
       </c>
       <c r="D356">
         <v>0</v>
       </c>
       <c r="E356">
-        <v>21.4967361111111</v>
+        <v>21.49673611111111</v>
       </c>
       <c r="F356">
         <v>129.2595555555556</v>
@@ -8600,7 +8600,7 @@
         <v>263.3419027777778</v>
       </c>
       <c r="C357">
-        <v>5.196513888888891</v>
+        <v>5.196513888888889</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -8623,13 +8623,13 @@
         <v>258.813125</v>
       </c>
       <c r="C358">
-        <v>7.952972222222225</v>
+        <v>7.952972222222223</v>
       </c>
       <c r="D358">
         <v>0</v>
       </c>
       <c r="E358">
-        <v>38.39305555555558</v>
+        <v>38.39305555555556</v>
       </c>
       <c r="F358">
         <v>99.17675694444443</v>
@@ -8646,13 +8646,13 @@
         <v>259.54875</v>
       </c>
       <c r="C359">
-        <v>6.440618055555563</v>
+        <v>6.440618055555555</v>
       </c>
       <c r="D359">
         <v>0</v>
       </c>
       <c r="E359">
-        <v>21.83499999999999</v>
+        <v>21.835</v>
       </c>
       <c r="F359">
         <v>144.1290833333333</v>
@@ -8669,7 +8669,7 @@
         <v>262.0501666666667</v>
       </c>
       <c r="C360">
-        <v>6.982493055555553</v>
+        <v>6.982493055555556</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>261.32225</v>
       </c>
       <c r="C361">
-        <v>6.617520833333335</v>
+        <v>6.617520833333334</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -8715,13 +8715,13 @@
         <v>262.9256041666666</v>
       </c>
       <c r="C362">
-        <v>4.939895833333335</v>
+        <v>4.939895833333334</v>
       </c>
       <c r="D362">
         <v>0</v>
       </c>
       <c r="E362">
-        <v>16.8179861111111</v>
+        <v>16.81798611111111</v>
       </c>
       <c r="F362">
         <v>137.1928472222222</v>
@@ -8744,10 +8744,10 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>33.08236111111112</v>
+        <v>33.08236111111111</v>
       </c>
       <c r="F363">
-        <v>111.0840277777777</v>
+        <v>111.0840277777778</v>
       </c>
       <c r="G363">
         <v>5.678240740740741E-07</v>
@@ -8761,7 +8761,7 @@
         <v>255.644375</v>
       </c>
       <c r="C364">
-        <v>5.268875000000001</v>
+        <v>5.268875</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>65.82520833333334</v>
       </c>
       <c r="F364">
-        <v>78.12406944444446</v>
+        <v>78.12406944444444</v>
       </c>
       <c r="G364">
         <v>5.62962962962963E-07</v>
@@ -8784,13 +8784,13 @@
         <v>255.6490972222222</v>
       </c>
       <c r="C365">
-        <v>7.261236111111117</v>
+        <v>7.261236111111111</v>
       </c>
       <c r="D365">
         <v>0</v>
       </c>
       <c r="E365">
-        <v>26.00152777777779</v>
+        <v>26.00152777777778</v>
       </c>
       <c r="F365">
         <v>145.9531736111111</v>
@@ -8804,19 +8804,19 @@
         <v>43100</v>
       </c>
       <c r="B366">
-        <v>257.5072916666667</v>
+        <v>257.5072916666666</v>
       </c>
       <c r="C366">
-        <v>5.89782638888889</v>
+        <v>5.897826388888889</v>
       </c>
       <c r="D366">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>23.73263888888888</v>
+        <v>23.73263888888889</v>
       </c>
       <c r="F366">
-        <v>146.566388888889</v>
+        <v>146.5663888888889</v>
       </c>
       <c r="G366">
         <v>5.796296296296296E-07</v>

--- a/rk_model/Data/Data_Yakou/Yakou_met_data_ITP_rk/input_data_env_variables.xlsx
+++ b/rk_model/Data/Data_Yakou/Yakou_met_data_ITP_rk/input_data_env_variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>air temperature [K]</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Incoming shortwave radiation (W/m^2)</t>
+  </si>
+  <si>
+    <t>Incoming longwave radiation (W/m^2)</t>
   </si>
   <si>
     <t>precipitation snow [m SWE s^-1]</t>
@@ -398,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -426,8 +429,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>42736</v>
       </c>
@@ -441,16 +447,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.41729166666667</v>
+        <v>0.2641729166666666</v>
       </c>
       <c r="F2">
         <v>140.5729166666667</v>
       </c>
       <c r="G2">
-        <v>4.340277777777777E-09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>155.5777777777778</v>
+      </c>
+      <c r="H2">
+        <v>1.953125E-09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>42737</v>
       </c>
@@ -464,16 +473,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.60326388888889</v>
+        <v>0.2560326388888889</v>
       </c>
       <c r="F3">
         <v>136.9096527777778</v>
       </c>
       <c r="G3">
-        <v>2.411261574074074E-09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>166.2576388888889</v>
+      </c>
+      <c r="H3">
+        <v>1.085067708333333E-09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>42738</v>
       </c>
@@ -487,16 +499,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>43.42826388888889</v>
+        <v>0.4342826388888889</v>
       </c>
       <c r="F4">
         <v>108.1423402777778</v>
       </c>
       <c r="G4">
-        <v>1.446759259259259E-09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>178.4048611111111</v>
+      </c>
+      <c r="H4">
+        <v>6.510416666666667E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>42739</v>
       </c>
@@ -510,16 +525,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.43611111111111</v>
+        <v>0.3043611111111111</v>
       </c>
       <c r="F5">
         <v>147.9335902777778</v>
       </c>
       <c r="G5">
-        <v>5.304780092592593E-09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>154.4965277777778</v>
+      </c>
+      <c r="H5">
+        <v>2.387151041666666E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>42740</v>
       </c>
@@ -533,16 +551,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.18</v>
+        <v>0.2218</v>
       </c>
       <c r="F6">
         <v>147.1864583333333</v>
       </c>
       <c r="G6">
-        <v>2.893518518518518E-09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>159.26875</v>
+      </c>
+      <c r="H6">
+        <v>1.302083333333333E-09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>42741</v>
       </c>
@@ -556,16 +577,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28.91152777777778</v>
+        <v>0.2891152777777778</v>
       </c>
       <c r="F7">
         <v>151.6347916666667</v>
       </c>
       <c r="G7">
-        <v>9.403935185185186E-09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>162.1194444444444</v>
+      </c>
+      <c r="H7">
+        <v>4.231770833333333E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>42742</v>
       </c>
@@ -579,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>46.27090277777778</v>
+        <v>0.4627090277777778</v>
       </c>
       <c r="F8">
         <v>126.7884027777778</v>
       </c>
       <c r="G8">
-        <v>6.269293981481482E-09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>170.1201388888889</v>
+      </c>
+      <c r="H8">
+        <v>2.821182291666667E-09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>42743</v>
       </c>
@@ -602,16 +629,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>52.14006944444444</v>
+        <v>0.5214006944444445</v>
       </c>
       <c r="F9">
         <v>148.5770138888889</v>
       </c>
       <c r="G9">
-        <v>7.957175925925926E-09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>155.8645833333333</v>
+      </c>
+      <c r="H9">
+        <v>3.580729166666666E-09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>42744</v>
       </c>
@@ -625,16 +655,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>70.1726388888889</v>
+        <v>0.7017263888888889</v>
       </c>
       <c r="F10">
         <v>138.1092569444444</v>
       </c>
       <c r="G10">
-        <v>7.957175925925926E-09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>179.4756944444445</v>
+      </c>
+      <c r="H10">
+        <v>3.580729166666666E-09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>42745</v>
       </c>
@@ -648,16 +681,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E11">
-        <v>81.31458333333333</v>
+        <v>0.8131458333333333</v>
       </c>
       <c r="F11">
         <v>81.65446527777777</v>
       </c>
       <c r="G11">
-        <v>1.037037037037037E-07</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>237.0847222222222</v>
+      </c>
+      <c r="H11">
+        <v>4.666666666666666E-08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>42746</v>
       </c>
@@ -671,16 +707,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>77.295</v>
+        <v>0.77295</v>
       </c>
       <c r="F12">
         <v>114.1826736111111</v>
       </c>
       <c r="G12">
-        <v>1.793981481481481E-07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>199.7611111111111</v>
+      </c>
+      <c r="H12">
+        <v>8.072916666666667E-08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>42747</v>
       </c>
@@ -694,16 +733,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>49.426875</v>
+        <v>0.49426875</v>
       </c>
       <c r="F13">
         <v>157.6925902777778</v>
       </c>
       <c r="G13">
-        <v>1.918981481481482E-07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>133.60625</v>
+      </c>
+      <c r="H13">
+        <v>8.635416666666666E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>42748</v>
       </c>
@@ -717,16 +759,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>54.82020833333333</v>
+        <v>0.5482020833333333</v>
       </c>
       <c r="F14">
         <v>143.6880138888889</v>
       </c>
       <c r="G14">
-        <v>2.107638888888889E-07</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>159.6472222222222</v>
+      </c>
+      <c r="H14">
+        <v>9.484375000000001E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>42749</v>
       </c>
@@ -740,16 +785,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.51472222222222</v>
+        <v>0.4051472222222222</v>
       </c>
       <c r="F15">
         <v>134.8426388888889</v>
       </c>
       <c r="G15">
-        <v>2.023148148148148E-07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>169.2354166666667</v>
+      </c>
+      <c r="H15">
+        <v>9.104166666666666E-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>42750</v>
       </c>
@@ -763,16 +811,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>34.88423611111111</v>
+        <v>0.3488423611111111</v>
       </c>
       <c r="F16">
         <v>128.6959027777778</v>
       </c>
       <c r="G16">
-        <v>1.244212962962963E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>160.7548611111111</v>
+      </c>
+      <c r="H16">
+        <v>5.598958333333333E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>42751</v>
       </c>
@@ -786,16 +837,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.68770833333333</v>
+        <v>0.1868770833333333</v>
       </c>
       <c r="F17">
         <v>168.2091805555555</v>
       </c>
       <c r="G17">
-        <v>2.384259259259259E-08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>133.3875</v>
+      </c>
+      <c r="H17">
+        <v>1.072916666666667E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>42752</v>
       </c>
@@ -809,16 +863,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.27569444444444</v>
+        <v>0.2627569444444444</v>
       </c>
       <c r="F18">
         <v>132.1524791666667</v>
       </c>
       <c r="G18">
-        <v>2.430555555555555E-08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>146.6118055555555</v>
+      </c>
+      <c r="H18">
+        <v>1.09375E-08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>42753</v>
       </c>
@@ -832,16 +889,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.21597222222222</v>
+        <v>0.1721597222222222</v>
       </c>
       <c r="F19">
         <v>171.0218402777778</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>128.8520833333333</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>42754</v>
       </c>
@@ -855,16 +915,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.06333333333333</v>
+        <v>0.1506333333333333</v>
       </c>
       <c r="F20">
         <v>121.0957847222222</v>
       </c>
       <c r="G20">
-        <v>6.849965277777778E-09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>142.8326388888889</v>
+      </c>
+      <c r="H20">
+        <v>3.082484375E-09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>42755</v>
       </c>
@@ -878,16 +941,19 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.48909722222222</v>
+        <v>0.2348909722222222</v>
       </c>
       <c r="F21">
         <v>113.8589861111111</v>
       </c>
       <c r="G21">
-        <v>5.063657407407407E-09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>163.0145833333333</v>
+      </c>
+      <c r="H21">
+        <v>2.278645833333333E-09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>42756</v>
       </c>
@@ -901,16 +967,19 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.76534722222222</v>
+        <v>0.2076534722222222</v>
       </c>
       <c r="F22">
         <v>141.5951875</v>
       </c>
       <c r="G22">
-        <v>5.063657407407407E-09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>147.5833333333333</v>
+      </c>
+      <c r="H22">
+        <v>2.278645833333333E-09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>42757</v>
       </c>
@@ -924,16 +993,19 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.26527777777778</v>
+        <v>0.1226527777777778</v>
       </c>
       <c r="F23">
         <v>176.0315972222222</v>
       </c>
       <c r="G23">
-        <v>6.992673611111111E-09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>124.2951388888889</v>
+      </c>
+      <c r="H23">
+        <v>3.146703125E-09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>42758</v>
       </c>
@@ -947,16 +1019,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.810625</v>
+        <v>0.13810625</v>
       </c>
       <c r="F24">
         <v>143.728125</v>
       </c>
       <c r="G24">
-        <v>1.203703703703704E-08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>154.4027777777778</v>
+      </c>
+      <c r="H24">
+        <v>5.416666666666666E-09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>42759</v>
       </c>
@@ -970,16 +1045,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.05489583333333</v>
+        <v>0.2205489583333333</v>
       </c>
       <c r="F25">
         <v>178.2357638888889</v>
       </c>
       <c r="G25">
-        <v>6.751539351851852E-09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>150.0944444444444</v>
+      </c>
+      <c r="H25">
+        <v>3.038192708333333E-09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>42760</v>
       </c>
@@ -993,16 +1071,19 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>18.690625</v>
+        <v>0.18690625</v>
       </c>
       <c r="F26">
         <v>151.3601458333333</v>
       </c>
       <c r="G26">
-        <v>8.680555555555555E-09</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>176.03125</v>
+      </c>
+      <c r="H26">
+        <v>3.90625E-09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>42761</v>
       </c>
@@ -1016,16 +1097,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>34.43833333333333</v>
+        <v>0.3443833333333333</v>
       </c>
       <c r="F27">
         <v>136.9272569444445</v>
       </c>
       <c r="G27">
-        <v>9.886192129629629E-09</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>194.7125</v>
+      </c>
+      <c r="H27">
+        <v>4.448786458333333E-09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>42762</v>
       </c>
@@ -1039,16 +1123,19 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>32.59638888888889</v>
+        <v>0.3259638888888889</v>
       </c>
       <c r="F28">
         <v>162.1003125</v>
       </c>
       <c r="G28">
-        <v>8.198298611111111E-09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>189.0340277777778</v>
+      </c>
+      <c r="H28">
+        <v>3.689234375E-09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>42763</v>
       </c>
@@ -1062,16 +1149,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>49.65520833333333</v>
+        <v>0.4965520833333333</v>
       </c>
       <c r="F29">
         <v>126.4320347222222</v>
       </c>
       <c r="G29">
-        <v>2.55787037037037E-08</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>210.1340277777778</v>
+      </c>
+      <c r="H29">
+        <v>1.151041666666667E-08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>42764</v>
       </c>
@@ -1085,16 +1175,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>45.23118055555555</v>
+        <v>0.4523118055555556</v>
       </c>
       <c r="F30">
         <v>186.1809930555556</v>
       </c>
       <c r="G30">
-        <v>2.011574074074074E-07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>168.8534722222222</v>
+      </c>
+      <c r="H30">
+        <v>9.052083333333332E-08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>42765</v>
       </c>
@@ -1108,16 +1201,19 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>41.82923611111111</v>
+        <v>0.4182923611111111</v>
       </c>
       <c r="F31">
         <v>144.1896527777778</v>
       </c>
       <c r="G31">
-        <v>1.613425925925926E-07</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>188.9416666666667</v>
+      </c>
+      <c r="H31">
+        <v>7.260416666666666E-08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>42766</v>
       </c>
@@ -1131,16 +1227,19 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>35.93076388888889</v>
+        <v>0.3593076388888889</v>
       </c>
       <c r="F32">
         <v>174.455</v>
       </c>
       <c r="G32">
-        <v>5.810185185185185E-08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>164.3840277777778</v>
+      </c>
+      <c r="H32">
+        <v>2.614583333333333E-08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>42767</v>
       </c>
@@ -1154,16 +1253,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>30.33958333333333</v>
+        <v>0.3033958333333333</v>
       </c>
       <c r="F33">
         <v>184.6550277777778</v>
       </c>
       <c r="G33">
-        <v>5.034722222222222E-08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>162.9972222222222</v>
+      </c>
+      <c r="H33">
+        <v>2.265625E-08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>42768</v>
       </c>
@@ -1177,16 +1279,19 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>25.20395833333333</v>
+        <v>0.2520395833333333</v>
       </c>
       <c r="F34">
         <v>149.2596527777778</v>
       </c>
       <c r="G34">
-        <v>3.645833333333333E-08</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>175.1104166666667</v>
+      </c>
+      <c r="H34">
+        <v>1.640625E-08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>42769</v>
       </c>
@@ -1200,16 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>18.30423611111111</v>
+        <v>0.1830423611111111</v>
       </c>
       <c r="F35">
         <v>176.5700694444444</v>
       </c>
       <c r="G35">
-        <v>2.55787037037037E-08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>187.6013888888889</v>
+      </c>
+      <c r="H35">
+        <v>1.151041666666667E-08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>42770</v>
       </c>
@@ -1223,16 +1331,19 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>18.18138888888889</v>
+        <v>0.1818138888888889</v>
       </c>
       <c r="F36">
         <v>158.2064166666667</v>
       </c>
       <c r="G36">
-        <v>2.627314814814815E-08</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>193.2805555555556</v>
+      </c>
+      <c r="H36">
+        <v>1.182291666666667E-08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>42771</v>
       </c>
@@ -1246,16 +1357,19 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>16.46090277777778</v>
+        <v>0.1646090277777777</v>
       </c>
       <c r="F37">
         <v>90.06763888888889</v>
       </c>
       <c r="G37">
-        <v>4.363425925925926E-08</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>238.9965277777778</v>
+      </c>
+      <c r="H37">
+        <v>1.963541666666667E-08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>42772</v>
       </c>
@@ -1269,16 +1383,19 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>32.31479166666666</v>
+        <v>0.3231479166666666</v>
       </c>
       <c r="F38">
         <v>66.33634027777777</v>
       </c>
       <c r="G38">
-        <v>5.115740740740741E-08</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>251.9333333333333</v>
+      </c>
+      <c r="H38">
+        <v>2.302083333333333E-08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>42773</v>
       </c>
@@ -1292,16 +1409,19 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>82.06666666666666</v>
+        <v>0.8206666666666667</v>
       </c>
       <c r="F39">
         <v>86.2188888888889</v>
       </c>
       <c r="G39">
-        <v>3.518518518518519E-08</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>237.0451388888889</v>
+      </c>
+      <c r="H39">
+        <v>1.583333333333333E-08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>42774</v>
       </c>
@@ -1315,16 +1435,19 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>83.23333333333333</v>
+        <v>0.8323333333333334</v>
       </c>
       <c r="F40">
         <v>113.1006805555556</v>
       </c>
       <c r="G40">
-        <v>4.988425925925925E-08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>233.5965277777778</v>
+      </c>
+      <c r="H40">
+        <v>2.244791666666666E-08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>42775</v>
       </c>
@@ -1338,16 +1461,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E41">
-        <v>62.91166666666667</v>
+        <v>0.6291166666666667</v>
       </c>
       <c r="F41">
         <v>178.1926875</v>
       </c>
       <c r="G41">
-        <v>1.030092592592593E-07</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>195.2895833333333</v>
+      </c>
+      <c r="H41">
+        <v>4.635416666666666E-08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>42776</v>
       </c>
@@ -1361,16 +1487,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>71.879375</v>
+        <v>0.71879375</v>
       </c>
       <c r="F42">
         <v>99.42229166666667</v>
       </c>
       <c r="G42">
-        <v>1.224537037037037E-07</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>201.6006944444445</v>
+      </c>
+      <c r="H42">
+        <v>5.510416666666667E-08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>42777</v>
       </c>
@@ -1384,16 +1513,19 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>44.03201388888888</v>
+        <v>0.4403201388888888</v>
       </c>
       <c r="F43">
         <v>203.9704861111111</v>
       </c>
       <c r="G43">
-        <v>1.003472222222222E-07</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>168.9277777777778</v>
+      </c>
+      <c r="H43">
+        <v>4.515625E-08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>42778</v>
       </c>
@@ -1407,16 +1539,19 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>29.44673611111111</v>
+        <v>0.2944673611111111</v>
       </c>
       <c r="F44">
         <v>208.7588888888889</v>
       </c>
       <c r="G44">
-        <v>1.068287037037037E-07</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>151.8270833333333</v>
+      </c>
+      <c r="H44">
+        <v>4.807291666666667E-08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>42779</v>
       </c>
@@ -1430,16 +1565,19 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>28.32138888888889</v>
+        <v>0.2832138888888889</v>
       </c>
       <c r="F45">
         <v>148.8642986111111</v>
       </c>
       <c r="G45">
-        <v>6.215277777777777E-08</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>192.35625</v>
+      </c>
+      <c r="H45">
+        <v>2.796875E-08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>42780</v>
       </c>
@@ -1453,16 +1591,19 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>28.12076388888889</v>
+        <v>0.2812076388888889</v>
       </c>
       <c r="F46">
         <v>171.9894444444444</v>
       </c>
       <c r="G46">
-        <v>3.912037037037037E-08</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>178.9583333333333</v>
+      </c>
+      <c r="H46">
+        <v>1.760416666666667E-08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>42781</v>
       </c>
@@ -1476,16 +1617,19 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>22.93645833333333</v>
+        <v>0.2293645833333333</v>
       </c>
       <c r="F47">
         <v>175.42525</v>
       </c>
       <c r="G47">
-        <v>9.886192129629629E-09</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>168.5222222222222</v>
+      </c>
+      <c r="H47">
+        <v>4.448786458333333E-09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>42782</v>
       </c>
@@ -1499,16 +1643,19 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>35.35284722222222</v>
+        <v>0.3535284722222222</v>
       </c>
       <c r="F48">
         <v>115.3140138888889</v>
       </c>
       <c r="G48">
-        <v>2.118055555555556E-08</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>214.5881944444444</v>
+      </c>
+      <c r="H48">
+        <v>9.53125E-09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>42783</v>
       </c>
@@ -1522,16 +1669,19 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>34.326875</v>
+        <v>0.34326875</v>
       </c>
       <c r="F49">
         <v>200.4473194444444</v>
       </c>
       <c r="G49">
-        <v>1.423611111111111E-08</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>176.4173611111111</v>
+      </c>
+      <c r="H49">
+        <v>6.40625E-09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>42784</v>
       </c>
@@ -1545,16 +1695,19 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>19.65581944444445</v>
+        <v>0.1965581944444445</v>
       </c>
       <c r="F50">
         <v>227.8323263888889</v>
       </c>
       <c r="G50">
-        <v>3.06712962962963E-08</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>163.9993055555556</v>
+      </c>
+      <c r="H50">
+        <v>1.380208333333333E-08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>42785</v>
       </c>
@@ -1568,16 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>18.73680555555556</v>
+        <v>0.1873680555555556</v>
       </c>
       <c r="F51">
         <v>173.7388888888889</v>
       </c>
       <c r="G51">
-        <v>3.738425925925925E-08</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>207.65</v>
+      </c>
+      <c r="H51">
+        <v>1.682291666666667E-08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>42786</v>
       </c>
@@ -1591,16 +1747,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>37.6975</v>
+        <v>0.376975</v>
       </c>
       <c r="F52">
         <v>125.1627222222222</v>
       </c>
       <c r="G52">
-        <v>1.620370370370371E-08</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>248.10625</v>
+      </c>
+      <c r="H52">
+        <v>7.291666666666667E-09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>42787</v>
       </c>
@@ -1614,16 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>83.24652777777777</v>
+        <v>0.8324652777777777</v>
       </c>
       <c r="F53">
         <v>160.9182152777778</v>
       </c>
       <c r="G53">
-        <v>2.55787037037037E-08</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>233.06875</v>
+      </c>
+      <c r="H53">
+        <v>1.151041666666667E-08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>42788</v>
       </c>
@@ -1637,16 +1799,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E54">
-        <v>82.8138888888889</v>
+        <v>0.828138888888889</v>
       </c>
       <c r="F54">
         <v>173.0915208333333</v>
       </c>
       <c r="G54">
-        <v>9.745370370370371E-08</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>231.7131944444444</v>
+      </c>
+      <c r="H54">
+        <v>4.385416666666667E-08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>42789</v>
       </c>
@@ -1660,16 +1825,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E55">
-        <v>83.42777777777778</v>
+        <v>0.8342777777777778</v>
       </c>
       <c r="F55">
         <v>160.4456388888889</v>
       </c>
       <c r="G55">
-        <v>1.700231481481481E-07</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>238.6402777777778</v>
+      </c>
+      <c r="H55">
+        <v>7.651041666666667E-08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>42790</v>
       </c>
@@ -1683,16 +1851,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E56">
-        <v>81.19513888888889</v>
+        <v>0.811951388888889</v>
       </c>
       <c r="F56">
         <v>124.5465486111111</v>
       </c>
       <c r="G56">
-        <v>3.380787037037037E-07</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>249.9777777777778</v>
+      </c>
+      <c r="H56">
+        <v>1.521354166666667E-07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>42791</v>
       </c>
@@ -1706,16 +1877,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>56.13777777777778</v>
+        <v>0.5613777777777778</v>
       </c>
       <c r="F57">
         <v>231.9450486111111</v>
       </c>
       <c r="G57">
-        <v>3.69675925925926E-07</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>164.9986111111111</v>
+      </c>
+      <c r="H57">
+        <v>1.663541666666667E-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>42792</v>
       </c>
@@ -1729,16 +1903,19 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>37.12687500000001</v>
+        <v>0.37126875</v>
       </c>
       <c r="F58">
         <v>249.3955</v>
       </c>
       <c r="G58">
-        <v>3.462962962962963E-07</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>137.3583333333333</v>
+      </c>
+      <c r="H58">
+        <v>1.558333333333333E-07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>42793</v>
       </c>
@@ -1752,16 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>42.46493055555555</v>
+        <v>0.4246493055555555</v>
       </c>
       <c r="F59">
         <v>210.4009722222222</v>
       </c>
       <c r="G59">
-        <v>3.358796296296297E-07</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>180.1881944444444</v>
+      </c>
+      <c r="H59">
+        <v>1.511458333333333E-07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>42794</v>
       </c>
@@ -1775,16 +1955,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E60">
-        <v>82.51180555555555</v>
+        <v>0.8251180555555555</v>
       </c>
       <c r="F60">
         <v>189.9182638888889</v>
       </c>
       <c r="G60">
-        <v>3.18287037037037E-07</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>225.8715277777778</v>
+      </c>
+      <c r="H60">
+        <v>1.432291666666667E-07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>42795</v>
       </c>
@@ -1798,16 +1981,19 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>39.54270833333333</v>
+        <v>0.3954270833333333</v>
       </c>
       <c r="F61">
         <v>254.6408263888889</v>
       </c>
       <c r="G61">
-        <v>2.922453703703704E-07</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>153.4708333333333</v>
+      </c>
+      <c r="H61">
+        <v>1.315104166666667E-07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>42796</v>
       </c>
@@ -1821,16 +2007,19 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>34.40506944444444</v>
+        <v>0.3440506944444444</v>
       </c>
       <c r="F62">
         <v>256.1820138888889</v>
       </c>
       <c r="G62">
-        <v>2.290509259259259E-07</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>154.6208333333333</v>
+      </c>
+      <c r="H62">
+        <v>1.030729166666667E-07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>42797</v>
       </c>
@@ -1844,16 +2033,19 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>34.83861111111111</v>
+        <v>0.3483861111111111</v>
       </c>
       <c r="F63">
         <v>243.8665277777778</v>
       </c>
       <c r="G63">
-        <v>1.726851851851852E-07</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>163.3805555555556</v>
+      </c>
+      <c r="H63">
+        <v>7.770833333333333E-08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>42798</v>
       </c>
@@ -1867,16 +2059,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>56.07479166666667</v>
+        <v>0.5607479166666667</v>
       </c>
       <c r="F64">
         <v>194.4423263888889</v>
       </c>
       <c r="G64">
-        <v>1.991898148148148E-07</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>195.9965277777778</v>
+      </c>
+      <c r="H64">
+        <v>8.963541666666666E-08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>42799</v>
       </c>
@@ -1890,16 +2085,19 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>82.94583333333334</v>
+        <v>0.8294583333333334</v>
       </c>
       <c r="F65">
         <v>220.328125</v>
       </c>
       <c r="G65">
-        <v>2.141203703703704E-07</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>227.95625</v>
+      </c>
+      <c r="H65">
+        <v>9.635416666666666E-08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>42800</v>
       </c>
@@ -1913,16 +2111,19 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>83.91805555555555</v>
+        <v>0.8391805555555556</v>
       </c>
       <c r="F66">
         <v>208.4963333333334</v>
       </c>
       <c r="G66">
-        <v>4.496527777777778E-07</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>232.7861111111111</v>
+      </c>
+      <c r="H66">
+        <v>2.0234375E-07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>42801</v>
       </c>
@@ -1936,16 +2137,19 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>80.84194444444444</v>
+        <v>0.8084194444444444</v>
       </c>
       <c r="F67">
         <v>207.4468055555556</v>
       </c>
       <c r="G67">
-        <v>6.380787037037037E-07</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>231.6173611111111</v>
+      </c>
+      <c r="H67">
+        <v>2.871354166666667E-07</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>42802</v>
       </c>
@@ -1959,16 +2163,19 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>56.23131944444444</v>
+        <v>0.5623131944444444</v>
       </c>
       <c r="F68">
         <v>201.8474513888889</v>
       </c>
       <c r="G68">
-        <v>7.559027777777779E-07</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>194.7444444444444</v>
+      </c>
+      <c r="H68">
+        <v>3.4015625E-07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>42803</v>
       </c>
@@ -1982,16 +2189,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>58.905</v>
+        <v>0.58905</v>
       </c>
       <c r="F69">
         <v>207.359875</v>
       </c>
       <c r="G69">
-        <v>8.123842592592593E-07</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>213.0666666666667</v>
+      </c>
+      <c r="H69">
+        <v>3.655729166666667E-07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>42804</v>
       </c>
@@ -2005,16 +2215,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>80.30249999999999</v>
+        <v>0.803025</v>
       </c>
       <c r="F70">
         <v>192.6432777777778</v>
       </c>
       <c r="G70">
-        <v>7.703703703703703E-07</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>255.7229166666667</v>
+      </c>
+      <c r="H70">
+        <v>3.466666666666666E-07</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>42805</v>
       </c>
@@ -2028,16 +2241,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E71">
-        <v>84.70416666666667</v>
+        <v>0.8470416666666667</v>
       </c>
       <c r="F71">
         <v>196.8970902777778</v>
       </c>
       <c r="G71">
-        <v>7.71412037037037E-07</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>237.4138888888889</v>
+      </c>
+      <c r="H71">
+        <v>3.471354166666667E-07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>42806</v>
       </c>
@@ -2051,16 +2267,19 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>86.24375000000001</v>
+        <v>0.8624375000000001</v>
       </c>
       <c r="F72">
         <v>154.4988888888889</v>
       </c>
       <c r="G72">
-        <v>1.030787037037037E-06</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>253.8840277777778</v>
+      </c>
+      <c r="H72">
+        <v>4.638541666666666E-07</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>42807</v>
       </c>
@@ -2074,16 +2293,19 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>85.01249999999999</v>
+        <v>0.8501249999999999</v>
       </c>
       <c r="F73">
         <v>200.3291180555556</v>
       </c>
       <c r="G73">
-        <v>1.428240740740741E-06</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>233.1458333333333</v>
+      </c>
+      <c r="H73">
+        <v>6.427083333333333E-07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>42808</v>
       </c>
@@ -2097,16 +2319,19 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>87.32916666666667</v>
+        <v>0.8732916666666667</v>
       </c>
       <c r="F74">
         <v>197.9099166666666</v>
       </c>
       <c r="G74">
-        <v>1.313425925925926E-06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>256.0111111111111</v>
+      </c>
+      <c r="H74">
+        <v>5.910416666666666E-07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>42809</v>
       </c>
@@ -2120,16 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>75.16465277777777</v>
+        <v>0.7516465277777777</v>
       </c>
       <c r="F75">
         <v>206.8308194444444</v>
       </c>
       <c r="G75">
-        <v>1.530208333333333E-06</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>230.9777777777778</v>
+      </c>
+      <c r="H75">
+        <v>6.885937499999999E-07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>42810</v>
       </c>
@@ -2143,16 +2371,19 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>59.53840277777778</v>
+        <v>0.5953840277777779</v>
       </c>
       <c r="F76">
         <v>233.8869236111111</v>
       </c>
       <c r="G76">
-        <v>1.434259259259259E-06</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>211.1708333333333</v>
+      </c>
+      <c r="H76">
+        <v>6.454166666666667E-07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>42811</v>
       </c>
@@ -2166,16 +2397,19 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>36.24625</v>
+        <v>0.3624625</v>
       </c>
       <c r="F77">
         <v>298.6950138888889</v>
       </c>
       <c r="G77">
-        <v>1.311689814814815E-06</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>166.5972222222222</v>
+      </c>
+      <c r="H77">
+        <v>5.902604166666667E-07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>42812</v>
       </c>
@@ -2189,16 +2423,19 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>68.61534722222223</v>
+        <v>0.6861534722222222</v>
       </c>
       <c r="F78">
         <v>226.640625</v>
       </c>
       <c r="G78">
-        <v>1.304976851851852E-06</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>213.3291666666667</v>
+      </c>
+      <c r="H78">
+        <v>5.872395833333333E-07</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>42813</v>
       </c>
@@ -2212,16 +2449,19 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>53.41965277777778</v>
+        <v>0.5341965277777778</v>
       </c>
       <c r="F79">
         <v>291.6929097222222</v>
       </c>
       <c r="G79">
-        <v>1.325462962962963E-06</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>210.0604166666667</v>
+      </c>
+      <c r="H79">
+        <v>5.964583333333333E-07</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>42814</v>
       </c>
@@ -2235,16 +2475,19 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>66.63104166666668</v>
+        <v>0.6663104166666668</v>
       </c>
       <c r="F80">
         <v>189.8697916666667</v>
       </c>
       <c r="G80">
-        <v>1.344097222222222E-06</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>217.8833333333333</v>
+      </c>
+      <c r="H80">
+        <v>6.0484375E-07</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>42815</v>
       </c>
@@ -2258,16 +2501,19 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>79.98458333333333</v>
+        <v>0.7998458333333334</v>
       </c>
       <c r="F81">
         <v>167.3167777777778</v>
       </c>
       <c r="G81">
-        <v>1.694444444444444E-06</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>250.3027777777778</v>
+      </c>
+      <c r="H81">
+        <v>7.625E-07</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>42816</v>
       </c>
@@ -2281,16 +2527,19 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>60.62243055555555</v>
+        <v>0.6062243055555555</v>
       </c>
       <c r="F82">
         <v>225.5749166666667</v>
       </c>
       <c r="G82">
-        <v>1.685185185185185E-06</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>219.6756944444444</v>
+      </c>
+      <c r="H82">
+        <v>7.583333333333333E-07</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>42817</v>
       </c>
@@ -2304,16 +2553,19 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>53.48847222222222</v>
+        <v>0.5348847222222222</v>
       </c>
       <c r="F83">
         <v>292.8958611111111</v>
       </c>
       <c r="G83">
-        <v>1.651967592592592E-06</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>199.0006944444444</v>
+      </c>
+      <c r="H83">
+        <v>7.433854166666666E-07</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>42818</v>
       </c>
@@ -2327,16 +2579,19 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>54.484375</v>
+        <v>0.54484375</v>
       </c>
       <c r="F84">
         <v>304.2133611111111</v>
       </c>
       <c r="G84">
-        <v>1.597222222222222E-06</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>157.4708333333333</v>
+      </c>
+      <c r="H84">
+        <v>7.1875E-07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>42819</v>
       </c>
@@ -2350,16 +2605,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>34.09972222222222</v>
+        <v>0.3409972222222222</v>
       </c>
       <c r="F85">
         <v>319.6134513888889</v>
       </c>
       <c r="G85">
-        <v>1.746296296296296E-06</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>135.075</v>
+      </c>
+      <c r="H85">
+        <v>7.858333333333333E-07</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>42820</v>
       </c>
@@ -2373,16 +2631,19 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>21.57847222222222</v>
+        <v>0.2157847222222223</v>
       </c>
       <c r="F86">
         <v>312.9739097222222</v>
       </c>
       <c r="G86">
-        <v>1.658449074074074E-06</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>162.8097222222222</v>
+      </c>
+      <c r="H86">
+        <v>7.463020833333333E-07</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>42821</v>
       </c>
@@ -2396,16 +2657,19 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>31.87951388888889</v>
+        <v>0.3187951388888889</v>
       </c>
       <c r="F87">
         <v>320.0290555555555</v>
       </c>
       <c r="G87">
-        <v>1.444097222222222E-06</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>187.8465277777778</v>
+      </c>
+      <c r="H87">
+        <v>6.4984375E-07</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>42822</v>
       </c>
@@ -2419,16 +2683,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E88">
-        <v>40.58868055555556</v>
+        <v>0.4058868055555556</v>
       </c>
       <c r="F88">
         <v>263.7464583333333</v>
       </c>
       <c r="G88">
-        <v>1.367939814814815E-06</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>221.1729166666667</v>
+      </c>
+      <c r="H88">
+        <v>6.155729166666667E-07</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>42823</v>
       </c>
@@ -2442,16 +2709,19 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>78.96208333333334</v>
+        <v>0.7896208333333334</v>
       </c>
       <c r="F89">
         <v>155.8584652777778</v>
       </c>
       <c r="G89">
-        <v>1.514236111111111E-06</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>255.0277777777778</v>
+      </c>
+      <c r="H89">
+        <v>6.8140625E-07</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>42824</v>
       </c>
@@ -2465,16 +2735,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E90">
-        <v>67.27736111111112</v>
+        <v>0.6727736111111112</v>
       </c>
       <c r="F90">
         <v>329.1127569444445</v>
       </c>
       <c r="G90">
-        <v>1.365046296296296E-06</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>205.0048611111111</v>
+      </c>
+      <c r="H90">
+        <v>6.142708333333334E-07</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>42825</v>
       </c>
@@ -2488,16 +2761,19 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>35.66451388888888</v>
+        <v>0.3566451388888888</v>
       </c>
       <c r="F91">
         <v>331.5905694444444</v>
       </c>
       <c r="G91">
-        <v>1.35462962962963E-06</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>159.2409722222222</v>
+      </c>
+      <c r="H91">
+        <v>6.095833333333334E-07</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>42826</v>
       </c>
@@ -2511,16 +2787,19 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>25.314375</v>
+        <v>0.25314375</v>
       </c>
       <c r="F92">
         <v>313.4929166666667</v>
       </c>
       <c r="G92">
-        <v>1.30474537037037E-06</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>189.0277777777778</v>
+      </c>
+      <c r="H92">
+        <v>5.871354166666666E-07</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>42827</v>
       </c>
@@ -2534,16 +2813,19 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>38.06895833333333</v>
+        <v>0.3806895833333334</v>
       </c>
       <c r="F93">
         <v>226.3860763888889</v>
       </c>
       <c r="G93">
-        <v>1.122222222222222E-06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>242.4020833333333</v>
+      </c>
+      <c r="H93">
+        <v>5.05E-07</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>42828</v>
       </c>
@@ -2557,16 +2839,19 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E94">
-        <v>86.54215277777777</v>
+        <v>0.8654215277777777</v>
       </c>
       <c r="F94">
         <v>176.4659861111111</v>
       </c>
       <c r="G94">
-        <v>1.688425925925926E-06</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>283.0222222222222</v>
+      </c>
+      <c r="H94">
+        <v>7.597916666666667E-07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
         <v>42829</v>
       </c>
@@ -2580,16 +2865,19 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>64.81680555555556</v>
+        <v>0.6481680555555556</v>
       </c>
       <c r="F95">
         <v>284.7234722222222</v>
       </c>
       <c r="G95">
-        <v>1.498611111111111E-06</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>243.2159722222222</v>
+      </c>
+      <c r="H95">
+        <v>6.74375E-07</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>42830</v>
       </c>
@@ -2603,16 +2891,19 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>47.73319444444444</v>
+        <v>0.4773319444444444</v>
       </c>
       <c r="F96">
         <v>293.2007986111111</v>
       </c>
       <c r="G96">
-        <v>1.298263888888889E-06</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>206.1409722222222</v>
+      </c>
+      <c r="H96">
+        <v>5.8421875E-07</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>42831</v>
       </c>
@@ -2626,16 +2917,19 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>34.91506944444445</v>
+        <v>0.3491506944444445</v>
       </c>
       <c r="F97">
         <v>256.6387361111111</v>
       </c>
       <c r="G97">
-        <v>1.163657407407408E-06</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>232.7569444444445</v>
+      </c>
+      <c r="H97">
+        <v>5.236458333333334E-07</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>42832</v>
       </c>
@@ -2649,16 +2943,19 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>79.8429861111111</v>
+        <v>0.798429861111111</v>
       </c>
       <c r="F98">
         <v>135.8738888888889</v>
       </c>
       <c r="G98">
-        <v>1.028587962962963E-06</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>271.7972222222222</v>
+      </c>
+      <c r="H98">
+        <v>4.628645833333334E-07</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="2">
         <v>42833</v>
       </c>
@@ -2672,16 +2969,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E99">
-        <v>91.9701388888889</v>
+        <v>0.919701388888889</v>
       </c>
       <c r="F99">
         <v>129.9277013888889</v>
       </c>
       <c r="G99">
-        <v>9.922453703703703E-07</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>299.3902777777778</v>
+      </c>
+      <c r="H99">
+        <v>4.465104166666667E-07</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
         <v>42834</v>
       </c>
@@ -2695,16 +2995,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E100">
-        <v>92.62083333333334</v>
+        <v>0.9262083333333334</v>
       </c>
       <c r="F100">
         <v>131.3635763888889</v>
       </c>
       <c r="G100">
-        <v>9.898148148148148E-07</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>291.4680555555556</v>
+      </c>
+      <c r="H100">
+        <v>4.454166666666667E-07</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
         <v>42835</v>
       </c>
@@ -2718,16 +3021,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E101">
-        <v>88.39583333333333</v>
+        <v>0.8839583333333333</v>
       </c>
       <c r="F101">
         <v>295.4393402777778</v>
       </c>
       <c r="G101">
-        <v>1.188541666666667E-06</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>266.4520833333333</v>
+      </c>
+      <c r="H101">
+        <v>5.3484375E-07</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
         <v>42836</v>
       </c>
@@ -2741,16 +3047,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E102">
-        <v>81.84041666666667</v>
+        <v>0.8184041666666667</v>
       </c>
       <c r="F102">
         <v>201.8408958333333</v>
       </c>
       <c r="G102">
-        <v>1.401388888888889E-06</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>261.0055555555556</v>
+      </c>
+      <c r="H102">
+        <v>6.306249999999999E-07</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
         <v>42837</v>
       </c>
@@ -2764,16 +3073,19 @@
         <v>1.273148148148148E-07</v>
       </c>
       <c r="E103">
-        <v>65.70576388888888</v>
+        <v>0.6570576388888888</v>
       </c>
       <c r="F103">
         <v>220.9747986111111</v>
       </c>
       <c r="G103">
-        <v>1.793981481481481E-06</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>236.5020833333334</v>
+      </c>
+      <c r="H103">
+        <v>8.072916666666666E-07</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
         <v>42838</v>
       </c>
@@ -2787,16 +3099,19 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>52.19534722222222</v>
+        <v>0.5219534722222222</v>
       </c>
       <c r="F104">
         <v>195.8035416666667</v>
       </c>
       <c r="G104">
-        <v>1.455671296296296E-06</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>218.2215277777778</v>
+      </c>
+      <c r="H104">
+        <v>6.550520833333333E-07</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="2">
         <v>42839</v>
       </c>
@@ -2810,16 +3125,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E105">
-        <v>59.18361111111111</v>
+        <v>0.5918361111111111</v>
       </c>
       <c r="F105">
         <v>215.2865972222222</v>
       </c>
       <c r="G105">
-        <v>1.331481481481482E-06</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>246.1854166666666</v>
+      </c>
+      <c r="H105">
+        <v>5.991666666666666E-07</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="2">
         <v>42840</v>
       </c>
@@ -2833,16 +3151,19 @@
         <v>1.62037037037037E-08</v>
       </c>
       <c r="E106">
-        <v>91.20347222222222</v>
+        <v>0.9120347222222221</v>
       </c>
       <c r="F106">
         <v>275.9673472222223</v>
       </c>
       <c r="G106">
-        <v>1.888773148148148E-06</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>276.0020833333334</v>
+      </c>
+      <c r="H106">
+        <v>8.499479166666667E-07</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="2">
         <v>42841</v>
       </c>
@@ -2856,16 +3177,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E107">
-        <v>60.77263888888889</v>
+        <v>0.607726388888889</v>
       </c>
       <c r="F107">
         <v>373.5025555555555</v>
       </c>
       <c r="G107">
-        <v>2.083796296296296E-06</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>207.0770833333333</v>
+      </c>
+      <c r="H107">
+        <v>9.377083333333333E-07</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="2">
         <v>42842</v>
       </c>
@@ -2879,16 +3203,19 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>43.3025</v>
+        <v>0.433025</v>
       </c>
       <c r="F108">
         <v>331.4672222222222</v>
       </c>
       <c r="G108">
-        <v>1.78125E-06</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>219.7090277777778</v>
+      </c>
+      <c r="H108">
+        <v>8.015625E-07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="2">
         <v>42843</v>
       </c>
@@ -2902,16 +3229,19 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>55.23708333333334</v>
+        <v>0.5523708333333334</v>
       </c>
       <c r="F109">
         <v>236.9574444444445</v>
       </c>
       <c r="G109">
-        <v>1.536226851851852E-06</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>261.6013888888889</v>
+      </c>
+      <c r="H109">
+        <v>6.913020833333333E-07</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="2">
         <v>42844</v>
       </c>
@@ -2925,16 +3255,19 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>86.58881944444445</v>
+        <v>0.8658881944444445</v>
       </c>
       <c r="F110">
         <v>308.2244444444444</v>
       </c>
       <c r="G110">
-        <v>1.455439814814815E-06</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>245.0381944444445</v>
+      </c>
+      <c r="H110">
+        <v>6.549479166666666E-07</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="2">
         <v>42845</v>
       </c>
@@ -2948,16 +3281,19 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>44.98291666666667</v>
+        <v>0.4498291666666667</v>
       </c>
       <c r="F111">
         <v>352.3844791666667</v>
       </c>
       <c r="G111">
-        <v>1.491087962962963E-06</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>186.6513888888889</v>
+      </c>
+      <c r="H111">
+        <v>6.709895833333333E-07</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="2">
         <v>42846</v>
       </c>
@@ -2971,16 +3307,19 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>67.94861111111112</v>
+        <v>0.6794861111111112</v>
       </c>
       <c r="F112">
         <v>250.0336111111111</v>
       </c>
       <c r="G112">
-        <v>1.470833333333333E-06</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>242.4861111111111</v>
+      </c>
+      <c r="H112">
+        <v>6.61875E-07</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="2">
         <v>42847</v>
       </c>
@@ -2994,16 +3333,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E113">
-        <v>55.85013888888889</v>
+        <v>0.5585013888888889</v>
       </c>
       <c r="F113">
         <v>362.1805208333333</v>
       </c>
       <c r="G113">
-        <v>1.409375E-06</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>197.3736111111111</v>
+      </c>
+      <c r="H113">
+        <v>6.3421875E-07</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="2">
         <v>42848</v>
       </c>
@@ -3017,16 +3359,19 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>48.05680555555556</v>
+        <v>0.4805680555555555</v>
       </c>
       <c r="F114">
         <v>323.039625</v>
       </c>
       <c r="G114">
-        <v>1.361689814814815E-06</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>212.4875</v>
+      </c>
+      <c r="H114">
+        <v>6.127604166666667E-07</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="2">
         <v>42849</v>
       </c>
@@ -3040,16 +3385,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E115">
-        <v>70.89916666666666</v>
+        <v>0.7089916666666666</v>
       </c>
       <c r="F115">
         <v>207.0739722222222</v>
       </c>
       <c r="G115">
-        <v>1.388888888888889E-06</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>266.1736111111111</v>
+      </c>
+      <c r="H115">
+        <v>6.249999999999999E-07</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
         <v>42850</v>
       </c>
@@ -3063,16 +3411,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E116">
-        <v>92.72499999999999</v>
+        <v>0.9272499999999999</v>
       </c>
       <c r="F116">
         <v>233.4965555555556</v>
       </c>
       <c r="G116">
-        <v>1.415393518518518E-06</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>281.9569444444444</v>
+      </c>
+      <c r="H116">
+        <v>6.369270833333333E-07</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="2">
         <v>42851</v>
       </c>
@@ -3086,16 +3437,19 @@
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E117">
-        <v>88.42833333333334</v>
+        <v>0.8842833333333334</v>
       </c>
       <c r="F117">
         <v>234.3052777777778</v>
       </c>
       <c r="G117">
-        <v>1.790393518518518E-06</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>282.9618055555555</v>
+      </c>
+      <c r="H117">
+        <v>8.056770833333333E-07</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="2">
         <v>42852</v>
       </c>
@@ -3109,16 +3463,19 @@
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E118">
-        <v>90.08374999999999</v>
+        <v>0.9008375</v>
       </c>
       <c r="F118">
         <v>263.2263194444444</v>
       </c>
       <c r="G118">
-        <v>2.238888888888889E-06</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>274.6986111111111</v>
+      </c>
+      <c r="H118">
+        <v>1.0075E-06</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="2">
         <v>42853</v>
       </c>
@@ -3132,16 +3489,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E119">
-        <v>81.86944444444445</v>
+        <v>0.8186944444444445</v>
       </c>
       <c r="F119">
         <v>308.5804166666667</v>
       </c>
       <c r="G119">
-        <v>2.189699074074074E-06</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>271.0944444444444</v>
+      </c>
+      <c r="H119">
+        <v>9.853645833333334E-07</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="2">
         <v>42854</v>
       </c>
@@ -3155,16 +3515,19 @@
         <v>2.777777777777778E-08</v>
       </c>
       <c r="E120">
-        <v>87.68875</v>
+        <v>0.8768875</v>
       </c>
       <c r="F120">
         <v>235.4447916666667</v>
       </c>
       <c r="G120">
-        <v>2.329513888888889E-06</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>283.6423611111111</v>
+      </c>
+      <c r="H120">
+        <v>1.04828125E-06</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="2">
         <v>42855</v>
       </c>
@@ -3178,16 +3541,19 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E121">
-        <v>89.76611111111112</v>
+        <v>0.8976611111111111</v>
       </c>
       <c r="F121">
         <v>268.0682777777778</v>
       </c>
       <c r="G121">
-        <v>2.439467592592593E-06</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>268.9208333333333</v>
+      </c>
+      <c r="H121">
+        <v>1.097760416666667E-06</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="2">
         <v>42856</v>
       </c>
@@ -3201,16 +3567,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E122">
-        <v>77.02548611111111</v>
+        <v>0.7702548611111111</v>
       </c>
       <c r="F122">
         <v>321.578625</v>
       </c>
       <c r="G122">
-        <v>2.105787037037037E-06</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>279.6298611111111</v>
+      </c>
+      <c r="H122">
+        <v>9.476041666666666E-07</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="2">
         <v>42857</v>
       </c>
@@ -3224,16 +3593,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E123">
-        <v>92.69166666666666</v>
+        <v>0.9269166666666666</v>
       </c>
       <c r="F123">
         <v>181.4484722222222</v>
       </c>
       <c r="G123">
-        <v>2.914930555555556E-06</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>287.8465277777778</v>
+      </c>
+      <c r="H123">
+        <v>1.31171875E-06</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="2">
         <v>42858</v>
       </c>
@@ -3247,16 +3619,19 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>64.37027777777777</v>
+        <v>0.6437027777777777</v>
       </c>
       <c r="F124">
         <v>368.6195</v>
       </c>
       <c r="G124">
-        <v>2.757060185185185E-06</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>222.6493055555555</v>
+      </c>
+      <c r="H124">
+        <v>1.240677083333333E-06</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="2">
         <v>42859</v>
       </c>
@@ -3270,16 +3645,19 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>48.59444444444445</v>
+        <v>0.4859444444444445</v>
       </c>
       <c r="F125">
         <v>257.5602569444445</v>
       </c>
       <c r="G125">
-        <v>2.451273148148148E-06</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>214.2118055555555</v>
+      </c>
+      <c r="H125">
+        <v>1.103072916666667E-06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="2">
         <v>42860</v>
       </c>
@@ -3293,16 +3671,19 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>53.17131944444444</v>
+        <v>0.5317131944444444</v>
       </c>
       <c r="F126">
         <v>371.2181458333333</v>
       </c>
       <c r="G126">
-        <v>2.207060185185185E-06</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>209.8118055555556</v>
+      </c>
+      <c r="H126">
+        <v>9.931770833333334E-07</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="2">
         <v>42861</v>
       </c>
@@ -3316,16 +3697,19 @@
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E127">
-        <v>79.91048611111111</v>
+        <v>0.7991048611111111</v>
       </c>
       <c r="F127">
         <v>287.2508472222223</v>
       </c>
       <c r="G127">
-        <v>2.268518518518518E-06</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>280.3125</v>
+      </c>
+      <c r="H127">
+        <v>1.020833333333333E-06</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="2">
         <v>42862</v>
       </c>
@@ -3339,16 +3723,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E128">
-        <v>73.09465277777777</v>
+        <v>0.7309465277777777</v>
       </c>
       <c r="F128">
         <v>387.7215833333333</v>
       </c>
       <c r="G128">
-        <v>3.140625E-06</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>230.5548611111111</v>
+      </c>
+      <c r="H128">
+        <v>1.41328125E-06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="2">
         <v>42863</v>
       </c>
@@ -3362,16 +3749,19 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>59.29208333333333</v>
+        <v>0.5929208333333333</v>
       </c>
       <c r="F129">
         <v>319.0195138888889</v>
       </c>
       <c r="G129">
-        <v>3.184375E-06</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>229.7805555555556</v>
+      </c>
+      <c r="H129">
+        <v>1.43296875E-06</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="2">
         <v>42864</v>
       </c>
@@ -3385,16 +3775,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E130">
-        <v>77.62534722222222</v>
+        <v>0.7762534722222222</v>
       </c>
       <c r="F130">
         <v>321.3820833333333</v>
       </c>
       <c r="G130">
-        <v>3.028124999999999E-06</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>263.7993055555555</v>
+      </c>
+      <c r="H130">
+        <v>1.36265625E-06</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="2">
         <v>42865</v>
       </c>
@@ -3408,16 +3801,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E131">
-        <v>84.07993055555556</v>
+        <v>0.8407993055555556</v>
       </c>
       <c r="F131">
         <v>200.5245416666667</v>
       </c>
       <c r="G131">
-        <v>2.898379629629629E-06</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>285.0888888888889</v>
+      </c>
+      <c r="H131">
+        <v>1.304270833333333E-06</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="2">
         <v>42866</v>
       </c>
@@ -3431,16 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>63.54625</v>
+        <v>0.6354625</v>
       </c>
       <c r="F132">
         <v>371.6969444444445</v>
       </c>
       <c r="G132">
-        <v>2.959606481481482E-06</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>216.4180555555556</v>
+      </c>
+      <c r="H132">
+        <v>1.331822916666667E-06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="2">
         <v>42867</v>
       </c>
@@ -3454,16 +3853,19 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>42.90902777777777</v>
+        <v>0.4290902777777778</v>
       </c>
       <c r="F133">
         <v>386.4959305555556</v>
       </c>
       <c r="G133">
-        <v>2.448611111111111E-06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>226.20625</v>
+      </c>
+      <c r="H133">
+        <v>1.101875E-06</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="2">
         <v>42868</v>
       </c>
@@ -3477,16 +3879,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E134">
-        <v>82.39958333333334</v>
+        <v>0.8239958333333334</v>
       </c>
       <c r="F134">
         <v>137.9861875</v>
       </c>
       <c r="G134">
-        <v>2.349537037037037E-06</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>287.5986111111111</v>
+      </c>
+      <c r="H134">
+        <v>1.057291666666667E-06</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="2">
         <v>42869</v>
       </c>
@@ -3500,16 +3905,19 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>81.433125</v>
+        <v>0.8143312500000001</v>
       </c>
       <c r="F135">
         <v>331.5432916666666</v>
       </c>
       <c r="G135">
-        <v>2.414351851851852E-06</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>263.5055555555556</v>
+      </c>
+      <c r="H135">
+        <v>1.086458333333333E-06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="2">
         <v>42870</v>
       </c>
@@ -3523,16 +3931,19 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>80.14409722222223</v>
+        <v>0.8014409722222223</v>
       </c>
       <c r="F136">
         <v>332.6815138888889</v>
       </c>
       <c r="G136">
-        <v>2.244212962962963E-06</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>255.4493055555555</v>
+      </c>
+      <c r="H136">
+        <v>1.009895833333333E-06</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="2">
         <v>42871</v>
       </c>
@@ -3546,16 +3957,19 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>71.43166666666667</v>
+        <v>0.7143166666666667</v>
       </c>
       <c r="F137">
         <v>249.4980416666667</v>
       </c>
       <c r="G137">
-        <v>2.052199074074074E-06</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>238.7256944444445</v>
+      </c>
+      <c r="H137">
+        <v>9.234895833333332E-07</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="2">
         <v>42872</v>
       </c>
@@ -3569,16 +3983,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E138">
-        <v>67.04847222222222</v>
+        <v>0.6704847222222221</v>
       </c>
       <c r="F138">
         <v>331.7215277777778</v>
       </c>
       <c r="G138">
-        <v>1.826736111111111E-06</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>251.5104166666667</v>
+      </c>
+      <c r="H138">
+        <v>8.2203125E-07</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="2">
         <v>42873</v>
       </c>
@@ -3592,16 +4009,19 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>34.62951388888889</v>
+        <v>0.3462951388888889</v>
       </c>
       <c r="F139">
         <v>403.8548125</v>
       </c>
       <c r="G139">
-        <v>1.326157407407407E-06</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>213.8194444444445</v>
+      </c>
+      <c r="H139">
+        <v>5.967708333333333E-07</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="2">
         <v>42874</v>
       </c>
@@ -3615,16 +4035,19 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>33.51069444444445</v>
+        <v>0.3351069444444444</v>
       </c>
       <c r="F140">
         <v>369.4063819444444</v>
       </c>
       <c r="G140">
-        <v>6.795138888888889E-07</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>242.1708333333333</v>
+      </c>
+      <c r="H140">
+        <v>3.0578125E-07</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="2">
         <v>42875</v>
       </c>
@@ -3638,16 +4061,19 @@
         <v>3.587962962962963E-08</v>
       </c>
       <c r="E141">
-        <v>57.30034722222222</v>
+        <v>0.5730034722222223</v>
       </c>
       <c r="F141">
         <v>239.9394444444444</v>
       </c>
       <c r="G141">
-        <v>2.572916666666667E-07</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>287.2951388888889</v>
+      </c>
+      <c r="H141">
+        <v>1.1578125E-07</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="2">
         <v>42876</v>
       </c>
@@ -3661,16 +4087,19 @@
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E142">
-        <v>93.44791666666667</v>
+        <v>0.9344791666666667</v>
       </c>
       <c r="F142">
         <v>255.0827361111111</v>
       </c>
       <c r="G142">
-        <v>1.421643518518518E-06</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>319.6743055555555</v>
+      </c>
+      <c r="H142">
+        <v>6.397395833333333E-07</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="2">
         <v>42877</v>
       </c>
@@ -3684,16 +4113,19 @@
         <v>8.101851851851853E-09</v>
       </c>
       <c r="E143">
-        <v>92.96826388888888</v>
+        <v>0.9296826388888888</v>
       </c>
       <c r="F143">
         <v>294.7614930555555</v>
       </c>
       <c r="G143">
-        <v>1.638425925925926E-06</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>296.6375</v>
+      </c>
+      <c r="H143">
+        <v>7.372916666666666E-07</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="2">
         <v>42878</v>
       </c>
@@ -3707,16 +4139,19 @@
         <v>1.157407407407407E-08</v>
       </c>
       <c r="E144">
-        <v>89.09097222222222</v>
+        <v>0.8909097222222222</v>
       </c>
       <c r="F144">
         <v>285.6416527777778</v>
       </c>
       <c r="G144">
-        <v>1.246875E-06</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>294.8805555555556</v>
+      </c>
+      <c r="H144">
+        <v>5.6109375E-07</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="2">
         <v>42879</v>
       </c>
@@ -3730,16 +4165,19 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>93.03437500000001</v>
+        <v>0.9303437500000001</v>
       </c>
       <c r="F145">
         <v>269.4023611111111</v>
       </c>
       <c r="G145">
-        <v>1.381365740740741E-06</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>287.1965277777778</v>
+      </c>
+      <c r="H145">
+        <v>6.216145833333333E-07</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="2">
         <v>42880</v>
       </c>
@@ -3753,16 +4191,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E146">
-        <v>68.74736111111112</v>
+        <v>0.6874736111111112</v>
       </c>
       <c r="F146">
         <v>401.8444722222222</v>
       </c>
       <c r="G146">
-        <v>1.18125E-06</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>236.6416666666667</v>
+      </c>
+      <c r="H146">
+        <v>5.315624999999999E-07</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="2">
         <v>42881</v>
       </c>
@@ -3776,16 +4217,19 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>47.32944444444444</v>
+        <v>0.4732944444444444</v>
       </c>
       <c r="F147">
         <v>408.8081319444444</v>
       </c>
       <c r="G147">
-        <v>8.692129629629629E-07</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>214.5569444444444</v>
+      </c>
+      <c r="H147">
+        <v>3.911458333333333E-07</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="2">
         <v>42882</v>
       </c>
@@ -3799,16 +4243,19 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>42.11875000000001</v>
+        <v>0.4211875</v>
       </c>
       <c r="F148">
         <v>379.3609375</v>
       </c>
       <c r="G148">
-        <v>4.398148148148148E-07</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>231.4138888888889</v>
+      </c>
+      <c r="H148">
+        <v>1.979166666666666E-07</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="2">
         <v>42883</v>
       </c>
@@ -3822,16 +4269,19 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>38.27972222222222</v>
+        <v>0.3827972222222222</v>
       </c>
       <c r="F149">
         <v>273.3565902777778</v>
       </c>
       <c r="G149">
-        <v>7.812499999999999E-08</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>278.6444444444444</v>
+      </c>
+      <c r="H149">
+        <v>3.515625E-08</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="2">
         <v>42884</v>
       </c>
@@ -3845,16 +4295,19 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>58.760625</v>
+        <v>0.58760625</v>
       </c>
       <c r="F150">
         <v>256.9715763888889</v>
       </c>
       <c r="G150">
-        <v>1.429398148148148E-07</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>280.7319444444445</v>
+      </c>
+      <c r="H150">
+        <v>6.432291666666666E-08</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="2">
         <v>42885</v>
       </c>
@@ -3868,16 +4321,19 @@
         <v>1.122685185185185E-07</v>
       </c>
       <c r="E151">
-        <v>78.11972222222222</v>
+        <v>0.7811972222222222</v>
       </c>
       <c r="F151">
         <v>339.3747083333333</v>
       </c>
       <c r="G151">
-        <v>4.609953703703703E-07</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>288.9208333333333</v>
+      </c>
+      <c r="H151">
+        <v>2.074479166666667E-07</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="2">
         <v>42886</v>
       </c>
@@ -3891,16 +4347,19 @@
         <v>2.314814814814815E-08</v>
       </c>
       <c r="E152">
-        <v>85.26118055555555</v>
+        <v>0.8526118055555556</v>
       </c>
       <c r="F152">
         <v>158.1908541666667</v>
       </c>
       <c r="G152">
-        <v>1.135416666666667E-07</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>303.7923611111111</v>
+      </c>
+      <c r="H152">
+        <v>5.109374999999999E-08</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="2">
         <v>42887</v>
       </c>
@@ -3914,16 +4373,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E153">
-        <v>65.85416666666667</v>
+        <v>0.6585416666666667</v>
       </c>
       <c r="F153">
         <v>254.9290069444445</v>
       </c>
       <c r="G153">
-        <v>8.125E-08</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>268.6805555555555</v>
+      </c>
+      <c r="H153">
+        <v>3.65625E-08</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="2">
         <v>42888</v>
       </c>
@@ -3937,16 +4399,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E154">
-        <v>81.21743055555555</v>
+        <v>0.8121743055555555</v>
       </c>
       <c r="F154">
         <v>87.97195138888888</v>
       </c>
       <c r="G154">
-        <v>5.138888888888889E-08</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>310.9527777777778</v>
+      </c>
+      <c r="H154">
+        <v>2.3125E-08</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="2">
         <v>42889</v>
       </c>
@@ -3960,16 +4425,19 @@
         <v>8.449074074074074E-08</v>
       </c>
       <c r="E155">
-        <v>95.03472222222223</v>
+        <v>0.9503472222222222</v>
       </c>
       <c r="F155">
         <v>218.6433472222222</v>
       </c>
       <c r="G155">
-        <v>3.494212962962963E-07</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>323.3673611111111</v>
+      </c>
+      <c r="H155">
+        <v>1.572395833333333E-07</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="2">
         <v>42890</v>
       </c>
@@ -3983,16 +4451,19 @@
         <v>1.273148148148148E-08</v>
       </c>
       <c r="E156">
-        <v>91.45819444444444</v>
+        <v>0.9145819444444444</v>
       </c>
       <c r="F156">
         <v>268.4005138888889</v>
       </c>
       <c r="G156">
-        <v>1.074884259259259E-06</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>304.1979166666667</v>
+      </c>
+      <c r="H156">
+        <v>4.836979166666666E-07</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="2">
         <v>42891</v>
       </c>
@@ -4006,16 +4477,19 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E157">
-        <v>86.56930555555556</v>
+        <v>0.8656930555555555</v>
       </c>
       <c r="F157">
         <v>282.5539722222222</v>
       </c>
       <c r="G157">
-        <v>1.452314814814815E-06</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>294.9041666666666</v>
+      </c>
+      <c r="H157">
+        <v>6.535416666666667E-07</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="2">
         <v>42892</v>
       </c>
@@ -4029,16 +4503,19 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>74.47284722222223</v>
+        <v>0.7447284722222223</v>
       </c>
       <c r="F158">
         <v>324.2178958333333</v>
       </c>
       <c r="G158">
-        <v>1.464351851851852E-06</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>251.7381944444445</v>
+      </c>
+      <c r="H158">
+        <v>6.589583333333333E-07</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="2">
         <v>42893</v>
       </c>
@@ -4052,16 +4529,19 @@
         <v>1.284722222222222E-07</v>
       </c>
       <c r="E159">
-        <v>84.50430555555556</v>
+        <v>0.8450430555555556</v>
       </c>
       <c r="F159">
         <v>226.1863055555556</v>
       </c>
       <c r="G159">
-        <v>1.574537037037037E-06</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>287.5458333333333</v>
+      </c>
+      <c r="H159">
+        <v>7.085416666666666E-07</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="2">
         <v>42894</v>
       </c>
@@ -4075,16 +4555,19 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>64.93861111111111</v>
+        <v>0.6493861111111111</v>
       </c>
       <c r="F160">
         <v>322.6802222222222</v>
       </c>
       <c r="G160">
-        <v>1.435648148148148E-06</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>268.9965277777778</v>
+      </c>
+      <c r="H160">
+        <v>6.460416666666666E-07</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="2">
         <v>42895</v>
       </c>
@@ -4098,16 +4581,19 @@
         <v>5.671296296296297E-08</v>
       </c>
       <c r="E161">
-        <v>73.13097222222223</v>
+        <v>0.7313097222222222</v>
       </c>
       <c r="F161">
         <v>320.4568125</v>
       </c>
       <c r="G161">
-        <v>1.718287037037037E-06</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>265.9263888888889</v>
+      </c>
+      <c r="H161">
+        <v>7.732291666666667E-07</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="2">
         <v>42896</v>
       </c>
@@ -4121,16 +4607,19 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>49.40041666666666</v>
+        <v>0.4940041666666666</v>
       </c>
       <c r="F162">
         <v>373.2445555555556</v>
       </c>
       <c r="G162">
-        <v>1.381365740740741E-06</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>236.09375</v>
+      </c>
+      <c r="H162">
+        <v>6.216145833333333E-07</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="2">
         <v>42897</v>
       </c>
@@ -4144,16 +4633,19 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>76.73701388888888</v>
+        <v>0.7673701388888888</v>
       </c>
       <c r="F163">
         <v>195.2772083333333</v>
       </c>
       <c r="G163">
-        <v>1.184143518518519E-06</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>285.7416666666667</v>
+      </c>
+      <c r="H163">
+        <v>5.328645833333333E-07</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="2">
         <v>42898</v>
       </c>
@@ -4167,16 +4659,19 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>63.49229166666666</v>
+        <v>0.6349229166666666</v>
       </c>
       <c r="F164">
         <v>315.0118819444444</v>
       </c>
       <c r="G164">
-        <v>8.692129629629629E-07</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>263.2020833333333</v>
+      </c>
+      <c r="H164">
+        <v>3.911458333333333E-07</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="2">
         <v>42899</v>
       </c>
@@ -4190,16 +4685,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E165">
-        <v>79.43708333333333</v>
+        <v>0.7943708333333334</v>
       </c>
       <c r="F165">
         <v>119.8817916666667</v>
       </c>
       <c r="G165">
-        <v>4.574074074074074E-07</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>315.8701388888889</v>
+      </c>
+      <c r="H165">
+        <v>2.058333333333333E-07</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="2">
         <v>42900</v>
       </c>
@@ -4213,16 +4711,19 @@
         <v>2.199074074074074E-08</v>
       </c>
       <c r="E166">
-        <v>81.69548611111111</v>
+        <v>0.816954861111111</v>
       </c>
       <c r="F166">
         <v>198.2942916666667</v>
       </c>
       <c r="G166">
-        <v>2.059027777777778E-07</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>312.2458333333333</v>
+      </c>
+      <c r="H166">
+        <v>9.265625E-08</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="2">
         <v>42901</v>
       </c>
@@ -4236,16 +4737,19 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>74.70777777777778</v>
+        <v>0.7470777777777777</v>
       </c>
       <c r="F167">
         <v>326.8103472222222</v>
       </c>
       <c r="G167">
-        <v>1.577546296296296E-07</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>273.5631944444444</v>
+      </c>
+      <c r="H167">
+        <v>7.098958333333332E-08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="2">
         <v>42902</v>
       </c>
@@ -4259,16 +4763,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E168">
-        <v>68.51694444444445</v>
+        <v>0.6851694444444445</v>
       </c>
       <c r="F168">
         <v>391.0692291666667</v>
       </c>
       <c r="G168">
-        <v>8.946759259259259E-08</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>263.5083333333333</v>
+      </c>
+      <c r="H168">
+        <v>4.026041666666666E-08</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="2">
         <v>42903</v>
       </c>
@@ -4282,16 +4789,19 @@
         <v>6.944444444444445E-09</v>
       </c>
       <c r="E169">
-        <v>66.8417361111111</v>
+        <v>0.6684173611111111</v>
       </c>
       <c r="F169">
         <v>193.5889930555555</v>
       </c>
       <c r="G169">
-        <v>2.199074074074074E-08</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>310.9159722222223</v>
+      </c>
+      <c r="H169">
+        <v>9.895833333333333E-09</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="2">
         <v>42904</v>
       </c>
@@ -4305,16 +4815,19 @@
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E170">
-        <v>79.51000000000001</v>
+        <v>0.7951</v>
       </c>
       <c r="F170">
         <v>288.3656944444444</v>
       </c>
       <c r="G170">
-        <v>3.298611111111111E-08</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>314.3305555555555</v>
+      </c>
+      <c r="H170">
+        <v>1.484375E-08</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="2">
         <v>42905</v>
       </c>
@@ -4328,16 +4841,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E171">
-        <v>72.21583333333334</v>
+        <v>0.7221583333333333</v>
       </c>
       <c r="F171">
         <v>299.3692916666666</v>
       </c>
       <c r="G171">
-        <v>2.141203703703704E-08</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>297.3013888888889</v>
+      </c>
+      <c r="H171">
+        <v>9.635416666666667E-09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="2">
         <v>42906</v>
       </c>
@@ -4351,16 +4867,19 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E172">
-        <v>83.77777777777777</v>
+        <v>0.8377777777777777</v>
       </c>
       <c r="F172">
         <v>193.9070486111111</v>
       </c>
       <c r="G172">
-        <v>5.545914351851852E-09</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>291.0506944444444</v>
+      </c>
+      <c r="H172">
+        <v>2.495661458333333E-09</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="2">
         <v>42907</v>
       </c>
@@ -4374,16 +4893,19 @@
         <v>2.083333333333333E-08</v>
       </c>
       <c r="E173">
-        <v>78.97020833333333</v>
+        <v>0.7897020833333334</v>
       </c>
       <c r="F173">
         <v>372.0174583333334</v>
       </c>
       <c r="G173">
-        <v>1.851851851851852E-08</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>282.1166666666667</v>
+      </c>
+      <c r="H173">
+        <v>8.333333333333334E-09</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="2">
         <v>42908</v>
       </c>
@@ -4397,16 +4919,19 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>63.86375</v>
+        <v>0.6386375</v>
       </c>
       <c r="F174">
         <v>397.8751319444444</v>
       </c>
       <c r="G174">
-        <v>2.652395833333333E-09</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>256.43125</v>
+      </c>
+      <c r="H174">
+        <v>1.193578125E-09</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="2">
         <v>42909</v>
       </c>
@@ -4420,16 +4945,19 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>71.49256944444444</v>
+        <v>0.7149256944444444</v>
       </c>
       <c r="F175">
         <v>387.0345277777778</v>
       </c>
       <c r="G175">
-        <v>2.893518518518518E-09</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>267.6326388888889</v>
+      </c>
+      <c r="H175">
+        <v>1.302083333333333E-09</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="2">
         <v>42910</v>
       </c>
@@ -4443,16 +4971,19 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>62.25618055555555</v>
+        <v>0.6225618055555555</v>
       </c>
       <c r="F176">
         <v>295.4209097222222</v>
       </c>
       <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>254.2305555555555</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="2">
         <v>42911</v>
       </c>
@@ -4466,16 +4997,19 @@
         <v>3.125000000000001E-08</v>
       </c>
       <c r="E177">
-        <v>79.95152777777778</v>
+        <v>0.7995152777777779</v>
       </c>
       <c r="F177">
         <v>271.4741319444445</v>
       </c>
       <c r="G177">
-        <v>9.641203703703705E-10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>294.0333333333334</v>
+      </c>
+      <c r="H177">
+        <v>4.338541666666667E-10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="2">
         <v>42912</v>
       </c>
@@ -4489,16 +5023,19 @@
         <v>1.157407407407407E-08</v>
       </c>
       <c r="E178">
-        <v>81.30659722222222</v>
+        <v>0.8130659722222222</v>
       </c>
       <c r="F178">
         <v>239.5143819444444</v>
       </c>
       <c r="G178">
-        <v>3.134641203703704E-09</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>308.7673611111111</v>
+      </c>
+      <c r="H178">
+        <v>1.410588541666667E-09</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="2">
         <v>42913</v>
       </c>
@@ -4512,16 +5049,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E179">
-        <v>77.54291666666667</v>
+        <v>0.7754291666666667</v>
       </c>
       <c r="F179">
         <v>286.6746458333333</v>
       </c>
       <c r="G179">
-        <v>3.134641203703704E-09</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>304.9125</v>
+      </c>
+      <c r="H179">
+        <v>1.410588541666667E-09</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="2">
         <v>42914</v>
       </c>
@@ -4535,16 +5075,19 @@
         <v>6.597222222222222E-08</v>
       </c>
       <c r="E180">
-        <v>81.11229166666666</v>
+        <v>0.8111229166666667</v>
       </c>
       <c r="F180">
         <v>157.2535972222222</v>
       </c>
       <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>312.5763888888889</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="2">
         <v>42915</v>
       </c>
@@ -4558,16 +5101,19 @@
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E181">
-        <v>72.81534722222221</v>
+        <v>0.7281534722222222</v>
       </c>
       <c r="F181">
         <v>269.7680694444444</v>
       </c>
       <c r="G181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>274.5333333333334</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="2">
         <v>42916</v>
       </c>
@@ -4581,16 +5127,19 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>52.39694444444444</v>
+        <v>0.5239694444444445</v>
       </c>
       <c r="F182">
         <v>417.003375</v>
       </c>
       <c r="G182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>251.7243055555556</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="2">
         <v>42917</v>
       </c>
@@ -4604,16 +5153,19 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>63.94284722222223</v>
+        <v>0.6394284722222223</v>
       </c>
       <c r="F183">
         <v>228.1325972222222</v>
       </c>
       <c r="G183">
-        <v>3.761574074074074E-08</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>299.5652777777778</v>
+      </c>
+      <c r="H183">
+        <v>1.692708333333333E-08</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="2">
         <v>42918</v>
       </c>
@@ -4627,16 +5179,19 @@
         <v>1.81712962962963E-07</v>
       </c>
       <c r="E184">
-        <v>88.69305555555555</v>
+        <v>0.8869305555555554</v>
       </c>
       <c r="F184">
         <v>87.53749305555556</v>
       </c>
       <c r="G184">
-        <v>1.420138888888889E-07</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>325.5243055555555</v>
+      </c>
+      <c r="H184">
+        <v>6.390625E-08</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="2">
         <v>42919</v>
       </c>
@@ -4650,16 +5205,19 @@
         <v>9.837962962962964E-08</v>
       </c>
       <c r="E185">
-        <v>80.02333333333334</v>
+        <v>0.8002333333333334</v>
       </c>
       <c r="F185">
         <v>236.8558125</v>
       </c>
       <c r="G185">
-        <v>1.489583333333333E-07</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>311.4729166666667</v>
+      </c>
+      <c r="H185">
+        <v>6.703124999999999E-08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="2">
         <v>42920</v>
       </c>
@@ -4673,16 +5231,19 @@
         <v>1.840277777777778E-07</v>
       </c>
       <c r="E186">
-        <v>83.495</v>
+        <v>0.8349500000000001</v>
       </c>
       <c r="F186">
         <v>196.7531111111111</v>
       </c>
       <c r="G186">
-        <v>1.487268518518518E-07</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>299.0472222222222</v>
+      </c>
+      <c r="H186">
+        <v>6.692708333333334E-08</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="2">
         <v>42921</v>
       </c>
@@ -4696,16 +5257,19 @@
         <v>6.481481481481482E-08</v>
       </c>
       <c r="E187">
-        <v>77.12770833333333</v>
+        <v>0.7712770833333333</v>
       </c>
       <c r="F187">
         <v>330.5544513888889</v>
       </c>
       <c r="G187">
-        <v>1.106481481481482E-07</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>293.5666666666667</v>
+      </c>
+      <c r="H187">
+        <v>4.979166666666667E-08</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="2">
         <v>42922</v>
       </c>
@@ -4719,16 +5283,19 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>59.56638888888889</v>
+        <v>0.5956638888888889</v>
       </c>
       <c r="F188">
         <v>404.3446597222222</v>
       </c>
       <c r="G188">
-        <v>9.259259259259259E-08</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>249.2625</v>
+      </c>
+      <c r="H188">
+        <v>4.166666666666667E-08</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="2">
         <v>42923</v>
       </c>
@@ -4742,16 +5309,19 @@
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E189">
-        <v>51.859375</v>
+        <v>0.51859375</v>
       </c>
       <c r="F189">
         <v>254.8437777777778</v>
       </c>
       <c r="G189">
-        <v>3.472222222222222E-08</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>299.41875</v>
+      </c>
+      <c r="H189">
+        <v>1.5625E-08</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="2">
         <v>42924</v>
       </c>
@@ -4765,16 +5335,19 @@
         <v>6.944444444444444E-08</v>
       </c>
       <c r="E190">
-        <v>77.79000000000001</v>
+        <v>0.7779</v>
       </c>
       <c r="F190">
         <v>230.5097777777778</v>
       </c>
       <c r="G190">
-        <v>2.090277777777778E-07</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>306.9090277777778</v>
+      </c>
+      <c r="H190">
+        <v>9.40625E-08</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="2">
         <v>42925</v>
       </c>
@@ -4788,16 +5361,19 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>53.67520833333333</v>
+        <v>0.5367520833333334</v>
       </c>
       <c r="F191">
         <v>341.7663472222222</v>
       </c>
       <c r="G191">
-        <v>8.460648148148147E-08</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>269.2076388888889</v>
+      </c>
+      <c r="H191">
+        <v>3.807291666666666E-08</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="2">
         <v>42926</v>
       </c>
@@ -4811,16 +5387,19 @@
         <v>1.620370370370371E-08</v>
       </c>
       <c r="E192">
-        <v>62.20256944444444</v>
+        <v>0.6220256944444444</v>
       </c>
       <c r="F192">
         <v>341.2057013888889</v>
       </c>
       <c r="G192">
-        <v>6.053240740740741E-08</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>264.6263888888889</v>
+      </c>
+      <c r="H192">
+        <v>2.723958333333333E-08</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="2">
         <v>42927</v>
       </c>
@@ -4834,16 +5413,19 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>51.56902777777778</v>
+        <v>0.5156902777777778</v>
       </c>
       <c r="F193">
         <v>363.7337083333334</v>
       </c>
       <c r="G193">
-        <v>6.030092592592592E-08</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>265.4354166666666</v>
+      </c>
+      <c r="H193">
+        <v>2.713541666666667E-08</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="2">
         <v>42928</v>
       </c>
@@ -4857,16 +5439,19 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>44.55284722222222</v>
+        <v>0.4455284722222222</v>
       </c>
       <c r="F194">
         <v>378.1096319444444</v>
       </c>
       <c r="G194">
-        <v>3.784722222222222E-08</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>266.0951388888889</v>
+      </c>
+      <c r="H194">
+        <v>1.703125E-08</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="2">
         <v>42929</v>
       </c>
@@ -4880,16 +5465,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E195">
-        <v>50.3225</v>
+        <v>0.503225</v>
       </c>
       <c r="F195">
         <v>242.7412430555556</v>
       </c>
       <c r="G195">
-        <v>5.208333333333333E-08</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>290.21875</v>
+      </c>
+      <c r="H195">
+        <v>2.34375E-08</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="2">
         <v>42930</v>
       </c>
@@ -4903,16 +5491,19 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>53.54493055555556</v>
+        <v>0.5354493055555556</v>
       </c>
       <c r="F196">
         <v>340.8744097222223</v>
       </c>
       <c r="G196">
-        <v>6.006944444444445E-08</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>283.2541666666667</v>
+      </c>
+      <c r="H196">
+        <v>2.703125E-08</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="2">
         <v>42931</v>
       </c>
@@ -4926,16 +5517,19 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>58.62173611111112</v>
+        <v>0.5862173611111112</v>
       </c>
       <c r="F197">
         <v>296.0598611111111</v>
       </c>
       <c r="G197">
-        <v>6.168981481481481E-08</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>292.9791666666667</v>
+      </c>
+      <c r="H197">
+        <v>2.776041666666666E-08</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="2">
         <v>42932</v>
       </c>
@@ -4949,16 +5543,19 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>50.194375</v>
+        <v>0.50194375</v>
       </c>
       <c r="F198">
         <v>390.9759652777777</v>
       </c>
       <c r="G198">
-        <v>5.092592592592593E-08</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>266.5125</v>
+      </c>
+      <c r="H198">
+        <v>2.291666666666667E-08</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="2">
         <v>42933</v>
       </c>
@@ -4972,16 +5569,19 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>53.68513888888889</v>
+        <v>0.5368513888888888</v>
       </c>
       <c r="F199">
         <v>391.2947083333333</v>
       </c>
       <c r="G199">
-        <v>7.256944444444445E-08</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>273.5805555555555</v>
+      </c>
+      <c r="H199">
+        <v>3.265625E-08</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="2">
         <v>42934</v>
       </c>
@@ -4995,16 +5595,19 @@
         <v>3.587962962962963E-08</v>
       </c>
       <c r="E200">
-        <v>66.04173611111111</v>
+        <v>0.660417361111111</v>
       </c>
       <c r="F200">
         <v>252.3340208333333</v>
       </c>
       <c r="G200">
-        <v>2.893518518518519E-08</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>307.0875</v>
+      </c>
+      <c r="H200">
+        <v>1.302083333333333E-08</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="2">
         <v>42935</v>
       </c>
@@ -5018,16 +5621,19 @@
         <v>1.006944444444444E-07</v>
       </c>
       <c r="E201">
-        <v>79.15340277777779</v>
+        <v>0.7915340277777778</v>
       </c>
       <c r="F201">
         <v>287.8865208333333</v>
       </c>
       <c r="G201">
-        <v>1.643518518518519E-08</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>318.0451388888889</v>
+      </c>
+      <c r="H201">
+        <v>7.395833333333333E-09</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="2">
         <v>42936</v>
       </c>
@@ -5041,16 +5647,19 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>86.54048611111111</v>
+        <v>0.865404861111111</v>
       </c>
       <c r="F202">
         <v>187.0458333333333</v>
       </c>
       <c r="G202">
-        <v>2.411261574074074E-09</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>346.4805555555556</v>
+      </c>
+      <c r="H202">
+        <v>1.085067708333333E-09</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="2">
         <v>42937</v>
       </c>
@@ -5064,16 +5673,19 @@
         <v>2.546296296296296E-08</v>
       </c>
       <c r="E203">
-        <v>81.81222222222222</v>
+        <v>0.8181222222222222</v>
       </c>
       <c r="F203">
         <v>186.0626944444444</v>
       </c>
       <c r="G203">
-        <v>9.886192129629629E-09</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>348.1104166666667</v>
+      </c>
+      <c r="H203">
+        <v>4.448786458333333E-09</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="2">
         <v>42938</v>
       </c>
@@ -5087,16 +5699,19 @@
         <v>2.372685185185185E-07</v>
       </c>
       <c r="E204">
-        <v>92.33368055555555</v>
+        <v>0.9233368055555554</v>
       </c>
       <c r="F204">
         <v>175.5944444444444</v>
       </c>
       <c r="G204">
-        <v>2.465277777777778E-08</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>360.7131944444444</v>
+      </c>
+      <c r="H204">
+        <v>1.109375E-08</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="2">
         <v>42939</v>
       </c>
@@ -5110,16 +5725,19 @@
         <v>1.956018518518518E-07</v>
       </c>
       <c r="E205">
-        <v>95.71319444444444</v>
+        <v>0.9571319444444444</v>
       </c>
       <c r="F205">
         <v>92.67640277777778</v>
       </c>
       <c r="G205">
-        <v>4.826388888888889E-08</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>353.2777777777778</v>
+      </c>
+      <c r="H205">
+        <v>2.171875E-08</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="2">
         <v>42940</v>
       </c>
@@ -5133,16 +5751,19 @@
         <v>4.166666666666667E-08</v>
       </c>
       <c r="E206">
-        <v>91.34999999999999</v>
+        <v>0.9135</v>
       </c>
       <c r="F206">
         <v>111.0117777777778</v>
       </c>
       <c r="G206">
-        <v>3.622685185185185E-08</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>342.0090277777778</v>
+      </c>
+      <c r="H206">
+        <v>1.630208333333333E-08</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="2">
         <v>42941</v>
       </c>
@@ -5156,16 +5777,19 @@
         <v>5.787037037037037E-08</v>
       </c>
       <c r="E207">
-        <v>88.19534722222221</v>
+        <v>0.8819534722222221</v>
       </c>
       <c r="F207">
         <v>281.3617916666666</v>
       </c>
       <c r="G207">
-        <v>8.298611111111111E-08</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>344.6972222222223</v>
+      </c>
+      <c r="H207">
+        <v>3.734375E-08</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="2">
         <v>42942</v>
       </c>
@@ -5179,16 +5803,19 @@
         <v>9.953703703703703E-08</v>
       </c>
       <c r="E208">
-        <v>84.86395833333333</v>
+        <v>0.8486395833333333</v>
       </c>
       <c r="F208">
         <v>60.46809027777778</v>
       </c>
       <c r="G208">
-        <v>8.819444444444445E-08</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>329.6659722222223</v>
+      </c>
+      <c r="H208">
+        <v>3.96875E-08</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="2">
         <v>42943</v>
       </c>
@@ -5202,16 +5829,19 @@
         <v>1.851851851851852E-08</v>
       </c>
       <c r="E209">
-        <v>88.20569444444443</v>
+        <v>0.8820569444444444</v>
       </c>
       <c r="F209">
         <v>201.71325</v>
       </c>
       <c r="G209">
-        <v>5.162037037037038E-08</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>318.8916666666667</v>
+      </c>
+      <c r="H209">
+        <v>2.322916666666667E-08</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="2">
         <v>42944</v>
       </c>
@@ -5225,16 +5855,19 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>64.66145833333333</v>
+        <v>0.6466145833333333</v>
       </c>
       <c r="F210">
         <v>350.8061319444444</v>
       </c>
       <c r="G210">
-        <v>5.56712962962963E-08</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>268.5569444444444</v>
+      </c>
+      <c r="H210">
+        <v>2.505208333333333E-08</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="2">
         <v>42945</v>
       </c>
@@ -5248,16 +5881,19 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>60.89506944444444</v>
+        <v>0.6089506944444444</v>
       </c>
       <c r="F211">
         <v>332.6808194444445</v>
       </c>
       <c r="G211">
-        <v>5.092592592592593E-08</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>287.24375</v>
+      </c>
+      <c r="H211">
+        <v>2.291666666666667E-08</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="2">
         <v>42946</v>
       </c>
@@ -5271,16 +5907,19 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>56.26319444444444</v>
+        <v>0.5626319444444444</v>
       </c>
       <c r="F212">
         <v>297.4360972222223</v>
       </c>
       <c r="G212">
-        <v>1.620370370370371E-08</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>266.8444444444444</v>
+      </c>
+      <c r="H212">
+        <v>7.291666666666667E-09</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="2">
         <v>42947</v>
       </c>
@@ -5294,16 +5933,19 @@
         <v>2.071759259259259E-07</v>
       </c>
       <c r="E213">
-        <v>79.85423611111111</v>
+        <v>0.7985423611111111</v>
       </c>
       <c r="F213">
         <v>135.5167222222222</v>
       </c>
       <c r="G213">
-        <v>2.291666666666667E-08</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>317.3923611111111</v>
+      </c>
+      <c r="H213">
+        <v>1.03125E-08</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="2">
         <v>42948</v>
       </c>
@@ -5317,16 +5959,19 @@
         <v>3.819444444444445E-08</v>
       </c>
       <c r="E214">
-        <v>93.80909722222222</v>
+        <v>0.9380909722222222</v>
       </c>
       <c r="F214">
         <v>131.2235</v>
       </c>
       <c r="G214">
-        <v>6.724537037037037E-08</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>331.2604166666667</v>
+      </c>
+      <c r="H214">
+        <v>3.026041666666667E-08</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="2">
         <v>42949</v>
       </c>
@@ -5340,16 +5985,19 @@
         <v>4.166666666666667E-08</v>
       </c>
       <c r="E215">
-        <v>75.68437499999999</v>
+        <v>0.7568437499999999</v>
       </c>
       <c r="F215">
         <v>353.5216666666667</v>
       </c>
       <c r="G215">
-        <v>7.349537037037037E-08</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>296.31875</v>
+      </c>
+      <c r="H215">
+        <v>3.307291666666667E-08</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="2">
         <v>42950</v>
       </c>
@@ -5363,16 +6011,19 @@
         <v>2.083333333333333E-08</v>
       </c>
       <c r="E216">
-        <v>81.37263888888889</v>
+        <v>0.8137263888888888</v>
       </c>
       <c r="F216">
         <v>239.2561875</v>
       </c>
       <c r="G216">
-        <v>6.701388888888889E-08</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>325.3729166666666</v>
+      </c>
+      <c r="H216">
+        <v>3.015625E-08</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="2">
         <v>42951</v>
       </c>
@@ -5386,16 +6037,19 @@
         <v>6.944444444444445E-09</v>
       </c>
       <c r="E217">
-        <v>77.17590277777778</v>
+        <v>0.7717590277777778</v>
       </c>
       <c r="F217">
         <v>361.3176944444444</v>
       </c>
       <c r="G217">
-        <v>7.013888888888889E-08</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>289.8180555555556</v>
+      </c>
+      <c r="H217">
+        <v>3.15625E-08</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="2">
         <v>42952</v>
       </c>
@@ -5409,16 +6063,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E218">
-        <v>74.38569444444445</v>
+        <v>0.7438569444444445</v>
       </c>
       <c r="F218">
         <v>313.7481666666666</v>
       </c>
       <c r="G218">
-        <v>2.604166666666666E-08</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>310.5909722222222</v>
+      </c>
+      <c r="H218">
+        <v>1.171875E-08</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="2">
         <v>42953</v>
       </c>
@@ -5432,16 +6089,19 @@
         <v>1.678240740740741E-07</v>
       </c>
       <c r="E219">
-        <v>91.01076388888889</v>
+        <v>0.9101076388888889</v>
       </c>
       <c r="F219">
         <v>52.55024305555555</v>
       </c>
       <c r="G219">
-        <v>3.564814814814814E-08</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>340.3138888888889</v>
+      </c>
+      <c r="H219">
+        <v>1.604166666666667E-08</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="2">
         <v>42954</v>
       </c>
@@ -5455,16 +6115,19 @@
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E220">
-        <v>77.22479166666668</v>
+        <v>0.7722479166666667</v>
       </c>
       <c r="F220">
         <v>326.085375</v>
       </c>
       <c r="G220">
-        <v>1.137731481481482E-07</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>292.1263888888889</v>
+      </c>
+      <c r="H220">
+        <v>5.119791666666666E-08</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="2">
         <v>42955</v>
       </c>
@@ -5478,16 +6141,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E221">
-        <v>71.61333333333333</v>
+        <v>0.7161333333333333</v>
       </c>
       <c r="F221">
         <v>282.1954236111112</v>
       </c>
       <c r="G221">
-        <v>1.726851851851852E-07</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>275.96875</v>
+      </c>
+      <c r="H221">
+        <v>7.770833333333333E-08</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="2">
         <v>42956</v>
       </c>
@@ -5501,16 +6167,19 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>61.11</v>
+        <v>0.6111</v>
       </c>
       <c r="F222">
         <v>304.877375</v>
       </c>
       <c r="G222">
-        <v>1.695601851851852E-07</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>261.5194444444444</v>
+      </c>
+      <c r="H222">
+        <v>7.630208333333333E-08</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="2">
         <v>42957</v>
       </c>
@@ -5524,16 +6193,19 @@
         <v>4.745370370370371E-08</v>
       </c>
       <c r="E223">
-        <v>78.10319444444445</v>
+        <v>0.7810319444444446</v>
       </c>
       <c r="F223">
         <v>221.9898263888889</v>
       </c>
       <c r="G223">
-        <v>1.502314814814815E-07</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>291.1381944444445</v>
+      </c>
+      <c r="H223">
+        <v>6.760416666666666E-08</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="2">
         <v>42958</v>
       </c>
@@ -5547,16 +6219,19 @@
         <v>9.259259259259259E-09</v>
       </c>
       <c r="E224">
-        <v>88.56861111111111</v>
+        <v>0.8856861111111111</v>
       </c>
       <c r="F224">
         <v>157.1549513888889</v>
       </c>
       <c r="G224">
-        <v>1.239583333333333E-07</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>327.0243055555555</v>
+      </c>
+      <c r="H224">
+        <v>5.578125E-08</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="2">
         <v>42959</v>
       </c>
@@ -5570,16 +6245,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E225">
-        <v>77.07895833333333</v>
+        <v>0.7707895833333334</v>
       </c>
       <c r="F225">
         <v>307.1148680555555</v>
       </c>
       <c r="G225">
-        <v>1.070601851851852E-07</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>300.125</v>
+      </c>
+      <c r="H225">
+        <v>4.817708333333333E-08</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="2">
         <v>42960</v>
       </c>
@@ -5593,16 +6271,19 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>63.27500000000001</v>
+        <v>0.63275</v>
       </c>
       <c r="F226">
         <v>357.5056041666667</v>
       </c>
       <c r="G226">
-        <v>9.374999999999999E-08</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>256.0472222222222</v>
+      </c>
+      <c r="H226">
+        <v>4.218749999999999E-08</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="2">
         <v>42961</v>
       </c>
@@ -5616,16 +6297,19 @@
         <v>6.134259259259259E-08</v>
       </c>
       <c r="E227">
-        <v>74.19833333333332</v>
+        <v>0.7419833333333332</v>
       </c>
       <c r="F227">
         <v>208.4954097222222</v>
       </c>
       <c r="G227">
-        <v>1.346064814814815E-07</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>313.4930555555555</v>
+      </c>
+      <c r="H227">
+        <v>6.057291666666666E-08</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="2">
         <v>42962</v>
       </c>
@@ -5639,16 +6323,19 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>63.144375</v>
+        <v>0.6314437500000001</v>
       </c>
       <c r="F228">
         <v>366.8322430555556</v>
       </c>
       <c r="G228">
-        <v>1.528935185185185E-07</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>261.0020833333334</v>
+      </c>
+      <c r="H228">
+        <v>6.880208333333333E-08</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="2">
         <v>42963</v>
       </c>
@@ -5662,16 +6349,19 @@
         <v>3.819444444444445E-08</v>
       </c>
       <c r="E229">
-        <v>74.816875</v>
+        <v>0.7481687499999999</v>
       </c>
       <c r="F229">
         <v>253.8314097222222</v>
       </c>
       <c r="G229">
-        <v>1.415509259259259E-07</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>311.3277777777778</v>
+      </c>
+      <c r="H229">
+        <v>6.369791666666666E-08</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="2">
         <v>42964</v>
       </c>
@@ -5685,16 +6375,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E230">
-        <v>90.9707638888889</v>
+        <v>0.9097076388888889</v>
       </c>
       <c r="F230">
         <v>124.1563958333333</v>
       </c>
       <c r="G230">
-        <v>1.47337962962963E-07</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>353.8125</v>
+      </c>
+      <c r="H230">
+        <v>6.630208333333333E-08</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="2">
         <v>42965</v>
       </c>
@@ -5708,16 +6401,19 @@
         <v>1.423611111111111E-07</v>
       </c>
       <c r="E231">
-        <v>86.18326388888889</v>
+        <v>0.8618326388888888</v>
       </c>
       <c r="F231">
         <v>262.4920208333334</v>
       </c>
       <c r="G231">
-        <v>1.346064814814815E-07</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>336.9673611111111</v>
+      </c>
+      <c r="H231">
+        <v>6.057291666666666E-08</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="2">
         <v>42966</v>
       </c>
@@ -5731,16 +6427,19 @@
         <v>1.608796296296296E-07</v>
       </c>
       <c r="E232">
-        <v>94.68263888888889</v>
+        <v>0.9468263888888889</v>
       </c>
       <c r="F232">
         <v>43.79476388888889</v>
       </c>
       <c r="G232">
-        <v>1.032407407407408E-07</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>357.0506944444444</v>
+      </c>
+      <c r="H232">
+        <v>4.645833333333333E-08</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="2">
         <v>42967</v>
       </c>
@@ -5754,16 +6453,19 @@
         <v>4.513888888888889E-08</v>
       </c>
       <c r="E233">
-        <v>90.05319444444444</v>
+        <v>0.9005319444444444</v>
       </c>
       <c r="F233">
         <v>278.6258333333333</v>
       </c>
       <c r="G233">
-        <v>1.427083333333334E-07</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>329.9527777777778</v>
+      </c>
+      <c r="H233">
+        <v>6.421875000000001E-08</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="2">
         <v>42968</v>
       </c>
@@ -5777,16 +6479,19 @@
         <v>2.465277777777778E-07</v>
       </c>
       <c r="E234">
-        <v>95.78194444444445</v>
+        <v>0.9578194444444444</v>
       </c>
       <c r="F234">
         <v>79.6615625</v>
       </c>
       <c r="G234">
-        <v>1.693287037037037E-07</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>350.2166666666666</v>
+      </c>
+      <c r="H234">
+        <v>7.619791666666667E-08</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="2">
         <v>42969</v>
       </c>
@@ -5800,16 +6505,19 @@
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E235">
-        <v>95.14305555555556</v>
+        <v>0.9514305555555557</v>
       </c>
       <c r="F235">
         <v>194.8437152777778</v>
       </c>
       <c r="G235">
-        <v>1.319444444444444E-07</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>330.8763888888889</v>
+      </c>
+      <c r="H235">
+        <v>5.9375E-08</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="2">
         <v>42970</v>
       </c>
@@ -5823,16 +6531,19 @@
         <v>6.018518518518519E-08</v>
       </c>
       <c r="E236">
-        <v>92.02729166666667</v>
+        <v>0.9202729166666667</v>
       </c>
       <c r="F236">
         <v>193.4575347222222</v>
       </c>
       <c r="G236">
-        <v>1.427083333333334E-07</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>334.5798611111111</v>
+      </c>
+      <c r="H236">
+        <v>6.421875000000001E-08</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="2">
         <v>42971</v>
       </c>
@@ -5846,16 +6557,19 @@
         <v>3.472222222222222E-08</v>
       </c>
       <c r="E237">
-        <v>90.24729166666667</v>
+        <v>0.9024729166666667</v>
       </c>
       <c r="F237">
         <v>149.9140416666667</v>
       </c>
       <c r="G237">
-        <v>1.820601851851852E-07</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>333.4333333333333</v>
+      </c>
+      <c r="H237">
+        <v>8.192708333333334E-08</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="2">
         <v>42972</v>
       </c>
@@ -5869,16 +6583,19 @@
         <v>6.365740740740741E-08</v>
       </c>
       <c r="E238">
-        <v>94.42777777777778</v>
+        <v>0.9442777777777778</v>
       </c>
       <c r="F238">
         <v>55.05088888888889</v>
       </c>
       <c r="G238">
-        <v>1.34837962962963E-07</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>328.8243055555556</v>
+      </c>
+      <c r="H238">
+        <v>6.067708333333333E-08</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="2">
         <v>42973</v>
       </c>
@@ -5892,16 +6609,19 @@
         <v>9.722222222222222E-08</v>
       </c>
       <c r="E239">
-        <v>94.08569444444444</v>
+        <v>0.9408569444444445</v>
       </c>
       <c r="F239">
         <v>136.8995972222222</v>
       </c>
       <c r="G239">
-        <v>1.239583333333333E-07</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>341.5013888888889</v>
+      </c>
+      <c r="H239">
+        <v>5.578125E-08</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="2">
         <v>42974</v>
       </c>
@@ -5915,16 +6635,19 @@
         <v>5.439814814814815E-08</v>
       </c>
       <c r="E240">
-        <v>96.54652777777778</v>
+        <v>0.9654652777777778</v>
       </c>
       <c r="F240">
         <v>99.2261388888889</v>
       </c>
       <c r="G240">
-        <v>1.197916666666667E-07</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>331.6166666666667</v>
+      </c>
+      <c r="H240">
+        <v>5.390625E-08</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="2">
         <v>42975</v>
       </c>
@@ -5938,16 +6661,19 @@
         <v>8.333333333333334E-08</v>
       </c>
       <c r="E241">
-        <v>95.02180555555555</v>
+        <v>0.9502180555555555</v>
       </c>
       <c r="F241">
         <v>63.93200694444445</v>
       </c>
       <c r="G241">
-        <v>1.324074074074074E-07</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>326.3263888888889</v>
+      </c>
+      <c r="H241">
+        <v>5.958333333333333E-08</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="2">
         <v>42976</v>
       </c>
@@ -5961,16 +6687,19 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E242">
-        <v>88.82222222222222</v>
+        <v>0.8882222222222222</v>
       </c>
       <c r="F242">
         <v>165.8285902777778</v>
       </c>
       <c r="G242">
-        <v>1.172453703703704E-07</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>323.6152777777777</v>
+      </c>
+      <c r="H242">
+        <v>5.276041666666666E-08</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="2">
         <v>42977</v>
       </c>
@@ -5984,16 +6713,19 @@
         <v>4.282407407407407E-08</v>
       </c>
       <c r="E243">
-        <v>76.888125</v>
+        <v>0.7688812500000001</v>
       </c>
       <c r="F243">
         <v>187.2399236111111</v>
       </c>
       <c r="G243">
-        <v>1.424768518518519E-07</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>294.0090277777778</v>
+      </c>
+      <c r="H243">
+        <v>6.411458333333332E-08</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="2">
         <v>42978</v>
       </c>
@@ -6007,16 +6739,19 @@
         <v>4.976851851851852E-08</v>
       </c>
       <c r="E244">
-        <v>85.07499999999999</v>
+        <v>0.8507499999999999</v>
       </c>
       <c r="F244">
         <v>203.7633333333333</v>
       </c>
       <c r="G244">
-        <v>1.427083333333334E-07</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>308.3555555555556</v>
+      </c>
+      <c r="H244">
+        <v>6.421875000000001E-08</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="2">
         <v>42979</v>
       </c>
@@ -6030,16 +6765,19 @@
         <v>3.587962962962963E-08</v>
       </c>
       <c r="E245">
-        <v>80.66576388888889</v>
+        <v>0.8066576388888889</v>
       </c>
       <c r="F245">
         <v>264.1477291666667</v>
       </c>
       <c r="G245">
-        <v>1.658564814814815E-07</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>306.6777777777777</v>
+      </c>
+      <c r="H245">
+        <v>7.463541666666667E-08</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="2">
         <v>42980</v>
       </c>
@@ -6053,16 +6791,19 @@
         <v>3.935185185185185E-08</v>
       </c>
       <c r="E246">
-        <v>92.36402777777778</v>
+        <v>0.9236402777777778</v>
       </c>
       <c r="F246">
         <v>137.5275833333334</v>
       </c>
       <c r="G246">
-        <v>1.277777777777778E-07</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>332.1652777777778</v>
+      </c>
+      <c r="H246">
+        <v>5.749999999999999E-08</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="2">
         <v>42981</v>
       </c>
@@ -6076,16 +6817,19 @@
         <v>4.861111111111111E-08</v>
       </c>
       <c r="E247">
-        <v>89.27138888888889</v>
+        <v>0.8927138888888889</v>
       </c>
       <c r="F247">
         <v>152.711875</v>
       </c>
       <c r="G247">
-        <v>1.533564814814815E-07</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>326.90625</v>
+      </c>
+      <c r="H247">
+        <v>6.901041666666666E-08</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="2">
         <v>42982</v>
       </c>
@@ -6099,16 +6843,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E248">
-        <v>95.85902777777778</v>
+        <v>0.9585902777777778</v>
       </c>
       <c r="F248">
         <v>170.7576597222222</v>
       </c>
       <c r="G248">
-        <v>8.731481481481481E-07</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>308.1</v>
+      </c>
+      <c r="H248">
+        <v>3.929166666666666E-07</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="2">
         <v>42983</v>
       </c>
@@ -6122,16 +6869,19 @@
         <v>1.388888888888889E-08</v>
       </c>
       <c r="E249">
-        <v>92.62305555555555</v>
+        <v>0.9262305555555556</v>
       </c>
       <c r="F249">
         <v>230.9890972222222</v>
       </c>
       <c r="G249">
-        <v>7.863425925925926E-07</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>264.7444444444444</v>
+      </c>
+      <c r="H249">
+        <v>3.538541666666666E-07</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="2">
         <v>42984</v>
       </c>
@@ -6145,16 +6895,19 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>40.87854166666667</v>
+        <v>0.4087854166666667</v>
       </c>
       <c r="F250">
         <v>333.6332013888889</v>
       </c>
       <c r="G250">
-        <v>4.796296296296296E-07</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>207.775</v>
+      </c>
+      <c r="H250">
+        <v>2.158333333333333E-07</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="2">
         <v>42985</v>
       </c>
@@ -6168,16 +6921,19 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>65.67430555555556</v>
+        <v>0.6567430555555557</v>
       </c>
       <c r="F251">
         <v>187.8126666666667</v>
       </c>
       <c r="G251">
-        <v>1.982638888888889E-07</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>264.6555555555556</v>
+      </c>
+      <c r="H251">
+        <v>8.921874999999999E-08</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="2">
         <v>42986</v>
       </c>
@@ -6191,16 +6947,19 @@
         <v>1.851851851851852E-08</v>
       </c>
       <c r="E252">
-        <v>89.78923611111111</v>
+        <v>0.897892361111111</v>
       </c>
       <c r="F252">
         <v>126.3801597222222</v>
       </c>
       <c r="G252">
-        <v>7.453703703703705E-08</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>321.5465277777778</v>
+      </c>
+      <c r="H252">
+        <v>3.354166666666667E-08</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="2">
         <v>42987</v>
       </c>
@@ -6214,16 +6973,19 @@
         <v>1.041666666666667E-08</v>
       </c>
       <c r="E253">
-        <v>92.21777777777778</v>
+        <v>0.9221777777777779</v>
       </c>
       <c r="F253">
         <v>185.7032916666667</v>
       </c>
       <c r="G253">
-        <v>2.418981481481481E-07</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>300.6993055555556</v>
+      </c>
+      <c r="H253">
+        <v>1.088541666666667E-07</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="2">
         <v>42988</v>
       </c>
@@ -6237,16 +6999,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E254">
-        <v>69.67770833333333</v>
+        <v>0.6967770833333333</v>
       </c>
       <c r="F254">
         <v>305.9540833333333</v>
       </c>
       <c r="G254">
-        <v>1.292824074074074E-07</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>263.6361111111111</v>
+      </c>
+      <c r="H254">
+        <v>5.817708333333333E-08</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="2">
         <v>42989</v>
       </c>
@@ -6260,16 +7025,19 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>62.44534722222222</v>
+        <v>0.6244534722222221</v>
       </c>
       <c r="F255">
         <v>295.3639166666667</v>
       </c>
       <c r="G255">
-        <v>1.359953703703704E-07</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>254.5576388888889</v>
+      </c>
+      <c r="H255">
+        <v>6.119791666666667E-08</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="2">
         <v>42990</v>
       </c>
@@ -6283,16 +7051,19 @@
         <v>3.009259259259259E-08</v>
       </c>
       <c r="E256">
-        <v>71.52729166666667</v>
+        <v>0.7152729166666667</v>
       </c>
       <c r="F256">
         <v>231.1074166666667</v>
       </c>
       <c r="G256">
-        <v>1.190972222222222E-07</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>294.3597222222222</v>
+      </c>
+      <c r="H256">
+        <v>5.359375E-08</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="2">
         <v>42991</v>
       </c>
@@ -6306,16 +7077,19 @@
         <v>1.620370370370371E-08</v>
       </c>
       <c r="E257">
-        <v>95.09166666666667</v>
+        <v>0.9509166666666666</v>
       </c>
       <c r="F257">
         <v>109.2237430555555</v>
       </c>
       <c r="G257">
-        <v>1.709490740740741E-07</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>334.0548611111111</v>
+      </c>
+      <c r="H257">
+        <v>7.692708333333333E-08</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="2">
         <v>42992</v>
       </c>
@@ -6329,16 +7103,19 @@
         <v>7.98611111111111E-08</v>
       </c>
       <c r="E258">
-        <v>87.02097222222223</v>
+        <v>0.8702097222222223</v>
       </c>
       <c r="F258">
         <v>218.4469652777778</v>
       </c>
       <c r="G258">
-        <v>4.938657407407408E-07</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>302.8868055555556</v>
+      </c>
+      <c r="H258">
+        <v>2.222395833333333E-07</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="2">
         <v>42993</v>
       </c>
@@ -6352,16 +7129,19 @@
         <v>7.870370370370371E-08</v>
       </c>
       <c r="E259">
-        <v>92.2682638888889</v>
+        <v>0.9226826388888889</v>
       </c>
       <c r="F259">
         <v>146.7487638888889</v>
       </c>
       <c r="G259">
-        <v>1.953703703703704E-07</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>327.2076388888889</v>
+      </c>
+      <c r="H259">
+        <v>8.791666666666666E-08</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="2">
         <v>42994</v>
       </c>
@@ -6375,16 +7155,19 @@
         <v>4.976851851851852E-08</v>
       </c>
       <c r="E260">
-        <v>93.94229166666668</v>
+        <v>0.9394229166666668</v>
       </c>
       <c r="F260">
         <v>168.2754444444444</v>
       </c>
       <c r="G260">
-        <v>3.200231481481481E-07</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>311.3076388888889</v>
+      </c>
+      <c r="H260">
+        <v>1.440104166666667E-07</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="2">
         <v>42995</v>
       </c>
@@ -6398,16 +7181,19 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E261">
-        <v>96.56041666666665</v>
+        <v>0.9656041666666666</v>
       </c>
       <c r="F261">
         <v>81.77784722222222</v>
       </c>
       <c r="G261">
-        <v>2.020833333333333E-07</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>330.2305555555556</v>
+      </c>
+      <c r="H261">
+        <v>9.093749999999999E-08</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="2">
         <v>42996</v>
       </c>
@@ -6421,16 +7207,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E262">
-        <v>95.79791666666667</v>
+        <v>0.9579791666666666</v>
       </c>
       <c r="F262">
         <v>51.51920138888889</v>
       </c>
       <c r="G262">
-        <v>2.392361111111111E-07</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>326.2680555555555</v>
+      </c>
+      <c r="H262">
+        <v>1.0765625E-07</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="2">
         <v>42997</v>
       </c>
@@ -6444,16 +7233,19 @@
         <v>9.027777777777778E-08</v>
       </c>
       <c r="E263">
-        <v>89.45854166666668</v>
+        <v>0.8945854166666668</v>
       </c>
       <c r="F263">
         <v>166.16625</v>
       </c>
       <c r="G263">
-        <v>6.767361111111112E-07</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>326.0555555555555</v>
+      </c>
+      <c r="H263">
+        <v>3.0453125E-07</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="2">
         <v>42998</v>
       </c>
@@ -6467,16 +7259,19 @@
         <v>3.472222222222222E-08</v>
       </c>
       <c r="E264">
-        <v>86.8267361111111</v>
+        <v>0.868267361111111</v>
       </c>
       <c r="F264">
         <v>227.4929166666667</v>
       </c>
       <c r="G264">
-        <v>6.394675925925926E-07</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>283.1180555555555</v>
+      </c>
+      <c r="H264">
+        <v>2.877604166666667E-07</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="2">
         <v>42999</v>
       </c>
@@ -6490,16 +7285,19 @@
         <v>5.787037037037037E-09</v>
       </c>
       <c r="E265">
-        <v>70.32472222222222</v>
+        <v>0.7032472222222222</v>
       </c>
       <c r="F265">
         <v>261.9156597222222</v>
       </c>
       <c r="G265">
-        <v>2.106481481481482E-07</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>249.8243055555555</v>
+      </c>
+      <c r="H265">
+        <v>9.479166666666666E-08</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="2">
         <v>43000</v>
       </c>
@@ -6513,16 +7311,19 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>65.35055555555556</v>
+        <v>0.6535055555555556</v>
       </c>
       <c r="F266">
         <v>280.3644027777778</v>
       </c>
       <c r="G266">
-        <v>1.945601851851852E-07</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>232.5138888888889</v>
+      </c>
+      <c r="H266">
+        <v>8.755208333333332E-08</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="2">
         <v>43001</v>
       </c>
@@ -6536,16 +7337,19 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E267">
-        <v>74.92673611111111</v>
+        <v>0.7492673611111111</v>
       </c>
       <c r="F267">
         <v>228.7874027777778</v>
       </c>
       <c r="G267">
-        <v>1.222222222222222E-07</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>276.3840277777778</v>
+      </c>
+      <c r="H267">
+        <v>5.5E-08</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="2">
         <v>43002</v>
       </c>
@@ -6559,16 +7363,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E268">
-        <v>91.85881944444445</v>
+        <v>0.9185881944444445</v>
       </c>
       <c r="F268">
         <v>104.1104097222222</v>
       </c>
       <c r="G268">
-        <v>8.819444444444445E-08</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>312.2416666666667</v>
+      </c>
+      <c r="H268">
+        <v>3.96875E-08</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="2">
         <v>43003</v>
       </c>
@@ -6582,16 +7389,19 @@
         <v>5.671296296296297E-08</v>
       </c>
       <c r="E269">
-        <v>96.44166666666666</v>
+        <v>0.9644166666666666</v>
       </c>
       <c r="F269">
         <v>69.65376388888889</v>
       </c>
       <c r="G269">
-        <v>1.324074074074074E-07</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>319.3666666666667</v>
+      </c>
+      <c r="H269">
+        <v>5.958333333333333E-08</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="2">
         <v>43004</v>
       </c>
@@ -6605,16 +7415,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E270">
-        <v>88.49291666666666</v>
+        <v>0.8849291666666665</v>
       </c>
       <c r="F270">
         <v>168.7475694444445</v>
       </c>
       <c r="G270">
-        <v>2.5E-07</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>288.5236111111111</v>
+      </c>
+      <c r="H270">
+        <v>1.125E-07</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="2">
         <v>43005</v>
       </c>
@@ -6628,16 +7441,19 @@
         <v>3.472222222222223E-09</v>
       </c>
       <c r="E271">
-        <v>81.61736111111111</v>
+        <v>0.8161736111111111</v>
       </c>
       <c r="F271">
         <v>262.9958194444445</v>
       </c>
       <c r="G271">
-        <v>3.265046296296296E-07</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>256.1805555555555</v>
+      </c>
+      <c r="H271">
+        <v>1.469270833333333E-07</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="2">
         <v>43006</v>
       </c>
@@ -6651,16 +7467,19 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>64.48923611111111</v>
+        <v>0.6448923611111111</v>
       </c>
       <c r="F272">
         <v>230.9380138888889</v>
       </c>
       <c r="G272">
-        <v>1.413194444444445E-07</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>239.4972222222222</v>
+      </c>
+      <c r="H272">
+        <v>6.359375E-08</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="2">
         <v>43007</v>
       </c>
@@ -6674,16 +7493,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E273">
-        <v>64.07708333333333</v>
+        <v>0.6407708333333333</v>
       </c>
       <c r="F273">
         <v>249.4794513888889</v>
       </c>
       <c r="G273">
-        <v>1.451388888888889E-07</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>241.1909722222222</v>
+      </c>
+      <c r="H273">
+        <v>6.53125E-08</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="2">
         <v>43008</v>
       </c>
@@ -6697,16 +7519,19 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>65.77048611111111</v>
+        <v>0.6577048611111111</v>
       </c>
       <c r="F274">
         <v>240.3234236111111</v>
       </c>
       <c r="G274">
-        <v>1.128472222222222E-07</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>267.7402777777777</v>
+      </c>
+      <c r="H274">
+        <v>5.078125E-08</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="2">
         <v>43009</v>
       </c>
@@ -6720,16 +7545,19 @@
         <v>2.199074074074074E-08</v>
       </c>
       <c r="E275">
-        <v>68.28847222222223</v>
+        <v>0.6828847222222223</v>
       </c>
       <c r="F275">
         <v>243.6178263888889</v>
       </c>
       <c r="G275">
-        <v>1.59837962962963E-07</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>268.0215277777777</v>
+      </c>
+      <c r="H275">
+        <v>7.192708333333333E-08</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="2">
         <v>43010</v>
       </c>
@@ -6743,16 +7571,19 @@
         <v>3.819444444444444E-08</v>
       </c>
       <c r="E276">
-        <v>93.95486111111111</v>
+        <v>0.9395486111111111</v>
       </c>
       <c r="F276">
         <v>166.9824513888889</v>
       </c>
       <c r="G276">
-        <v>4.424768518518519E-07</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>306.09375</v>
+      </c>
+      <c r="H276">
+        <v>1.991145833333333E-07</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="2">
         <v>43011</v>
       </c>
@@ -6766,16 +7597,19 @@
         <v>8.101851851851853E-09</v>
       </c>
       <c r="E277">
-        <v>94.00902777777777</v>
+        <v>0.9400902777777778</v>
       </c>
       <c r="F277">
         <v>161.8299861111111</v>
       </c>
       <c r="G277">
-        <v>6.503472222222222E-07</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+        <v>279.9520833333333</v>
+      </c>
+      <c r="H277">
+        <v>2.9265625E-07</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="2">
         <v>43012</v>
       </c>
@@ -6789,16 +7623,19 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>64.84923611111111</v>
+        <v>0.6484923611111111</v>
       </c>
       <c r="F278">
         <v>267.1329444444444</v>
       </c>
       <c r="G278">
-        <v>3.706018518518519E-07</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+        <v>229.8784722222222</v>
+      </c>
+      <c r="H278">
+        <v>1.667708333333333E-07</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="2">
         <v>43013</v>
       </c>
@@ -6812,16 +7649,19 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>49.46520833333333</v>
+        <v>0.4946520833333333</v>
       </c>
       <c r="F279">
         <v>257.9303611111111</v>
       </c>
       <c r="G279">
-        <v>1.55787037037037E-07</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>217.4611111111111</v>
+      </c>
+      <c r="H279">
+        <v>7.010416666666666E-08</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="2">
         <v>43014</v>
       </c>
@@ -6835,16 +7675,19 @@
         <v>4.62962962962963E-09</v>
       </c>
       <c r="E280">
-        <v>53.82263888888889</v>
+        <v>0.5382263888888889</v>
       </c>
       <c r="F280">
         <v>145.7560625</v>
       </c>
       <c r="G280">
-        <v>1.571759259259259E-07</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+        <v>271.6173611111111</v>
+      </c>
+      <c r="H280">
+        <v>7.072916666666667E-08</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="2">
         <v>43015</v>
       </c>
@@ -6858,16 +7701,19 @@
         <v>8.101851851851853E-09</v>
       </c>
       <c r="E281">
-        <v>80.86201388888888</v>
+        <v>0.8086201388888888</v>
       </c>
       <c r="F281">
         <v>160.0795416666667</v>
       </c>
       <c r="G281">
-        <v>1.415509259259259E-07</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>284.3701388888889</v>
+      </c>
+      <c r="H281">
+        <v>6.369791666666666E-08</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="2">
         <v>43016</v>
       </c>
@@ -6881,16 +7727,19 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>92.51284722222222</v>
+        <v>0.9251284722222222</v>
       </c>
       <c r="F282">
         <v>70.73805555555556</v>
       </c>
       <c r="G282">
-        <v>1.682870370370371E-07</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>306.8736111111111</v>
+      </c>
+      <c r="H282">
+        <v>7.572916666666667E-08</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="2">
         <v>43017</v>
       </c>
@@ -6904,16 +7753,19 @@
         <v>2.430555555555556E-08</v>
       </c>
       <c r="E283">
-        <v>93.02916666666667</v>
+        <v>0.9302916666666667</v>
       </c>
       <c r="F283">
         <v>120.5944305555556</v>
       </c>
       <c r="G283">
-        <v>3.443287037037037E-07</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>288.6611111111111</v>
+      </c>
+      <c r="H283">
+        <v>1.549479166666667E-07</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="2">
         <v>43018</v>
       </c>
@@ -6927,16 +7779,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E284">
-        <v>48.37854166666667</v>
+        <v>0.4837854166666667</v>
       </c>
       <c r="F284">
         <v>248.2296041666667</v>
       </c>
       <c r="G284">
-        <v>4.157407407407408E-07</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+        <v>197.8597222222222</v>
+      </c>
+      <c r="H284">
+        <v>1.870833333333333E-07</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="2">
         <v>43019</v>
       </c>
@@ -6950,16 +7805,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E285">
-        <v>41.30034722222222</v>
+        <v>0.4130034722222222</v>
       </c>
       <c r="F285">
         <v>238.1974444444444</v>
       </c>
       <c r="G285">
-        <v>3.703703703703704E-07</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>184.5895833333333</v>
+      </c>
+      <c r="H285">
+        <v>1.666666666666667E-07</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="2">
         <v>43020</v>
       </c>
@@ -6973,16 +7831,19 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>28.83451388888889</v>
+        <v>0.2883451388888889</v>
       </c>
       <c r="F286">
         <v>242.1636041666667</v>
       </c>
       <c r="G286">
-        <v>3.365740740740741E-07</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+        <v>169.9583333333333</v>
+      </c>
+      <c r="H286">
+        <v>1.514583333333333E-07</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="2">
         <v>43021</v>
       </c>
@@ -6996,16 +7857,19 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>59.63805555555555</v>
+        <v>0.5963805555555556</v>
       </c>
       <c r="F287">
         <v>160.6982916666667</v>
       </c>
       <c r="G287">
-        <v>3.15625E-07</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+        <v>237.3965277777778</v>
+      </c>
+      <c r="H287">
+        <v>1.4203125E-07</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="2">
         <v>43022</v>
       </c>
@@ -7019,16 +7883,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E288">
-        <v>79.54034722222222</v>
+        <v>0.7954034722222222</v>
       </c>
       <c r="F288">
         <v>194.3815486111111</v>
       </c>
       <c r="G288">
-        <v>3.778935185185185E-07</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>246.1326388888889</v>
+      </c>
+      <c r="H288">
+        <v>1.700520833333333E-07</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="2">
         <v>43023</v>
       </c>
@@ -7042,16 +7909,19 @@
         <v>8.101851851851851E-09</v>
       </c>
       <c r="E289">
-        <v>84.99722222222222</v>
+        <v>0.8499722222222222</v>
       </c>
       <c r="F289">
         <v>197.5374444444444</v>
       </c>
       <c r="G289">
-        <v>3.28125E-07</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>279.8423611111111</v>
+      </c>
+      <c r="H289">
+        <v>1.4765625E-07</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="2">
         <v>43024</v>
       </c>
@@ -7065,16 +7935,19 @@
         <v>6.944444444444444E-09</v>
       </c>
       <c r="E290">
-        <v>92.4075</v>
+        <v>0.924075</v>
       </c>
       <c r="F290">
         <v>101.0904861111111</v>
       </c>
       <c r="G290">
-        <v>3.91087962962963E-07</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>294.61875</v>
+      </c>
+      <c r="H290">
+        <v>1.759895833333333E-07</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="2">
         <v>43025</v>
       </c>
@@ -7088,16 +7961,19 @@
         <v>1.50462962962963E-08</v>
       </c>
       <c r="E291">
-        <v>91.19861111111112</v>
+        <v>0.9119861111111112</v>
       </c>
       <c r="F291">
         <v>157.0033055555556</v>
       </c>
       <c r="G291">
-        <v>8.422453703703703E-07</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>284.2722222222222</v>
+      </c>
+      <c r="H291">
+        <v>3.790104166666667E-07</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="2">
         <v>43026</v>
       </c>
@@ -7111,16 +7987,19 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>73.93347222222222</v>
+        <v>0.7393347222222222</v>
       </c>
       <c r="F292">
         <v>133.451625</v>
       </c>
       <c r="G292">
-        <v>7.204861111111111E-07</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>246.1298611111111</v>
+      </c>
+      <c r="H292">
+        <v>3.2421875E-07</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="2">
         <v>43027</v>
       </c>
@@ -7134,16 +8013,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E293">
-        <v>44.75965277777778</v>
+        <v>0.4475965277777778</v>
       </c>
       <c r="F293">
         <v>226.9416180555556</v>
       </c>
       <c r="G293">
-        <v>6.83912037037037E-07</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>189.2604166666667</v>
+      </c>
+      <c r="H293">
+        <v>3.077604166666666E-07</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="2">
         <v>43028</v>
       </c>
@@ -7157,16 +8039,19 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>47.99743055555555</v>
+        <v>0.4799743055555555</v>
       </c>
       <c r="F294">
         <v>205.5635694444444</v>
       </c>
       <c r="G294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>216.1805555555555</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="2">
         <v>43029</v>
       </c>
@@ -7180,16 +8065,19 @@
         <v>2.314814814814815E-09</v>
       </c>
       <c r="E295">
-        <v>91.47291666666666</v>
+        <v>0.9147291666666666</v>
       </c>
       <c r="F295">
         <v>178.7160069444444</v>
       </c>
       <c r="G295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>257.1201388888889</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="2">
         <v>43030</v>
       </c>
@@ -7203,16 +8091,19 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>81.4667361111111</v>
+        <v>0.814667361111111</v>
       </c>
       <c r="F296">
         <v>140.4155277777778</v>
       </c>
       <c r="G296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>246.8354166666667</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="2">
         <v>43031</v>
       </c>
@@ -7226,16 +8117,19 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>72.68076388888889</v>
+        <v>0.7268076388888889</v>
       </c>
       <c r="F297">
         <v>196.2199861111111</v>
       </c>
       <c r="G297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>225.1083333333333</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="2">
         <v>43032</v>
       </c>
@@ -7249,16 +8143,19 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>76.27034722222223</v>
+        <v>0.7627034722222222</v>
       </c>
       <c r="F298">
         <v>54.3918125</v>
       </c>
       <c r="G298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>267.8986111111111</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="2">
         <v>43033</v>
       </c>
@@ -7272,16 +8169,19 @@
         <v>1.157407407407407E-08</v>
       </c>
       <c r="E299">
-        <v>87.86111111111111</v>
+        <v>0.8786111111111111</v>
       </c>
       <c r="F299">
         <v>152.9424444444444</v>
       </c>
       <c r="G299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>251.1756944444445</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="2">
         <v>43034</v>
       </c>
@@ -7295,16 +8195,19 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>46.26944444444445</v>
+        <v>0.4626944444444445</v>
       </c>
       <c r="F300">
         <v>207.5244791666667</v>
       </c>
       <c r="G300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>176.9541666666667</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="2">
         <v>43035</v>
       </c>
@@ -7318,16 +8221,19 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>49.08472222222222</v>
+        <v>0.4908472222222222</v>
       </c>
       <c r="F301">
         <v>171.9647638888889</v>
       </c>
       <c r="G301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+        <v>198.9597222222222</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="2">
         <v>43036</v>
       </c>
@@ -7341,16 +8247,19 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>32.98638888888889</v>
+        <v>0.3298638888888889</v>
       </c>
       <c r="F302">
         <v>206.541375</v>
       </c>
       <c r="G302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>160.9041666666667</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="2">
         <v>43037</v>
       </c>
@@ -7364,16 +8273,19 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>27.99166666666667</v>
+        <v>0.2799166666666666</v>
       </c>
       <c r="F303">
         <v>189.3334583333333</v>
       </c>
       <c r="G303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>187.4069444444444</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="2">
         <v>43038</v>
       </c>
@@ -7387,16 +8299,19 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>58.87861111111111</v>
+        <v>0.5887861111111111</v>
       </c>
       <c r="F304">
         <v>165.3712569444444</v>
       </c>
       <c r="G304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>215.025</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="2">
         <v>43039</v>
       </c>
@@ -7410,16 +8325,19 @@
         <v>1.157407407407407E-09</v>
       </c>
       <c r="E305">
-        <v>49.52784722222222</v>
+        <v>0.4952784722222222</v>
       </c>
       <c r="F305">
         <v>197.1112291666667</v>
       </c>
       <c r="G305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+        <v>183.0069444444445</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="2">
         <v>43040</v>
       </c>
@@ -7433,16 +8351,19 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>35.18680555555555</v>
+        <v>0.3518680555555555</v>
       </c>
       <c r="F306">
         <v>161.883125</v>
       </c>
       <c r="G306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+        <v>189.9708333333333</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="2">
         <v>43041</v>
       </c>
@@ -7456,16 +8377,19 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>48.58208333333333</v>
+        <v>0.4858208333333333</v>
       </c>
       <c r="F307">
         <v>181.1672361111111</v>
       </c>
       <c r="G307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>183.5465277777778</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="2">
         <v>43042</v>
       </c>
@@ -7479,16 +8403,19 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>50.105</v>
+        <v>0.50105</v>
       </c>
       <c r="F308">
         <v>172.2062430555555</v>
       </c>
       <c r="G308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>185.6631944444445</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="2">
         <v>43043</v>
       </c>
@@ -7502,16 +8429,19 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>37.72972222222222</v>
+        <v>0.3772972222222222</v>
       </c>
       <c r="F309">
         <v>188.9949722222222</v>
       </c>
       <c r="G309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>170.5826388888889</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="2">
         <v>43044</v>
       </c>
@@ -7525,16 +8455,19 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>37.33583333333333</v>
+        <v>0.3733583333333333</v>
       </c>
       <c r="F310">
         <v>177.7930486111111</v>
       </c>
       <c r="G310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>197.8638888888889</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="2">
         <v>43045</v>
       </c>
@@ -7548,16 +8481,19 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>52.84472222222222</v>
+        <v>0.5284472222222223</v>
       </c>
       <c r="F311">
         <v>147.8349722222222</v>
       </c>
       <c r="G311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>199.2722222222222</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="2">
         <v>43046</v>
       </c>
@@ -7571,16 +8507,19 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>34.07763888888889</v>
+        <v>0.3407763888888889</v>
       </c>
       <c r="F312">
         <v>172.4770833333333</v>
       </c>
       <c r="G312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>171.2486111111111</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="2">
         <v>43047</v>
       </c>
@@ -7594,16 +8533,19 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>33.32854166666667</v>
+        <v>0.3332854166666667</v>
       </c>
       <c r="F313">
         <v>151.2336041666667</v>
       </c>
       <c r="G313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>182.3138888888889</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="2">
         <v>43048</v>
       </c>
@@ -7617,16 +8559,19 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>65.27222222222223</v>
+        <v>0.6527222222222222</v>
       </c>
       <c r="F314">
         <v>90.09729166666666</v>
       </c>
       <c r="G314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>239.3472222222222</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="2">
         <v>43049</v>
       </c>
@@ -7640,16 +8585,19 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>68.50298611111111</v>
+        <v>0.6850298611111111</v>
       </c>
       <c r="F315">
         <v>158.6881111111111</v>
       </c>
       <c r="G315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+        <v>223.7847222222222</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="2">
         <v>43050</v>
       </c>
@@ -7663,16 +8611,19 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>34.94298611111111</v>
+        <v>0.3494298611111111</v>
       </c>
       <c r="F316">
         <v>126.9170694444445</v>
       </c>
       <c r="G316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>185.28125</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="2">
         <v>43051</v>
       </c>
@@ -7686,16 +8637,19 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>26.85611111111111</v>
+        <v>0.2685611111111111</v>
       </c>
       <c r="F317">
         <v>174.6240833333333</v>
       </c>
       <c r="G317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+        <v>160.0868055555555</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="2">
         <v>43052</v>
       </c>
@@ -7709,16 +8663,19 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>24.09680555555556</v>
+        <v>0.2409680555555556</v>
       </c>
       <c r="F318">
         <v>176.3288194444445</v>
       </c>
       <c r="G318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>144.1777777777778</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="2">
         <v>43053</v>
       </c>
@@ -7732,16 +8689,19 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>19.91041666666667</v>
+        <v>0.1991041666666667</v>
       </c>
       <c r="F319">
         <v>172.6039583333333</v>
       </c>
       <c r="G319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+        <v>149.5513888888889</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="2">
         <v>43054</v>
       </c>
@@ -7755,16 +8715,19 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>26.77486111111111</v>
+        <v>0.2677486111111111</v>
       </c>
       <c r="F320">
         <v>141.9486041666667</v>
       </c>
       <c r="G320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>188.1673611111111</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="2">
         <v>43055</v>
       </c>
@@ -7778,16 +8741,19 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>31.24923611111111</v>
+        <v>0.3124923611111111</v>
       </c>
       <c r="F321">
         <v>152.0319861111111</v>
       </c>
       <c r="G321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>202.4180555555556</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="2">
         <v>43056</v>
       </c>
@@ -7801,16 +8767,19 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>45.375</v>
+        <v>0.45375</v>
       </c>
       <c r="F322">
         <v>127.8964583333333</v>
       </c>
       <c r="G322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>205.5715277777778</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="2">
         <v>43057</v>
       </c>
@@ -7824,16 +8793,19 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>67.38326388888889</v>
+        <v>0.6738326388888889</v>
       </c>
       <c r="F323">
         <v>125.3239861111111</v>
       </c>
       <c r="G323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>206.5125</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="2">
         <v>43058</v>
       </c>
@@ -7847,16 +8819,19 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>74.04006944444444</v>
+        <v>0.7404006944444445</v>
       </c>
       <c r="F324">
         <v>163.9344444444445</v>
       </c>
       <c r="G324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>184.7159722222222</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="2">
         <v>43059</v>
       </c>
@@ -7870,16 +8845,19 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>49.048125</v>
+        <v>0.49048125</v>
       </c>
       <c r="F325">
         <v>147.4663263888889</v>
       </c>
       <c r="G325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+        <v>163.1736111111111</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="2">
         <v>43060</v>
       </c>
@@ -7893,16 +8871,19 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>39.75270833333334</v>
+        <v>0.3975270833333334</v>
       </c>
       <c r="F326">
         <v>154.0522569444444</v>
       </c>
       <c r="G326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>154.9638888888889</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="2">
         <v>43061</v>
       </c>
@@ -7916,16 +8897,19 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>34.42236111111111</v>
+        <v>0.3442236111111111</v>
       </c>
       <c r="F327">
         <v>148.7761041666666</v>
       </c>
       <c r="G327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>135.8423611111111</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="2">
         <v>43062</v>
       </c>
@@ -7939,16 +8923,19 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>21.72208333333333</v>
+        <v>0.2172208333333333</v>
       </c>
       <c r="F328">
         <v>159.7311111111111</v>
       </c>
       <c r="G328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>117.9125</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="2">
         <v>43063</v>
       </c>
@@ -7962,16 +8949,19 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>19.94</v>
+        <v>0.1994</v>
       </c>
       <c r="F329">
         <v>155.6748125</v>
       </c>
       <c r="G329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
+        <v>131.18125</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="2">
         <v>43064</v>
       </c>
@@ -7985,16 +8975,19 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>21.80840277777778</v>
+        <v>0.2180840277777777</v>
       </c>
       <c r="F330">
         <v>155.4041666666667</v>
       </c>
       <c r="G330">
-        <v>5.085648148148148E-07</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>132.0597222222222</v>
+      </c>
+      <c r="H330">
+        <v>2.288541666666667E-07</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="2">
         <v>43065</v>
       </c>
@@ -8008,16 +9001,19 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>19.81048611111111</v>
+        <v>0.1981048611111111</v>
       </c>
       <c r="F331">
         <v>152.0547916666667</v>
       </c>
       <c r="G331">
-        <v>5.101851851851852E-07</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>137.4263888888889</v>
+      </c>
+      <c r="H331">
+        <v>2.295833333333333E-07</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="2">
         <v>43066</v>
       </c>
@@ -8031,16 +9027,19 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>26.01652777777778</v>
+        <v>0.2601652777777778</v>
       </c>
       <c r="F332">
         <v>155.2102291666667</v>
       </c>
       <c r="G332">
-        <v>5.25925925925926E-07</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
+        <v>170.8173611111111</v>
+      </c>
+      <c r="H332">
+        <v>2.366666666666667E-07</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="2">
         <v>43067</v>
       </c>
@@ -8054,16 +9053,19 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>35.08402777777778</v>
+        <v>0.3508402777777778</v>
       </c>
       <c r="F333">
         <v>147.4176805555556</v>
       </c>
       <c r="G333">
-        <v>5.420138888888888E-07</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
+        <v>159.7736111111111</v>
+      </c>
+      <c r="H333">
+        <v>2.4390625E-07</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="2">
         <v>43068</v>
       </c>
@@ -8077,16 +9079,19 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>54.84645833333334</v>
+        <v>0.5484645833333334</v>
       </c>
       <c r="F334">
         <v>139.5331319444444</v>
       </c>
       <c r="G334">
-        <v>5.297453703703704E-07</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>167.4986111111111</v>
+      </c>
+      <c r="H334">
+        <v>2.383854166666667E-07</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="2">
         <v>43069</v>
       </c>
@@ -8100,16 +9105,19 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>53.32236111111111</v>
+        <v>0.5332236111111112</v>
       </c>
       <c r="F335">
         <v>150.9052013888889</v>
       </c>
       <c r="G335">
-        <v>5.101851851851852E-07</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>150.1854166666667</v>
+      </c>
+      <c r="H335">
+        <v>2.295833333333333E-07</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="2">
         <v>43070</v>
       </c>
@@ -8123,16 +9131,19 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>47.99812499999999</v>
+        <v>0.47998125</v>
       </c>
       <c r="F336">
         <v>149.0337777777778</v>
       </c>
       <c r="G336">
-        <v>5.403935185185186E-07</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>168.4208333333333</v>
+      </c>
+      <c r="H336">
+        <v>2.431770833333333E-07</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="2">
         <v>43071</v>
       </c>
@@ -8146,16 +9157,19 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>35.38243055555555</v>
+        <v>0.3538243055555555</v>
       </c>
       <c r="F337">
         <v>112.0643611111111</v>
       </c>
       <c r="G337">
-        <v>5.628472222222222E-07</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>174.6805555555555</v>
+      </c>
+      <c r="H337">
+        <v>2.5328125E-07</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="2">
         <v>43072</v>
       </c>
@@ -8169,16 +9183,19 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>22.586875</v>
+        <v>0.22586875</v>
       </c>
       <c r="F338">
         <v>143.3145069444444</v>
       </c>
       <c r="G338">
-        <v>5.738425925925925E-07</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>139.4180555555556</v>
+      </c>
+      <c r="H338">
+        <v>2.582291666666666E-07</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="2">
         <v>43073</v>
       </c>
@@ -8192,16 +9209,19 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>23.71402777777778</v>
+        <v>0.2371402777777778</v>
       </c>
       <c r="F339">
         <v>146.2344375</v>
       </c>
       <c r="G339">
-        <v>5.746527777777777E-07</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>147.3902777777778</v>
+      </c>
+      <c r="H339">
+        <v>2.5859375E-07</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="2">
         <v>43074</v>
       </c>
@@ -8215,16 +9235,19 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>24.97368055555556</v>
+        <v>0.2497368055555556</v>
       </c>
       <c r="F340">
         <v>138.5269861111111</v>
       </c>
       <c r="G340">
-        <v>5.695601851851851E-07</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>162.7680555555555</v>
+      </c>
+      <c r="H340">
+        <v>2.563020833333333E-07</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="2">
         <v>43075</v>
       </c>
@@ -8238,16 +9261,19 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>22.80298611111111</v>
+        <v>0.2280298611111111</v>
       </c>
       <c r="F341">
         <v>141.5546666666667</v>
       </c>
       <c r="G341">
-        <v>5.765046296296296E-07</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+        <v>167.6180555555555</v>
+      </c>
+      <c r="H341">
+        <v>2.594270833333333E-07</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="2">
         <v>43076</v>
       </c>
@@ -8261,16 +9287,19 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>16.12576388888889</v>
+        <v>0.1612576388888889</v>
       </c>
       <c r="F342">
         <v>119.0701944444444</v>
       </c>
       <c r="G342">
-        <v>5.876157407407408E-07</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>167.6402777777778</v>
+      </c>
+      <c r="H342">
+        <v>2.644270833333334E-07</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="2">
         <v>43077</v>
       </c>
@@ -8284,16 +9313,19 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>24.95107638888889</v>
+        <v>0.2495107638888889</v>
       </c>
       <c r="F343">
         <v>125.5552083333333</v>
       </c>
       <c r="G343">
-        <v>5.726851851851852E-07</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>160.6180555555555</v>
+      </c>
+      <c r="H343">
+        <v>2.577083333333333E-07</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="2">
         <v>43078</v>
       </c>
@@ -8307,16 +9339,19 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>19.02756944444444</v>
+        <v>0.1902756944444444</v>
       </c>
       <c r="F344">
         <v>141.3286805555555</v>
       </c>
       <c r="G344">
-        <v>5.435185185185185E-07</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>166.48125</v>
+      </c>
+      <c r="H344">
+        <v>2.445833333333334E-07</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="2">
         <v>43079</v>
       </c>
@@ -8330,16 +9365,19 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>24.01777777777778</v>
+        <v>0.2401777777777778</v>
       </c>
       <c r="F345">
         <v>138.2289652777778</v>
       </c>
       <c r="G345">
-        <v>5.833333333333333E-07</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>177.5291666666667</v>
+      </c>
+      <c r="H345">
+        <v>2.625E-07</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="2">
         <v>43080</v>
       </c>
@@ -8353,16 +9391,19 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>24.85215277777778</v>
+        <v>0.2485215277777778</v>
       </c>
       <c r="F346">
         <v>136.8347708333333</v>
       </c>
       <c r="G346">
-        <v>5.680555555555555E-07</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>182.9708333333333</v>
+      </c>
+      <c r="H346">
+        <v>2.55625E-07</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="2">
         <v>43081</v>
       </c>
@@ -8376,16 +9417,19 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>25.63541666666667</v>
+        <v>0.2563541666666667</v>
       </c>
       <c r="F347">
         <v>121.0381944444444</v>
       </c>
       <c r="G347">
-        <v>5.972222222222222E-07</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+        <v>198.9305555555555</v>
+      </c>
+      <c r="H347">
+        <v>2.6875E-07</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="2">
         <v>43082</v>
       </c>
@@ -8399,16 +9443,19 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>37.99194444444444</v>
+        <v>0.3799194444444444</v>
       </c>
       <c r="F348">
         <v>117.6424444444444</v>
       </c>
       <c r="G348">
-        <v>5.717592592592592E-07</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+        <v>203.0930555555556</v>
+      </c>
+      <c r="H348">
+        <v>2.572916666666667E-07</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="2">
         <v>43083</v>
       </c>
@@ -8422,16 +9469,19 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>51.63625</v>
+        <v>0.5163624999999999</v>
       </c>
       <c r="F349">
         <v>98.46441666666666</v>
       </c>
       <c r="G349">
-        <v>5.652777777777778E-07</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>196.2763888888889</v>
+      </c>
+      <c r="H349">
+        <v>2.54375E-07</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="2">
         <v>43084</v>
       </c>
@@ -8445,16 +9495,19 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>79.674375</v>
+        <v>0.79674375</v>
       </c>
       <c r="F350">
         <v>132.6110208333333</v>
       </c>
       <c r="G350">
-        <v>5.167824074074074E-07</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>200.3819444444445</v>
+      </c>
+      <c r="H350">
+        <v>2.325520833333333E-07</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="2">
         <v>43085</v>
       </c>
@@ -8468,16 +9521,19 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>68.16180555555555</v>
+        <v>0.6816180555555554</v>
       </c>
       <c r="F351">
         <v>101.9862986111111</v>
       </c>
       <c r="G351">
-        <v>5.47337962962963E-07</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+        <v>207.9458333333333</v>
+      </c>
+      <c r="H351">
+        <v>2.463020833333333E-07</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="2">
         <v>43086</v>
       </c>
@@ -8491,16 +9547,19 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>35.72180555555556</v>
+        <v>0.3572180555555555</v>
       </c>
       <c r="F352">
         <v>121.3543055555556</v>
       </c>
       <c r="G352">
-        <v>5.435185185185185E-07</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>164.6305555555556</v>
+      </c>
+      <c r="H352">
+        <v>2.445833333333334E-07</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="2">
         <v>43087</v>
       </c>
@@ -8514,16 +9573,19 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>57.99055555555555</v>
+        <v>0.5799055555555556</v>
       </c>
       <c r="F353">
         <v>114.2962847222222</v>
       </c>
       <c r="G353">
-        <v>5.22800925925926E-07</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>197.9381944444444</v>
+      </c>
+      <c r="H353">
+        <v>2.352604166666667E-07</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="2">
         <v>43088</v>
       </c>
@@ -8537,16 +9599,19 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>28.50881944444445</v>
+        <v>0.2850881944444445</v>
       </c>
       <c r="F354">
         <v>140.1250902777778</v>
       </c>
       <c r="G354">
-        <v>5.059027777777777E-07</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
+        <v>139.3131944444444</v>
+      </c>
+      <c r="H354">
+        <v>2.2765625E-07</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="2">
         <v>43089</v>
       </c>
@@ -8560,16 +9625,19 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <v>16.45548611111111</v>
+        <v>0.1645548611111111</v>
       </c>
       <c r="F355">
         <v>141.8836111111111</v>
       </c>
       <c r="G355">
-        <v>5.493055555555556E-07</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>143.8388888888889</v>
+      </c>
+      <c r="H355">
+        <v>2.471875E-07</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="2">
         <v>43090</v>
       </c>
@@ -8583,16 +9651,19 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>21.49673611111111</v>
+        <v>0.2149673611111111</v>
       </c>
       <c r="F356">
         <v>129.2595555555556</v>
       </c>
       <c r="G356">
-        <v>5.521990740740741E-07</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>174.8159722222222</v>
+      </c>
+      <c r="H356">
+        <v>2.484895833333333E-07</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="2">
         <v>43091</v>
       </c>
@@ -8606,16 +9677,19 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>34.36138888888889</v>
+        <v>0.3436138888888889</v>
       </c>
       <c r="F357">
         <v>129.1045902777778</v>
       </c>
       <c r="G357">
-        <v>5.384259259259259E-07</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>182.6340277777778</v>
+      </c>
+      <c r="H357">
+        <v>2.422916666666666E-07</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="2">
         <v>43092</v>
       </c>
@@ -8629,16 +9703,19 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>38.39305555555556</v>
+        <v>0.3839305555555556</v>
       </c>
       <c r="F358">
         <v>99.17675694444443</v>
       </c>
       <c r="G358">
-        <v>5.359953703703703E-07</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>166.3520833333333</v>
+      </c>
+      <c r="H358">
+        <v>2.411979166666666E-07</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="2">
         <v>43093</v>
       </c>
@@ -8652,16 +9729,19 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>21.835</v>
+        <v>0.21835</v>
       </c>
       <c r="F359">
         <v>144.1290833333333</v>
       </c>
       <c r="G359">
-        <v>5.733796296296297E-07</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
+        <v>135.6465277777778</v>
+      </c>
+      <c r="H359">
+        <v>2.580208333333333E-07</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="2">
         <v>43094</v>
       </c>
@@ -8675,16 +9755,19 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>17.01847916666667</v>
+        <v>0.1701847916666667</v>
       </c>
       <c r="F360">
         <v>142.4302222222222</v>
       </c>
       <c r="G360">
-        <v>5.604166666666667E-07</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
+        <v>149.3381944444444</v>
+      </c>
+      <c r="H360">
+        <v>2.521875E-07</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="2">
         <v>43095</v>
       </c>
@@ -8698,16 +9781,19 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>12.26006944444445</v>
+        <v>0.1226006944444444</v>
       </c>
       <c r="F361">
         <v>145.3835625</v>
       </c>
       <c r="G361">
-        <v>5.702546296296297E-07</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+        <v>124.4104166666667</v>
+      </c>
+      <c r="H361">
+        <v>2.566145833333333E-07</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="2">
         <v>43096</v>
       </c>
@@ -8721,16 +9807,19 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>16.81798611111111</v>
+        <v>0.1681798611111111</v>
       </c>
       <c r="F362">
         <v>137.1928472222222</v>
       </c>
       <c r="G362">
-        <v>5.876157407407408E-07</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>164.6118055555555</v>
+      </c>
+      <c r="H362">
+        <v>2.644270833333334E-07</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="2">
         <v>43097</v>
       </c>
@@ -8744,16 +9833,19 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>33.08236111111111</v>
+        <v>0.3308236111111111</v>
       </c>
       <c r="F363">
         <v>111.0840277777778</v>
       </c>
       <c r="G363">
-        <v>5.678240740740741E-07</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>196.6118055555555</v>
+      </c>
+      <c r="H363">
+        <v>2.555208333333333E-07</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="2">
         <v>43098</v>
       </c>
@@ -8767,16 +9859,19 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>65.82520833333334</v>
+        <v>0.6582520833333334</v>
       </c>
       <c r="F364">
         <v>78.12406944444444</v>
       </c>
       <c r="G364">
-        <v>5.62962962962963E-07</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>210.9618055555555</v>
+      </c>
+      <c r="H364">
+        <v>2.533333333333333E-07</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="2">
         <v>43099</v>
       </c>
@@ -8790,16 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>26.00152777777778</v>
+        <v>0.2600152777777778</v>
       </c>
       <c r="F365">
         <v>145.9531736111111</v>
       </c>
       <c r="G365">
-        <v>6.380787037037037E-07</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>134.5402777777778</v>
+      </c>
+      <c r="H365">
+        <v>2.871354166666667E-07</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="2">
         <v>43100</v>
       </c>
@@ -8813,13 +9911,16 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>23.73263888888889</v>
+        <v>0.2373263888888889</v>
       </c>
       <c r="F366">
         <v>146.5663888888889</v>
       </c>
       <c r="G366">
-        <v>5.796296296296296E-07</v>
+        <v>135.9305555555555</v>
+      </c>
+      <c r="H366">
+        <v>2.608333333333333E-07</v>
       </c>
     </row>
   </sheetData>

--- a/rk_model/Data/Data_Yakou/Yakou_met_data_ITP_rk/input_data_env_variables.xlsx
+++ b/rk_model/Data/Data_Yakou/Yakou_met_data_ITP_rk/input_data_env_variables.xlsx
@@ -8048,7 +8048,7 @@
         <v>216.1805555555555</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8074,7 +8074,7 @@
         <v>257.1201388888889</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8100,7 +8100,7 @@
         <v>246.8354166666667</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8126,7 +8126,7 @@
         <v>225.1083333333333</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8152,7 +8152,7 @@
         <v>267.8986111111111</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8178,7 +8178,7 @@
         <v>251.1756944444445</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8204,7 +8204,7 @@
         <v>176.9541666666667</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8230,7 +8230,7 @@
         <v>198.9597222222222</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8256,7 +8256,7 @@
         <v>160.9041666666667</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8282,7 +8282,7 @@
         <v>187.4069444444444</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8308,7 +8308,7 @@
         <v>215.025</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8334,7 +8334,7 @@
         <v>183.0069444444445</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8360,7 +8360,7 @@
         <v>189.9708333333333</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8386,7 +8386,7 @@
         <v>183.5465277777778</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8412,7 +8412,7 @@
         <v>185.6631944444445</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8438,7 +8438,7 @@
         <v>170.5826388888889</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8464,7 +8464,7 @@
         <v>197.8638888888889</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8490,7 +8490,7 @@
         <v>199.2722222222222</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8516,7 +8516,7 @@
         <v>171.2486111111111</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8542,7 +8542,7 @@
         <v>182.3138888888889</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8568,7 +8568,7 @@
         <v>239.3472222222222</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8594,7 +8594,7 @@
         <v>223.7847222222222</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8620,7 +8620,7 @@
         <v>185.28125</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8646,7 +8646,7 @@
         <v>160.0868055555555</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8672,7 +8672,7 @@
         <v>144.1777777777778</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8698,7 +8698,7 @@
         <v>149.5513888888889</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8724,7 +8724,7 @@
         <v>188.1673611111111</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8750,7 +8750,7 @@
         <v>202.4180555555556</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8776,7 +8776,7 @@
         <v>205.5715277777778</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8802,7 +8802,7 @@
         <v>206.5125</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8828,7 +8828,7 @@
         <v>184.7159722222222</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8854,7 +8854,7 @@
         <v>163.1736111111111</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8880,7 +8880,7 @@
         <v>154.9638888888889</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8906,7 +8906,7 @@
         <v>135.8423611111111</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8932,7 +8932,7 @@
         <v>117.9125</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8958,7 +8958,7 @@
         <v>131.18125</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2.531569220430107E-07</v>
       </c>
     </row>
     <row r="330" spans="1:8">
